--- a/validate/check_Adrian.xlsx
+++ b/validate/check_Adrian.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Research\Projects\ihbi\aushsi\aushsi_barnetta\meta.research\text.mining\AUC\validate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAEF349-CFAF-4DE1-9F5A-D5917224BF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E9DE7-B855-4CE0-ACF2-D7D897C35807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.7" sheetId="1" r:id="rId1"/>
     <sheet name="0.8" sheetId="2" r:id="rId2"/>
     <sheet name="1" sheetId="3" r:id="rId3"/>
+    <sheet name="0.81" sheetId="4" r:id="rId4"/>
+    <sheet name="0.57" sheetId="5" r:id="rId5"/>
+    <sheet name="0.58" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="847">
   <si>
     <t>link</t>
   </si>
@@ -936,24 +939,12 @@
     <t>Rounded result</t>
   </si>
   <si>
-    <t>"The AUCs were always higher than 0.7."</t>
-  </si>
-  <si>
-    <t>"showed sufficient discrimination (area under the receiver operation characteristic curve &gt;.70) "</t>
-  </si>
-  <si>
     <t>? JAFROC , so still an area under the curve</t>
   </si>
   <si>
-    <t>"The predictive properties of each sign remain low (maximum area under the receiver operating characteristic curve 0.70)."</t>
-  </si>
-  <si>
     <t>0.7 is the net reclassification index</t>
   </si>
   <si>
-    <t>"An additional 20 SNPs with allele frequency 0.30 and ORs 1.1 would be needed to increase the AUC to a slightly higher level of 0.70"</t>
-  </si>
-  <si>
     <t>was sensitivity</t>
   </si>
   <si>
@@ -1069,6 +1060,2445 @@
   </si>
   <si>
     <t>Methods paper</t>
+  </si>
+  <si>
+    <t>Threshold: "The AUCs were always higher than 0.7."</t>
+  </si>
+  <si>
+    <t>Threshold: "showed sufficient discrimination (area under the receiver operation characteristic curve &gt;.70) "</t>
+  </si>
+  <si>
+    <t>Threshold: "The predictive properties of each sign remain low (maximum area under the receiver operating characteristic curve 0.70)."</t>
+  </si>
+  <si>
+    <t>Threshold: "An additional 20 SNPs with allele frequency 0.30 and ORs 1.1 would be needed to increase the AUC to a slightly higher level of 0.70"</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23339438/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24984169/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31146185/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30579283/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19591514/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33257140/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29953518/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17584565/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32521469/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33063292/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26051455/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32061870/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32404661/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34628896/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32994924/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27128555/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29555831/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19861954/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32267939/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33332897/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32527173/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34419103/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33201286/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27594556/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34233994/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29876266/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34303553/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28869649/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18046935/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34595114/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24105705/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22886747/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18954509/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29348138/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25556538/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33553336/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27594440/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23426066/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20579196/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29223148/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19104171/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30237858/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12607839/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27436783/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33187864/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34482709/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25905662/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28153351/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12832317/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21939529/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21498935/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24239034/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29484275/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21747948/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31196560/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28883645/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19162848/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30258027/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24727872/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34432797/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30500816/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34279467/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25280747/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21276124/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28320577/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32146558/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26437275/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/11414338/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34076610/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31685006/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33114150/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21913154/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28400169/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30288767/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26689476/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32553719/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32251292/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29130388/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23493731/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28349958/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33271740/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/11756708/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34601999/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23483254/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31566201/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30463915/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24917530/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29271504/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25955578/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23803364/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31725371/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28841822/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31026118/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28376113/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15984987/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33061545/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24183513/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33352373/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31606044/</t>
+  </si>
+  <si>
+    <t>negative predictive value</t>
+  </si>
+  <si>
+    <t>agreement statistic</t>
+  </si>
+  <si>
+    <t>although check if "threshold" is in excluded words</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29684670/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31393626/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32765111/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19443797/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29511883/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27427814/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31521372/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19755762/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34618817/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24637340/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34231966/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32583288/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20195678/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30552251/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27387658/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26507945/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30041764/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/8691223/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30103642/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28369100/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32863062/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21791540/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33950167/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25340055/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21620599/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30824946/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21062396/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31941530/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31692064/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28863722/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21618606/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33189001/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12921935/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33117971/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34742874/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33977228/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25984929/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34545335/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28574282/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28903800/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30110336/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29310465/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28892537/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33419028/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30971708/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30006263/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30730423/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26712102/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/14752842/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33100063/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12412708/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28292477/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26185776/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34141986/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34524884/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16964873/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27073131/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27015197/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15748183/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33612806/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27338535/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22089607/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22687565/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31709851/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29995170/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15935965/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34213609/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26626714/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25820865/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32142586/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29482044/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20817702/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19497506/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24659070/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17385144/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34315562/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32205617/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29184910/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34535597/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27770001/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24998466/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32500276/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23730836/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30340850/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29475235/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31201884/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20233754/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33996864/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28798985/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30849761/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28224933/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33534922/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24869673/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26677205/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29249501/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24393657/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24524112/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29332744/</t>
+  </si>
+  <si>
+    <t>confidence limit for AUC or specificity</t>
+  </si>
+  <si>
+    <t>cutoff</t>
+  </si>
+  <si>
+    <t>Was a preprint, current version does not have 0.57, but previous version did</t>
+  </si>
+  <si>
+    <t>hazard ratio</t>
+  </si>
+  <si>
+    <t>partial AUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> volume under the ROC surface</t>
+  </si>
+  <si>
+    <t>Although wrote 0.57%, assuming that is a typo</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30869541/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34806063/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34530786/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34164467/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19336551/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19657890/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29573939/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26319317/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33958334/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28286825/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25015340/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28445241/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21834917/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19028836/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28517021/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33725830/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26100127/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30678533/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19500279/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33526630/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31118782/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34020078/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19925459/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34417517/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26082297/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29266094/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27149597/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34357451/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31792957/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32677477/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26081996/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19560557/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22541834/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31413639/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33840958/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24349403/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30838444/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12756597/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20828415/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32854655/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33569620/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18757205/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16612311/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34374190/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34761112/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33437953/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29369004/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27908443/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30120312/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32311754/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32955914/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31954813/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29848291/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34181520/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25559311/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34012785/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12439514/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/10090488/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32247156/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31628130/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33851940/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33639874/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32978993/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17080001/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25853016/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26601971/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12094194/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28367375/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22156018/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25784136/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30847587/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33948862/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29151699/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21146484/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29064750/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32998664/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24628849/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19258482/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22427368/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34038570/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23597479/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33038873/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31620638/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33426310/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26603744/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27278427/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32510902/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31633048/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26258815/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20019453/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30713522/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27990485/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32375278/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24631759/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27540034/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28323271/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34231659/</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>Median and interquartile ranges were used for representation of continuous variables and proportions for categorical data. Cochran-Armitage trend test was used for assessing the distributions of severity, necrosis, organ failure, and death by BISAP point score. Sensitivity, specificity, positive predictive value (PPV), and negative predictive value (NPV) were calculated for individual scoring systems. The optimal BISAP, Ranson, APACHE-II, and CTSI scores for predicting severity, necrosis, organ failure, and death was determined by their characteristic Receiver-operating (ROC) curves. The Area Under the Curve (AUC) of the scoring systems were compared with each other at a time by the nonparametric approach developed by DeLong et al. [21]. A pvalue of &lt;0.05 was chosen to be significant for all tests. Univariate linear regression was used to analyze the association of BISAP and hospital stay. XL Stat 2016 was used for performing all the statistical calculations.</t>
+  </si>
+  <si>
+    <t>Clinical Phenotyping: A Principal Component Analysis
+To compare the utility of connectomic profiling to clinical phenotyping in identifying VNS responders, 31 distinct clinical, demographic, neurophysiologic, and radiographic variables were analyzed. A principal component analysis (PCA) was performed to reduce the dimensionality of the data and to account for redundancy of collinear variables.
+Zero-centered data were used to generate a heterogeneous correlation matrix consisting of Pearson product–moment correlations between numeric variables, polyserial correlations between numeric and ordinal variables, and polychoric correlations between ordinal variables.22, 23 Eigenvalue decomposition was performed on the matrix, generating eigenvectors and corresponding eigenvalues. Principal components were generated by using eigenvectors as weighting coefficients to transform the original dataset. Components with an eigenvalue &gt;1 were considered significant. A multivariate logistic regression was then completed using the scores of significant principal components as independent variables to assess the association between clinical variables and VNS response. All analyses were performed in R.24
+Magnetic Resonance Imaging Acquisition
+Magnetic resonance (MR) images were acquired between 2008 and 2016 on a Philips (Best, the Netherlands) 3.0T MR scanner, using an 8-channel phased array head coil. Structural T1 images were acquired using either axial or sagittal 3-dimensional turbo field echo gradient pulse sequence (repetition time = 4.79–6.98 milliseconds, echo time = 2.69–3.34 milliseconds, field of view = 220 × 220 mm, slice thickness = 0.45mm, matrix = 244 × 244, scan time = 129–438 seconds), and were visually inspected for motion artifacts, anatomical abnormalities, and visible signs of disease. Axial diffusion-weighted images (2mm thickness) were acquired in 15 directions with a gradient strength of 1000 s/mm2, along with a single b0 volume (repetition time = 6,771–14,441 milliseconds, echo time = 55–65 milliseconds, field of view = 224 × 224 mm, slice thickness = 2.0 mm, matrix = 112 × 112, scan time = 236–501 seconds).
+Structural Connectomes: Diffusion Tensor Imaging Processing and Analysis
+Diffusion tensor imaging (DTI) data were processed using tools from the FMRIB Software Library version 5.0.25 Acquired data were aligned to the b0 volume to correct for distortions induced by eddy currents or head motion, and B-vectors were concurrently adjusted to correct for changes in orientation. Diffusion images were then registered to each subjects' corresponding T1 scan using a 6-paramenter linear registration. Each T1 scan was registered to the Montreal Neurological Institute (MNI)-152 template using a 12-parameter linear registration. Concatenating these transformations allowed for registration from diffusion to standard space. Diffusion tensors were calculated at each voxel, and fractional anisotropy (FA), mean diffusivity (MD), and 3-directional diffusivity maps were generated.
+Voxelwise analysis of DTI data was performed using tract-based spatial statistics (TBSS).26 This involved coregistration of all subjects' FA images, followed by nonlinear alignment of each image to the most representative individual one. The entire dataset was then registered to the MNI-152 T1-weighted 1mm template.27, 28 Registrations were visually inspected to identify any misalignments. The mean FA was then derived and skeletonized to identify tracts that were common to all subjects, with a minimum FA threshold of 0.2. Each subject's FA map was then projected onto this skeleton image, and the maximum FA value perpendicular to each skeleton voxel was extracted for subsequent voxelwise comparisons.
+Voxelwise statistics were calculated using a generalized linear model, with binary assignment of “treatment response” (&gt;50% = 1, ≤50% = 0) and age at the time of DTI scan as explanatory variables. Nonparametric inferential statistics were generated with permutation testing using threshold-free cluster enhancement and familywise error (FWE) correction.29 In addition, voxelwise linear regression analyses between the DTI parameters and percentage reduction in seizure frequency were performed.
+Clusters that were significantly different between responders and nonresponders (FWE-corrected p &lt; 0.05) were overlaid onto the MNI-152 T1 template for visualization. Diffusion-derived parameters other than FA, including MD and directional diffusivity, were analyzed in the same manner described above. Finally, patients' DTI scans were compared to the age- and sex-matched healthy controls using the same methodology.
+Functional Connectome Analysis: DTI-Informed Magnetoencephalography
+Eyes-closed, resting-state magnetoencephalographic (MEG) data were collected from a subset of 39 children for 30 minutes in consecutive 2-minute recordings blocks, using a 151-channel clinical CTF Systems (Coquitlam, BC, Canada) MEG system at the Hospital for Sick Children. Whole group and subgroup analyses were performed to account for differences in recording states. Recordings with excessive artifacts or motion were repeated. Preprocessing and source estimation steps were performed using FieldTrip in MATLAB (MathWorks, Natick, MA).30 Heartbeat artifact was removed using semiautomated independent component analysis implemented in FieldTrip.
+The results from TBSS were used to inform our atlas-guided beamforming in MEG. Significant white matter tracts were overlaid onto the 132-region subdivided Desikan–Killiany atlas,31, 32 yielding 33 brain regions interacting with the previously identified white matter fibers. The contralateral homologous regions were also included, for a total of 66 brain regions. The centers of mass of these regions were obtained in MNI space and nonlinearly transformed into individual subject coordinates using SPM12. Source timeseries of band-limited neuromagnetic oscillations (1–150Hz) from these coordinates were reconstructed using the linearly constrained minimum variance beamformer, using a subject-specific single shell head model.
+Bandlimited functional connectivity between all brain regions was indexed using the weighted phase lag index33 at 2 to 20Hz (broadband), 30 to 40Hz (low gamma 1), and 40 to 50Hz (low gamma 2). This measure of phase synchrony between 2 timeseries ignores zero phase lag from volume conduction and linear mixing.
+MEG-based bandlimited functional connectivity was compared between VNS responders and nonresponders using the Network Based Statistic toolbox (NBS).34 NBS first independently tests the hypothesis of interest at each analyzed connection (edge), and then generates a set of edges that exceed the user-specified test statistic threshold (in this study, t = 2.1). Topological clusters of contiguous suprathreshold connections are then identified and subjected to permutation testing (5,000 permutations) to obtain an FWE-corrected p value. Functional networks were visualized using BrainNet Viewer.35
+Support Vector Machine Learning
+Support vector machines (SVMs) are a form of supervised machine learning, and involve building a binary linear classifier for a particular outcome using a labeled training dataset.36 The SVM was trained using the discovery cohort. A binarized mask of significant (FWE-corrected p &lt; 0.05) FA voxels from the TBSS analysis was generated and applied to the JHU ICBM DTI-81 White Matter Atlas to identify significant white matter tracts. However, a considerable proportion of voxels in the mask were adjacent to, but outside of, labeled regions in the JHU atlas. As a result, existing labeled regions were manually extended to include adjacent clusters of significant voxels using FreeSurfer software.37 The resulting image was parcellated into 10 distinct white matter tracts, and one group of unassigned voxels that did not obviously belong to any particular white matter bundle.
+Mean FA values corresponding to these clusters were then extracted from each participant, and used as 11 separate features for training a linear SVM. Participants' age at the time of VNS insertion was included as a 12th feature in the model. A similar SVM was performed for the MEG network that was found to be significantly different in responders relative to nonresponders. A receiver operating characteristic (ROC) curve was plotted to illustrate the classification ability of the model at varying discrimination thresholds.
+An SVM classifier was also generated using meaningful principal components to compare the predictive capability of clinical phenotypes to connectomic profiling. Finally, a third SVM classifier was generated by combining the connectomic and clinical covariates. To compare the ability of these classifiers to identify treatment responders, we applied DeLong's nonparametric method for comparing the area under the curve (AUC) of paired ROC curves.38 The SVM classifiers were generated using the MATLAB Statistics and Machine Learning Toolbox (9.3.0, R2017b).
+Classifier Validation
+A completely independent sample of children, the validation cohort, derived from 3 institutions, was then used to validate the model. This dataset consisted of DTI scans from 18 other patients who underwent VNS insertion for intractable epilepsy. All scans were preprocessed in the same manner as for the discovery cohort, and the same region of interest mask was used to extract FA values from significant white matter regions. The SVM classifier was applied to the test cohort to predict their response to VNS, and then compared to their known percentage change in main seizure reduction. The final classifier as a MATLAB ClassificationSVM model object is available upon request.</t>
+  </si>
+  <si>
+    <t>Discontinuation of Inhaled Maintenance Medication (the Outcome Variable) We first retrieved information from the SPDR. Thereafter, we defined inhaled maintenance medication as any dispensation of the following substances: long-acting β2-agonists (LABA), including salmeterol, formoterol and indacaterol; long-acting muscarinic antagonists (LAMA), including tiotropium bromide; and combinations of LABA and inhaled corticosteroids (LABA-ICS), including formoterol and budesonide, salmeterol and fluticasone, and formoterol and beclometasone. We specify the Anatomical Therapeutic Chemical Classification system (ATC) codes of these substances in the supplementary material. The Stata do-file can easily be adapted by readers for use on their own data.
+Based on the Swedish guidelines at the time of the study,7 we assumed that the patients in our sample fulfilled the criteria for inhaled maintenance medication since they all had a COPD diagnosis in the NPR as well as previous inhaled maintenance medication in the SPDR. We defined “discontinuation” as the absolute lack of retrieval from a pharmacy of inhaled maintenance medication between 1st January and 31st December 2011.
+Sociodemographic Variables We defined three age categories: 35–49, 50–64 and 65–80 years. These cut-off values were chosen to create three groups with a similar age-span and to separate individuals aged 65 and older, as 65 years is the official age of retirement. Gender was defined in a binary manner according to legal sex as male or female. We used information on individualized disposable family income for the years 2000, 2005 and 2010 to compute a cumulative measurement that is more stable to temporary fluctuations in income than single measurements.24 We used information on absolute income, which takes into account the size of the household and the consumption weight of the individuals. In each of the three years, income was categorized into 25 groups (coded 1–25) by quantiles using the complete Swedish population. The groups from the three years were then summed up, so a patient could have a value between 3 (always in the lowest income group) and 75 (always in the highest income group). Thereafter, we categorized the cumulative income in three groups by tertiles. Individuals with missing values for income during 2000 or 2005 (N=381) were assigned the tertile values of the year 2010. No individuals in our study population had missing income data for 2010.
+Finally, we created a multicategorical sociodemographic variable composed of 18 sociodemographic contexts consisting of all possible combinations of categories of gender, age and income-level variables (2×3×3).
+Geographical Information At the time of our study, Sweden was divided into 21 counties, and each patient was assigned to the county where the individual resided on 31st December 2010.
+Multicategorical Geographical and Sociodemographic Matrix For the purpose of the cross-classified multilevel analyses (see the description in the following subsection), we created a multicategorical matrix with 372 strata defined by the unique combinations of the 18 sociodemographic contexts and the 21 counties (ie, 18×21 minus 6 empty strata).
+Multilevel Analysis of Individual Heterogeneity and Discriminatory Accuracy (MAIHDA)
+Two-Way Cross-Classified Multilevel Model We analysed the risk of discontinuation of the patients using cross-classified multilevel logistic regression models with COPD patients simultaneously nested within 18 sociodemographic contexts and within 21 counties. Underneath these two higher levels of analysis, there were the 372 strata.
+To avoid giving a higher weight to patient categories with a large number of individuals, as in the case of a traditional single-level analysis, we calculated the average proportion of discontinuation across the geographical and sociodemographic categories. We also considered the reliability and precision of the strata information by using multilevel models, as they are based on reliability-weighted strata residuals (ie, shrunken residuals) and average proportions.25
+In addition, crude geographical (eg, county) differences in discontinuation may be confounded by the different composition of the counties in relation to the demographic and socioeconomic characteristics of the patients. Analogously, sociodemographic categories may be confounded by the different health-care management policies of the counties where the patients reside. Ideally, to investigate county and sociodemographic differences, they should be disentangled from one another. Therefore, we performed a two-way cross-classified multilevel model that decomposes the higher level variance into county and sociodemographic components. Let equation M1 denote the number of patients who discontinue in stratum equation M2 (equation M3). The model is written as
+equation M4
+equation M5
+equation M6
+equation M7	1
+where equation M8 denotes the total number of patients in that stratum, equation M9 denotes the probability of discontinuation, equation M10 denotes the intercept, equation M11 denotes the random effect for sociodemographic context equation M12 (equation M13) and equation M14 denotes the random effect for county of residence equation M15 (equation M16). The random effects are assumed to be normally distributed with mean 0 and variances equation M17 (between counties),equation M18 (between sociodemographic contexts). The intercept, equation M19, is the average proportion (on the log-odds scale) of discontinuation (ie, grand mean) across all counties and sociodemographic categories, defined as the 372 strata.
+This model has three purposes:
+1. Mapping county and sociodemographic differences in discontinuation risk
+The first purpose was to obtain an improved mapping of how the individual risk of discontinuation is distributed across counties and sociodemographic strata. We use the predicted random effects (ie, shrunken residuals) from the multilevel regression to calculate the absolute risk (AR) of discontinuation and its 95% credible interval (CI) in each sociodemographic context and county. To do so, we transformed the predicted logit of discontinuation into predicted proportions.
+For the county-level prediction, we used the following formula, and calculated the absolute risk (ARC):
+equation M20	2
+For the sociodemographic context prediction, we used the following formula:
+equation M21	3
+Observe that in Formulas 2 and 3, the predictions isolate the county and sociodemographic differences while holding the other source of differences constant and, in this way, the values are adjusted for each other.
+An advantage of multilevel modelling is that in the presence of higher level units with a small number of patients, the shrunken residuals enable one to obtain precision-weighted AR predictions and also to overcome the limitation of model convergence in the presence of small groups.25,26
+The graphical or tabulated representation of the ARs facilitates the evaluation of how the individual risk of discontinuation is distributed across counties of residence and sociodemographic contexts. However, this information is based on differences between average ARs, and it does not inform us about individual patient heterogeneity around such averages.14 Therefore, for a complete evaluation, the mapping of risk needs to be accompanied by measures of county, sociodemographic context and individual patient components of variance and/or discriminatory accuracy.
+2. Evaluating the components of variance: the variance partition coefficient (VPC)
+The second purpose, therefore, was to take into account the individual heterogeneity around the averages and quantify the share of the total individual differences in the latent propensity of discontinuation that existed at the different levels of the analysis. Consequently, we calculated a VPC based on the latent response formulation of the model, as it is an approach widely adopted in applied work.27–29
+The VPC for the county level (VPCC) informs on the share of the total individual differences in the underlying propensity for discontinuation that existed at the county level. The equation M22expresses what has been called the general contextual effect;14 that is, the potential ceiling influence of the geo-administrative boundaries of the counties on the individual outcome without any other specific county-level information. The higher the equation M23, the higher the county general contextual effect; in other words, the more relevant the county context for understanding individual variation in the latent risk for discontinuation. We computed the equation M24 as
+equation M25	5
+where equation M26 denotes the mathematical constant 3.1416, and equation M27 is the variance of the standard logistic distribution. We then multiplied the equation M28 by 100 and interpreted it as a percentage.
+Analogously, the VPC for the sociodemographic level (equation M29) can be calculated as
+equation M30	6
+The equation M31 and the equation M32 can be directly compared with each other in order to evaluate the relative relevance of geographical versus sociodemographic factors when it comes to understanding patient differences in the latent propensity of discontinuation.
+3. Evaluating the discriminatory accuracy (DA) of the information on county of residence and sociodemographic context
+A well-known measure of DA is the area under the receiver operating characteristics curve (AUC).14,30 The AUC measures the accuracy of geographical and/or sociodemographic information for discriminating patients according their treatment status (discontinuing or not).
+The equation M33 computed for the county level obtained from Formula 2 and the equation M34 computed for the sociodemographic level from Formula 3 provide complementary information to the equation M35 and equation M36.14,31 One advantage of the use of the AUC is that this measure is already an established concept in clinical epidemiology.
+Software and Estimation Methods All models were run in MLwiN 3.02,32 called from Stata 14.1 using the runmlwin command.33 We note that MLwiN can equally be called from within R using the R2MLwiN package,34 and so our analysis can also be replicated by readers in that statistical package.
+We performed all estimations via Markov chain Monte Carlo (MCMC) methods with diffuse (vague, flat or minimally informative) prior distributions for all parameters. We used quasi-likelihood methods to provide starting values for all parameters. For each model, the burn-in length and monitoring chains were set to 5000 and 10,000 iterations. We analysed the parameter chains and standard MCMC convergence diagnostics to evaluate whether the model was adequate.
+An advantage of the MCMC is that the resulting parameter chains can be used to construct 95% credible intervals (CI) for all model predictions to communicate statistical uncertainty. MCMC is easy to apply using available software.32,35,36
+An advantage of our approach is that the multilevel analyses can be performed using a simple table or matrix with the 372 strata. The only information necessary for the analysis is the number of patients and the number of cases with discontinuation in each stratum. This aggregated approach maintains the joint distribution of the socioeconomic strata and the counties and provides exactly the same model results (parameter estimates, predictions and standard errors) as when analysing the underlying individual-level data. The aggregated approach allows a large number of patients to be analysed in just a few hundred strata, which leads to computationally efficient (fast) estimation. In addition, working with tabulated data reduces ethical problems of confidentiality (statistical disclosure).
+The Stata do-file used for our analysis is available as supplementary material.
+Auditing Sociodemographic and Geographical Differences in Discontinuation of Inhaled Maintenance Medication In traditional analysis, geographical (ie, county) differences are evaluated by means of figures (eg, league tables) and sociodemographic differences are appraised by measures of association such as odds ratios or relative risks (ie, socioeconomic gradients). In both cases, the information is only based on differences between group averages. However, as explained in a previous publication,17 in order to perform an improved epidemiological evaluation of sociodemographic and geographical differences in discontinuation, we need at least two types of information.
+First, we need a predetermined benchmark or target value informing on the highest percentage of patients with discontinuation that is considered as acceptable. Ideally, this target value should be zero, since there are no formal reasons for discontinuation once maintenance with inhaled therapy is indicated. However, based on standards of ≥90% treatment proposed among Danish COPD patients with documented dyspnoea37 and findings of a prevalence of non-adherence of 5% among patients attending pulmonary outpatient clinics in Denmark,11 we propose a benchmark of 10%, which could be acceptable considering that in some cases medication can be discontinued because of side effects or because the COPD diagnosis was incorrect. Therefore, we propose that a percentage under 10% should be considered as a full achievement, between 10% and 15% as a close achievement and &gt;15% as an insufficient achievement. However, further studies are needed to establish an appropriate benchmark level and the level of achievement. In our study, rather than the country proportion of discontinuation, we used the average proportion (ie, grand mean) across the 372 strata defined in the multicategorical geographical and sociodemographic matrix.
+The main questions that we asked in the evaluation were: Has the benchmark value been insufficiently, closely or fully reached? What is the size of the inequities between the counties and between sociodemographic groups? To answer these questions, we created a framework (Table 1) with 15 scenarios combining benchmark value achievement and the size of the county/sociodemographic difference measures according to the VPC and the AUC. First, we located the overall achievement in relation to the predefined benchmark value of acceptable prevalence of discontinuation. Second, we quantified the size of the county and sociodemographic differences expressed as VPC and AUC. Those scenarios can be used to orient the interpretation of an analysis.</t>
+  </si>
+  <si>
+    <t>Statistical analysis 
+Discrimination power of the proposed model was measured by area under the receiver operating characteristic curve (AUC). Univariate (UVA) and multivariate (MVA) Cox proportional hazards models for case cohorts were used for risk ratio estimation including clinical and pathological parameters. Survival analysis was conducted using Kaplan–Meier curves to estimate the probability of event-free survival. All statistical analyses were conducted in R 3.0 Statistical software.</t>
+  </si>
+  <si>
+    <t>Measures of central tendency, variability, and frequency
+were used for descriptive analysis of the data. Differences
+in WC and in the number of steps per day between age
+groups (children vs. adolescents) and genders (boys vs.
+girls) were evaluated by the Student t test for independent
+samples (p &lt; .05). The predictive power of physical activity for abdominal obesity was evaluated by constructing receiver operating characteristic (ROC) curves for
+each gender. A 95% confidence interval was used and
+areas under the ROC curves whose lower limits of the
+respective confidence intervals were 0.50 or higher were
+considered significant. The cut-off points for step count
+developed in the current study were defined based on the
+balance between sensitivity and specificity. In addition,
+the sensitivity and specificity of the criteria proposed by Tudor-Locke et al (42), Duncan et al (10), Laurson
+et al (24), McCormack et al (28), and Duncan et al (11)
+were estimated using abdominal obesity as a reference.
+The prevalence ratio estimated by Poisson regression
+with robust variance was used to verify the association
+between insufficient physical activity (using the different
+classification criteria) and abdominal obesity, adjusted
+for gender, age group, maternal education and household
+income. The Wald test was adopted to test statistical
+significance (p &lt; .05). The data were analyzed using the
+SPSS 20.0 and MedCalc programs.</t>
+  </si>
+  <si>
+    <t>Continuous variables with normal distribution were summarized with mean and standard deviation, while nonparametric continuous variables were summarized with medians and interquartile ranges (IQRs). Categorical variables were summarized with frequency counts and percentages. A test for trend using the Cochran–Armitage test was used to determine patterns for missing data. In order to determine the association of SI and SIPA with outcomes, chi-square tests and Fisher's exact test (where appropriate) were utilized. A p value &lt; 0.05 was considered significant. Discrimination of outcomes was assessed using area under the receiver operator curve (AUROC). All statistical analyses were performed using STATA 15.1 (College Station, Texas).</t>
+  </si>
+  <si>
+    <t>MetS-related risk factors and frequency of JMetS, diabetes, and CKD were compared between MetS and non-MetS
+subjects. Means of LDL cholesterol in each category defined
+by the number of MetS components were calculated by gender. In the present study, the information about menopause
+was not available. Therefore, younger (_x0001_50 years old)
+women were considered as surrogates for premenopausal
+women and older (&gt;50 years old) women were considered
+as surrogates of postmenopausal women, and the calculations were repeated in each group. The same calculations
+were repeated excluding subjects with antihyperlipidemic
+medication. Receiver operating characteristic (ROC) curve
+analysis for diagnosing MetS was performed to obtain area
+under ROC curve (AUC) and optimal cut-off points of LDL
+cholesterol for diagnosing MetS. The same analyses were
+repeated excluding subjects with antihyperlipidemic medication. An optimal cut-off point was defined as a point on a
+ROC curve nearest to the point where both sensitivity and
+specificity were one. Spearman’s correlation coefficients and
+age-adjusted Pearson’s correlation coefficients were calculated between LDL cholesterol and MetS-related risk factors. Urinary protein data were transformed as (-) to 0, (±)
+to 1, and from (+) to (3+) to 2 for calculation of correlation
+coefficients. Statistical analyses were performed using Dr
+SPSS-2. Two means were compared with 2-sided t-tests, multiple means were compared with ANOVA and Tukey’s
+method, ratios were compared with chi-square tests, and
+correlation coefficients were compared with Fisher’s ztransformations. P values of lower than 0.05 were considered to be statistically significant.</t>
+  </si>
+  <si>
+    <t>Numerical variables are expressed as means ± standard deviation (SD), median, range, and the standard error of mean (SEM). Baseline continuous variables were compared between PD and HC using the non-parametric Wilcoxon-Mann-Whitney-Test, as some were not normally distributed. For the binary variables, Fisher’s exact test was used. Longitudinal modeling was done via a random slope/intercept linear mixed model (R-package lme4). The considered follow-up period was six years for PD and four years for HC. ROC curve analysis and area under the curve (AUC) values were calculated (R-package, pROC) and the significance level was set to alpha = 5% for all statistical tests. To evaluate the differences in the biomarker CSF levels of the NTK panel with regard to a positive CSF signature of typical AD core markers, we performed an analysis, building two groups of participants showing normal or changed levels of a-beta and p-tau, using established cut-off values of the AD core biomarkers based on the Elecsys system. For a-beta, the Amsterdam mixed dementia cohort calculated data-driven cut-offs using Gaussian mixed modelling, leading to a cut-off level of 680 pg/mL [17]. For p-tau in CSF, the most established value is 24 pg/mL, which is based on the ADNI study [18].
+To assess potential differences in the CSF biomarker levels of cognitively impaired subjects and participants with normal cognitive function, we built two groups based on the cut-off score MoCA &lt;26, indicating a relevant cognitive deficiency.
+All analyses were performed with the statistics software R (version 3.6.3; R Core Team 2018).</t>
+  </si>
+  <si>
+    <t>Continuous variables were expressed as median and interquartile range (IQR).
+The statistical performance of the RNN for malignancy and high grading was assessed according to discrimination, calibration, and clinical usefulness.
+The discriminatory ability of the RNN was evaluated by comparing the distribution of the estimated probability of malignancy in the groups of benign and malignant tumors and comparing the distribution of the estimated probability of aggressiveness in low- and high-grade renal cell carcinomas (RCCs). The Mann-Whitney U test was used to test the null hypothesis that the 2 populations had the same distribution. In addition, the discrimination power of RNN was also investigated by estimating the area under the receiver operating characteristic (ROC) curve (AUC) in the validation set. The AUC 95% confidence intervals (CIs) and the P value of the test on the null hypothesis that AUC = 0.5 (no predictivity) were estimated using the bootstrap method with 1000 replications.
+The agreement between observed frequencies and predicted probabilities was evaluated using the (scaled and unscaled) Brier score, the Spiegelhalter z-statistics, and calibration plots. Clinical usefulness was assessed using decision curve analysis.13 This technique estimates a net benefit for RNN by summing the benefits (positive findings) and subtracting the harms (false-positive findings). Net reduction in unnecessary interventions per 100 patients was also estimated.
+The strength of the association existing between each component of the RNN and the histological outcome was assessed using odds ratios (ORs) from uni- and multivariable logistic regression, in which the exophytic/endophytic, nearness, location (L), and hilar scores were considered as categorical variables. The statistical significance of each association was evaluated using the likelihood ratio test. The null hypothesis of absence of association between 2 categorical variables was tested using the Fisher exact test. Differences were considered significant at P &lt; .05.
+Statistical analyses were performed using Stata11 (StataCorp, College Station, TX) and R (version 3.0.2; R Foundation for Statistical Computing, Vienna, Austria) statistical software.</t>
+  </si>
+  <si>
+    <t>The area under the receiver operating characteristic curve (ROC-AUC) was calculated from logistic regressions identifying unfavorable levels of cardiometabolic risk based on weight status (Model 1: overweight, obesity; reference group: under or normal weight) and DXA-measured phenotypes (LA-LM, HA-LM, HA-HM, reference group: LA-HM) ((14)). AUCs of 0.50 were considered uninformative. Two phenotype models were tested: age- and sex-adjusted (Model 2), and age-, sex-, and weight-status-adjusted (Model 3). The differences in ROC-AUC errors between the two sets of models (Model 1 vs. Model 2; Model 1 vs. Model 3) were calculated ((15)).
+DXA values were provided in five multiple imputation datasets. Owing to the complexity of the sampling design and multiple imputations, macros were used to do the following: 1) account for the sampling design and weighting, 2) compute the ROC-AUC standard errors with bootstrapping (n = 1,000), and 3) create a single summary AUC. Following suggestions in the literature, the standard errors (calculated from the bootstrap samples) as well as the ROC-AUCs from each of the multiple imputation datasets were then pooled to conduct standard statistical inference under multiple imputations ((16, 17)). All analyses were conducted with SAS version 9.4 (SAS Institute, Cary, North Carolina).</t>
+  </si>
+  <si>
+    <t>For the baseline patient characteristics, continuous variables were presented as the mean ± standard deviation or median with interquartile using unpaired Student’s t tests (Gaussian distribution) or Wilcoxon-Mann-Whitney tests (non-Gaussian distribution) whereas categorical variables were expressed as proportions using the χ2 tests. The incidence of stroke was described with incidence rates per 100 person-years and estimated cumulative incidence at different time-points in the competing risk models (Fine and Gray models). The CHA2DS2-VASc and ATRIA scores were analyzed as a continuous or categorical variable, separately, when their association with adverse outcomes was assessed. The effect estimates of this study were hazard ratios (HRs) and its confidence interval (CIs). The HRs of outcomes not related to death (stroke, HF hospitalization, and any hospitalization) were derived from the competing risk models whereas those of the death-related outcomes (all-cause death and cardiovascular death) were derived from the Cox proportional hazards models. In addition, C-indexes were calculated to determine the discriminatory properties of the CHA2DS2-VASc and ATRIA scores.
+The statistical analyses were performed using R software version 3.6.1 (R Foundation for Statistical Computing, Vienna, Austria), with packages of tableone, mice, survival, survminer, cmprsk, and timeROC. A two-tailed P value of &lt; 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Evaluation of the predictive accuracy of the ACS-NSQIP calculator was performed by comparing the predicted rates vs the observed rates by using the receiver operating characteristic (ROC) and the area under the curve (AUC) of the ROC. The ROC curve provides a visual representation for how accurately the NSQIP scores separated the study subjects into complication vs no complication states. The AUC is a measure of discriminative accuracy; it estimates the ability of a model to separate patients at risk for a given outcome from patients not at risk. AUC values greater than or equal to 0.80 were generally considered useful in predicting responses for individual patients, whereas a value of 0.50 corresponded with the null hupothesis.8 To assess calibration and overall discriminatory performance, we utilized Brier score (BS). BS is calculated as the average squared difference between predicted probabilities and the observed rate of binary outcomes.9 BSs can range from 0 to 1, with zero indicating perfect prediction. Higher BSs are indicative of worse model fits, or a larger proportion of unexplained variability. Based on previous studies, a BS of 0.01 or less was considered good predictive performance.5 Correlations between the predicted and observed length of hospital stay were also tested by using Spearman correlation.</t>
+  </si>
+  <si>
+    <t>Continuous and categorical variables are presented as mean (SD) and count (percentage), respectively. We compared all outcomes among frailty categories defined as low-risk, intermediate-risk, and high-risk using the Pearson χ2 or analysis of variance tests as appropriate. Weighted kappa analyses were used to show agreement between two frailty categories for each condition. As sensitivity analyses, scatter plots and spearmen correlation coefficient values were presented according to the two frailty indices (as continuous) for each condition. We constructed multivariable logistic regression models, adjusted for age, sex, and covariates to assess the independent association of levels of frailty with 1-year readmission and mortality. Unadjusted cumulative incidence curves were created to plot long-term all-cause mortality, stratified by frailty categories. To examine the relationship between all-cause long-term mortality and frailty categories, we used multivariable (adjusted for age, sex, and covariates) Cox proportional hazard models. For each outcome, Harrell's concordance statistics (c-statistics) were used to assess models (using only frailty index as continuous) discrimination, and the difference in discrimination between frailty indices was evaluated by the DeLong test [24]. All statistical analyses were performed in Stata version 15.1 (Stata Corporation, College Station, TX, USA). Statistical significance was defined as a p-value of less than 0.05.</t>
+  </si>
+  <si>
+    <t>The primary endpoint was comparison of accuracy of the diagnostic performance of %p2PSA and PHI with that of tPSA and %fPSA, which are currently widely used biomarkers in detecting PCa at biopsy. The secondary endpoint was the predictive ability of these biomarkers to discriminate aggressive PCa with a Gleason score (GS) ≥ 7.
+Quantitative data are presented as median (interquartile range) and categorical data as numbers (n) and percentages. The normal distribution of variables was assessed using the Kolmogorov-Smirnov test. Student’s t-test was used for comparisons of parametric variables, and the Mann-Whitney U-test for non-parametric continuous variables. Bivariate and multivariate logistic regression analyses were used to determine the association between the biomarkers and the presence of PCa in the whole group and subgroup with PSA 4–10 and PCa with GS ≥ 7 at biopsy.
+These markers were added to the base multivariate model, including age, tPSA, fPSA and %fPSA, to evaluate the usefulness of %p2PSA and PHI in predicting the presence of PCa. The improvement in predictive accuracy was measured as the area under the curve (AUC) of the receiver operating characteristic (ROC) analysis. The DeLong method was used to compare the statistical differences between the AUCs. Odds ratios (ORs) with 95% confidence intervals were determined.
+Statistical analyses were conducted using SPSS Statistics version 26 (IBM Corp., Armonk, NY, USA). Statistical significance was set at p &lt; 0.05. AUC comparisons were conducted using MedCalc software 19.4 (MedCalc Software, Mariakerke, Belgium).
+The study protocol was approved by the Institutional Review Board (IRB) of the Sanngye Paik Hospital, Inje University. All participants provided written informed consent before participation in the study. All methods were carried out in accordance with relevant guidelines and regulations.</t>
+  </si>
+  <si>
+    <t>Clinical information and CT findings were analyzed using univariate analysis. Continuous variables conforming to normal distribution were described by the mean and standard deviation, and the independent two-sample t-test was performed. If a normal distribution was not confirmed, the median and interquartile ranges were used, and the Mann-Whitney U test was performed as a non-parametric test. For categorical variables, the χ2 test or exact probability method was used in this study. P&lt;0.05 was defined as statistically significant. In this study, based on the optimal prediction model, patients from the two hospitals were divided into high- and low-risk groups for Kaplan-Meier analyses. Patients were stratified into high- and low-risk groups using the threshold of predicted recurrence probability defined as the highest Youden index (21) of the cross-validation ROC curves. All statistical analysis were performed by SPSS software (version 25.0 for Macintosh, IBM, Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>We calculated BRCAPRO and BOADICEA probabilities of mutation carriage (hereafter called prediction scores) in patients tested for BRCA1 and BRCA2 mutations. BRCAPRO probabilities were obtained using the CancerGene 4b program (University of Texas Southwestern, Dallas, TX), and BOADICEA probabilities were obtained using the program BOADICEA V3 provided by Antonis Antoniou (19). All available demographic data on all patients’ first- and second-degree relatives aged ≥20 years, whether affected by cancer or not, were included in the analyses. Information on all cases of breast cancer, ovarian cancer, male breast cancer, pancreatic cancer, and prostate cancer among patients and their first- and second-degree relatives was included in the prediction models.
+Our goal was to obtain precise, population-based evaluation of the calibration and discrimination of each of the two models applied to each of the three racial/ethnic groups. Here calibration refers to agreement between mean prediction scores and observed carrier prevalences within subgroups of a population. Discrimination refers to the extent of separation between the prediction scores of carriers and noncarriers. We evaluated model calibration by comparing observed prevalences to mean prediction scores visually using attribute diagrams (34). We evaluated model discrimination using the areas under receiver operating characteristic curves (AUCs). Horvitz-Thompson (HT) estimating equations (26, 27) were used to adjust all analyses for the two-stage sampling design of the study.
+Calibration We estimated the prevalence of BRCA mutation carriers in a given racial/ethnic group as a weighted average of the two category-specific prevalences πA and πB. Here, πA is the number of carriers identified in Category A divided by the total number of tested patients in Category A. The overall prevalence estimate (Categories A and B combined) was π = wπA + (1-w) πB, where the weight w is the proportion of all screened patients who were classified in category A. We compared the prevalence π to similarly weighted averages of the category-specific mean prediction scores. In these calculations, we multiplied each prediction score by 90%, assuming that laboratory testing methods were 90% sensitive (35). The overall predicted prevalence was then computed as a weighted average 
+�
+̄
+ = w
+�
+̄
+A + (1 – w)
+�
+̄
+B of the two category-specific mean scores 
+�
+̄
+A and 
+�
+̄
+B. We evaluated statistical significance of the observed/predicted differences via the statistic S = (π – 
+�
+̄
+)2 /V where V is the HT variance estimate (26,27). This statistic has approximately a chi-squared distribution on one degree of freedom, under the null hypothesis that the prediction score for each breast cancer patient in a given racial/ethnic population equals her actual probability of mutation carriage.
+We also used attribute diagrams to compare observed carrier prevalence to mean prediction scores within subgroups of patients whose scores lie in subintervals of the unit interval. To obtain an even distribution of patients within the subintervals, we grouped the patients according to quantiles of the logits of their scores. Within each subinterval, we computed weighted estimates and HT-based confidence intervals for the proportion of patients with observed mutations. We then plotted these points in attribute diagrams, which are plots of BRCA mutation carrier prevalence against median scores within each score subinterval (1). Results are provided for subgroups according to age and family cancer history, and for the group as a whole.
+Discrimination To evaluate the models’ ability to discriminate between carriers and non-carriers in each racial/ethnic group, we constructed receiver operating characteristic curves and evaluated the areas under these curves (AUCs) (36). We estimated these AUCs as weighted sums of the category-specific AUCs, using weights as described above. We used bootstrap variance estimates to obtain confidence intervals for the AUCs. Results are provided for subgroups according to age and family cancer history, and for the group as a whole.</t>
+  </si>
+  <si>
+    <t>Continuous variables were expressed as means and standard deviations, while categorical variables were expressed in percentage. Differences between normal and over-perceivers in relation to asthma exacerbations were assessed by a two-tailed unpaired t test for normally distributed continuous data and by chi squared (or two-tailed Fisher's exact test when the expected cell frequencies were less than five) test for categorical data. Results are reported as significant at p ≤ 0.05. Unadjusted odd ratios (OD) and their confidence interval (95% CI) were also used to estimate risks for exacerbations between the two groups. Multivariate logistic regression was used to examine for significance of any variables identified between groups in relation with the outcome measures (unscheduled visits and hospital admissions). A receiver Operating Characteristic (ROC) curve was computed to assess sensitivity and specificity of the 3MRET in predicting asthma exacerbations and their statistical significance. All computation was made using statistical package SPSS version 11.5 for Windows (Chicago, Illinois, USA).</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>TNM information captured at patient registration was used to determine staging according to AJCC version 6; version 7 was not used because available information is not sufficient to convert all patients from version 6 stage to version 7 stage. If both pathological and clinical staging were available, pathological staging was used. Complete cases analysis was adopted as the primary method to handle missing variables; specifically patients with missing predictors were excluded from the validation cohort. Sensitivity analyses with multiple imputation (MI) to handle missing variables were also performed. The MI analysis was based on 5 imputed datasets and the estimates were combined using Rubin’s method [36].
+For stage I, the B, C and G models were evaluated along with the PS only model. For stage IV, the PS, B and M models were evaluated. The assessments were conducted for young (defined as age &lt; 70 years), elderly (defined as age ≥ 70 years), and all patients combined.
+The outcome of interest was overall survival, defined as the time from registration to the time of death. Overall survival was censored at the date of last follow-up, when death was not observed. The survival curves between risk groups were compared using the Kaplan–Meier method and the log-rank test. Hazard ratios for the different risk scores were calculated using a Cox proportional hazards model. Assuming 40% and 90% death rate for stage I and stage IV patients, respectively, in the validation cohort, we have at least 95% power to a hazard ratio 1.20 for a risk score with a standard deviation of 1.0 at a 2-sided significance level of 0.10 for both patient groups.
+To ease comparison, all risk scores are standardized to scores between 0 and 10. We estimated c-index (c) for a global assessment of the concordance between risk score and survival [37]. The difference in c-index (c-difference) is a measure formed by subtracting the c-index of the PS model from the c-index of a risk score. The c-difference and its bootstrap confidence interval based on 1000 bootstrap samples were used to evaluate the improvement of concordance of a risk score over the PS only model. To facilitate the comparison of c-index estimates among different patient subgroups, a modified c-index, free of influence of censoring distribution was also estimated [38]. The c-difference is a rank based statistics and it has been shown insensitive to detect small differences in the discrimination accuracy between predictive models. Integrated discrimination improvement (IDI) is a difference between improvement in average sensitivity and improvement in average 1-specificity and has been proposed to address the insensitive issue of c-index [39], [40]. By presenting both statistics, we attempt to evaluate the added value of a risk score over the standard model. All statistical analyses were performed using SAS 9.3 (Cary, NC) and R 3.0.1 (boot, rms, survC1 and survIDINRI packages).</t>
+  </si>
+  <si>
+    <t>Multivariable logistic regression analysis with backward selection was used in the derivation set to predict complexity based on 52 potential indicators of complexity variables registered during hospitalisation, removing variables with a p&gt;0.1. Calibration of the final model was evaluated by constructing a calibration curve, estimating the calibration slope, calculating the difference between the mean observed proportion and mean predicted proportion of patients with high complexity (calibration-in-the-large) and the Brier score (overall measure of accuracy) in the derivation and validation set. The predictors from the final model were used to create a comprehensible score using the regression coefficient-based scoring technique.23 Beta-coefficients were divided by the lowest coefficient and rounded up to the closest integer to generate score points, indicating increasing risk by higher scores. The discriminatory power of the score was assessed by calculating the area under the receiver operating characteristic (AUROC) curve.
+The validity of performance measures was investigated by performing internal and external validation. For internal validation we used 1000 bootstrap samples, drawing samples with replacement from the derivation sample.24 The bootstrap-corrected performance estimates were calculated by subtracting the optimism from the performance of the original model. The 95% CIs for the bootstrapped performance measures were derived using the percentile method. External validation was made by estimating the same performance measures in the external validation cohort (temporal validation).
+The clinical usefulness of the developed score was assessed with a decision-curve analysis investigating whether the use of the complexity score instead of the CCI alone was associated with benefit gains relative to the prediction complexity.25
+Applying PCA, CCI and PCCL, we calculated the score of each patient and split the patient sample into a high-risk and a low-risk group. The reference point (cut-off) of each scoring system was chosen in order to make the frequency of patients in the high-risk category as close as possible to 30% (ie, approximating the frequency of observed complex patients). To determine the accuracy of this method to predict complexity, we estimated sensitivity, specificity and positive and negative predictive value in both the derivation and validation set for PCA and in the derivation set for CCI and PCCL.
+R V.3.3.1 was used for statistical analysis.</t>
+  </si>
+  <si>
+    <t>All analyses were done using SPSS version 20 and STATA 11. Mean, standard deviation, median, range, frequency, and percentage were used to describe data. To calculate the diagnostic accuracy of TIMI system, sensitivity, specificity, positive and negative predictive value, and positive and negative likelihood ratio, and area under the receiver operating characteristic (ROC) curve were calculated.</t>
+  </si>
+  <si>
+    <t>All analyses were performed with the use of SAS software version 9.3 (SAS Institute Inc). We adjusted for the complex, stratified study sampling design using survey weights for examination and interview portions of survey according to the Centers for Disease Control and Prevention recommendations.26 Sensitivity analyses were performed without the use of survey weights.</t>
+  </si>
+  <si>
+    <t>Data were represented as mean ± sd and also as median and
+range. Categorical data were analyzed by chi-square test. Continuous variables were compared by t test. Mann-Whitney U
+test was used for continuous variables with skewed distribution
+or, when the groups are small, also post hoc analysis. KruskalWallis test was used for comparison between more than two
+groups. Correlations between variables were analyzed using
+Pearson correlation. The diagnostic powers of the NGAL and other variables tested by the receiver operating characteristic
+curve with the Youden index used to select the optimal cutoff
+values. Analysis was performed using IBM SPSS software version 20.0 (SPSS, Chicago, IL). Two-sided p value of less than
+0.05 was considered significant.</t>
+  </si>
+  <si>
+    <t>We performed univariable logistic regression analysis for DGF and then constructed a multivariable logistic regression model to find independent risk factors of DGF. The RR was entered as a covariate in these models. Other covariates were prespecified in the protocol before the MP Trial started. Because of a limited number of events in this subgroup analysis, we only included those prespecified factors that were significantly associated with DGF in the MP Trial: cold ischemic time, donor type (donation after brain death [DBD] vs. DCD), donor age, retransplantation versus first transplantation and duration of pretransplant dialysis (1). A receiver operator characteristic (ROC) curve was constructed to investigate the predictive accuracy of RR for DGF. Because the number of PNF was low, an association between PNF and RR could not be studied and PNF cases were excluded from further analysis. We performed unadjusted and adjusted Cox regression analysis for 1-year graft failure. Because of the low number of graft losses, we could only correct for two variables; we therefore chose RR, the variable of interest and donor age, the variable that was the strongest independent risk factor for graft failure in the MP Trial. To exclude a potential bias introduced by kidneys in which randomization needed to be switched, the logistic and Cox regression analyses only included kidneys that were randomized to and effectively preserved by HMP.
+Continuous variables are expressed as median and range, categorical variables as number and percentage. Two-sided p-values ≤0.05 were considered to indicate statistical significance. Endpoint interim analyses were not performed. All data analyses were performed using SPSS, SAS and R software.</t>
+  </si>
+  <si>
+    <t>Consecutive patients with acute symptomatic, objectively confirmed VTE and concomitant active cancer were included in the analysis. Active cancer was defined as any solid (excluded basal-cell or
+squamous-cell carcinoma of the skin) or haematologic malignancy
+discovered within six months prior and four weeks following VTE
+diagnosis. Other definitions included local or metastatic diffusion,
+ongoing, or within the last six months, chemotherapy, cancer-related hormonotherapy.
+According to the modified Ottawa score, patients were stratified in three risk categories: low, intermediate, and high risk. We
+calculated the incidence of the following variables: recurrent DVT,
+recurrent PE, recurrent VTE, overall mortality, and fatal PE, during the first six months of anticoagulant treatment and following
+discontinuation. Results are presented as events per 100 patientyear rates. Differences between three risk groups were assessed
+using Student’s t-test and Chi2
+ test (or Fisher’s when frequency
+low) as appropriate. In order to make a comparison with previous
+studies, we also estimated the cumulative rates of VTE recurrences
+during the first six months by Kaplan-Maier method and compared by use of a log rank test. Furthermore, to assess accuracy of
+the modified Ottawa score to predict VTE recurrence and overall
+mortality during the first six months of anticoagulation, we calculated sensitivity, specificity, positive predictive values (PPV) and negative predictive values (NPV), likelihood ratios. Finally, we
+evaluated the discriminating power of the score to predict VTE recurrence and overall mortality during the first six months of anticoagulant treatment by calculating the area under the receiver-operating characteristic (ROC) curve. All statistical analyses were
+performed using the IBM SPSS Statistics program (version 19;
+SPSS Inc., Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>IBM SPSS Statistics 18.0 for Windows (SPSS Inc) was used to perform the survival analysis. A visual representation displaying the comparison of the difference in IP among continents was plotted online on Google Maps. The IRT-modelling process was executed in Microsoft Excel; see Supplemental Digital Contents 2 and 3.</t>
+  </si>
+  <si>
+    <t>Data were presented as medians and interquartile ranges. Differences between ARDS severity groups were compared using Mann–Whitney U test or Kruskal–Wallis ANOVA for differences between more than two groups. Correlations between variables were analyzed using Spearman’s rank test. For regression analysis, data without normal distribution were logarithmically transformed.
+Univariate logistic regression models were used to study and compare the association between plasma suPAR levels, the APACHE IV score, the SOFA score, the OI, and the Berlin definition on the first day of stay in ICU, and outcome. Calibration of the model was performed with a residual plot and a Hosmer and Lemeshow goodness-of-fit test. The discriminative capacities of the models were shown using the area under the curve of the receiver operating characteristic curve (ROC-AUC), with bootstrapped 95 % confidence interval (95 % CI) [20]. The optimal cut-off was determined using a Youden index for the selection of the highest sum of sensitivity and specificity. The prognostic accuracy was assessed in several subgroups by comparing the ROC-AUC for mortality per severity classification of ARDS, septic vs. non-septic patients, direct vs. indirect ARDS, and medical vs. surgical patients. A sensitivity analysis was performed by comparing the odds ratios for the prediction of ICU mortality in an unadjusted logistic regression model to the odds ratio in a logistic regression model including a covariate. The prognostic value of suPAR was found to be sensitive to changes if the log odds ratio changed by more than 0.1 when the covariate was added. The following covariates were investigated: severity of ARDS (i.e., mild, moderate, or severe), cause of ARDS (i.e., direct or indirect, sepsis or non-sepsis), type of admission (i.e., acute or elective, and medical or surgical), comorbidities (diabetes mellitus, immune deficiency, cardiovascular disease, malignancy), smoking status (i.e., active smoker or none), alcohol consumption (i.e., active drinker or none), APACHE IV score, SOFA score on day 1, the OI, and the Berlin definition.
+Next, the association between suPAR and the secondary outcomes, ICU-free days and ventilator-free days at day 28 and day 90, was determined using univariate linear regression models.
+Finally, the combined prognostic accuracy of suPAR and the APACHE IV score, SOFA score, OI, and Berlin classification was analyzed in a bivariable logistic regression model. Single marker predictions were compared to composite models using DeLongs test for differences in ROC-AUC and by means of net reclassification improvement (NRI) and integrated discrimination improvement (IDI) [9]. The NRI compares the accuracy of the models with and without suPAR by calculating the number of subjects whose risk is more accurately classified and the proportion of subjects whose risk is less accurately classified. By subtracting these values a net reclassification improvement is determined. The IDI also calculates reclassification, but in this case risk is stratified as a continuous variable.
+SPSS software version 22.0 (IBM Corp., Armonk, NY, USA) and R [21] were used for statistical analysis. Functions not available in SPSS were computed with R using R-studio interface. A P value less than 0.05 was used to determine statistical significance for all tests.</t>
+  </si>
+  <si>
+    <t>Continuous variables were expressed as median (interquartile range [IQR]) and compared using the Mann-Whitney U test. Categorical variables were expressed as numbers (percentages) and compared using Pearson χ2 test or the Fisher exact test. The accuracy of each prognostic prediction score in predicting in-hospital mortality was determined by receiver operating characteristic (ROC) curve analysis and determination of the area under the curve (AUC). Factors associated with in-hospital mortality were identified by multiple logistic regression analysis using the backward elimination method. Variables with P values &lt; .1 in univariate analyses and clinical parameters were included in the multiple logistic regression model, with calibration of the models evaluated using the Hosmer-Lemeshow goodness-of-fit test. The contribution of each potential risk factor was reported as odds ratio (OR) and 95% confidence interval (CI). All statistical analyses were performed using the Statistical Package for the Social Sciences (SPSS) version 22.0 (IBM Corporation, Armonk, New York), with P values &lt;.05 considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Descriptive statistics were performed using the GraphPad software Inc., version 5.01 for Windows. The distribution of continuous data was analyzed with the d'Agostino &amp; Pearson omnibus test, normally distributed data are presented as mean ±SD, not normally distributed data are shown as median and interquartile range (IQR). Continuous variables were compared with the t-test (if normally distributed) or Wilcoxon test (if not normally distributed). For comparison of more than two variables we used the ANOVA test with Bonferroni correction for multiple comparisons or the Kruskal-Wallis test with Dunn's correction for multiple comparisons.
+The categorical variables were compared with the Fisher exact test. The level of agreement between the number of patients labeled as prehypertensive/hypertensive based on OBP and ABPM was quantified using the kappa coefficient along with the 95% confidence intervals. Previously published qualitative descriptors grading the level of agreement according to kappa values were used (28): &lt;0 no agreement, 0–0.2 slight agreement, 0.21–0.40 fair agreement, 0.41–0.60 moderate agreement, 0.61–0.80 substantial agreement, and 0.81–1.0 almost perfect agreement.
+The feasibility of prediction of ABPM HTN from the OBP readings was analyzed using the receiver operator curve (ROC). Office SBP SDS and DBP SDS were used as predictors of the ABPM HTN. The accuracy of prediction was classified using the area under the curve (AUC) for both SBP and DBP: AUC of 0.9–1 = excellent, 0.8–0.9 = good, 0.7–0.8 = fair, 0.6–0.7 = poor, 0.5–0.6 = fail.
+The study was approved by the Local Ethics Committee of the University Hospital, Ostrava, and legal representatives of the children gave their informed consents.</t>
+  </si>
+  <si>
+    <t>Continuous variables are expressed as the mean with the CI of the mean or SD, or as the median with IQR. Continuous variables were compared using Mann-Whitney U test and Student’s t-test as appropriate, and categorical variables were compared using Pearson’s χ2 test. AUC of deep learning model was compared with that of the other models and NCCT signs using Delong test. The statistical analysis was performed with R statistical software (V.4.0.1).</t>
+  </si>
+  <si>
+    <t>Quantitative data were presented as means with standard deviations. Qualitative data were given as absolute and percentages. The sensitivity, specificity, and predictive values for staging parameters were calculated. Receiver operating characteristic (ROC) curve analyses were conducted to assess the performance of clinical staging with and without MRI combination. The area under the curve (AUC) above 0.90 is considered to be of high diagnostic value, 0.70–0.90 is of moderate diagnostic value, and less than 0.70 is of poor diagnostic value.15
+All analyses were performed using IBM SPSS Statistics 21.0 (IBM Corporation, Armonk, NY, USA ). A two-sided P-value ＜0.05 is considered as significant.</t>
+  </si>
+  <si>
+    <t>We measured CNN performance using accuracy, sensitivity, specificity, positive predictive value (PPV), negative predictive value (NPV), balanced accuracy (arithmetic mean of sensitivity and specificity), F1-score (harmonic mean of sensitivity and PPV), and area under the receiver operating characteristic curve (AUC). Bootstrapping with 1000 samples was used to construct 95% confidence intervals (CIs).</t>
+  </si>
+  <si>
+    <t>Continuous variables with a normal distribution are described as the mean and standard deviation (mean ± SD). The comparison of mean values between groups was conducted by one-way analysis of variance (ANOVA) or the Kruskal–Wallis H rank-sum test according to the homogeneity of variance. Continuous data with an abnormal distribution are described as the median and interquartile range (M (QR)). The Kruskal–Wallis test was used to compare multiple groups of abnormally distributed data. The count data were analyzed by the χ2 test. ROC curve analysis was performed by using IBM SPSS 21.0 and MedCalc 15.2.2 statistical software. The optimum cutoff value for diagnosis was investigated by maximizing the sum of sensitivity and specificity (The Youden Index was the max)6,10.
+Likelihood ratio test was used for fitting the degree of the logistic regression model, and the Wald test was used for estimating the regression parameters. The area under the ROC curve was compared by the Z-test. HBV DNA levels were logarithmically transformed. The correlations between 4210 Da (1866 Da) and HBV DNA levels in the serum were analyzed by Fisher’s exact test or Pearson’s χ2 test. The combined markers (4210 Da and 1866 Da) were estimated with binary logistic regression, and the values of these functions were used as one marker subjected to ROC curve analysis.
+Statistical analyses were performed using IBM SPSS version 21.0 (SPSS Inc., Chicago, IL, USA) or MedCalc version 15.2 (MedCalc Software, Broekstraat, Mariakerke, Belgium). All tests were two-sided, with a significance threshold of P &lt; 0.05.</t>
+  </si>
+  <si>
+    <t>NPV, had square brackets around label, so not picked by algorithm</t>
+  </si>
+  <si>
+    <t>The study was conducted at the delivery ward of a tertiary teaching and research hospital, between April 2013 and October 2013. A total of 409 pregnant women were recruited for the study. Finally, 86 and 323 women delivered macrosomic and non-macrosomic infants, respectively. Macrosomic infants were defined as neonates with a birth weight of ≥ 4000 g. Patients who delivered singleton infants at term (37–42 weeks’ gestation) were deemed eligible for the study. Smoking, pre-existing or gestational diabetes, hypertension before or during the pregnancy, other systemic diseases, intrauterine growth restriction or small for gestational foetus, multiple gestation, preterm birth, delivery of an infant with a congenital anomaly, placentation anomalies and missing information about pre-pregnancy BMI constituted the exclusion criteria. The study was approved by the local ethics committee, and informed consent was obtained from all participants.
+Maternal BMI was calculated with the use of the BMI = body weight/height2 formula for all study participants. Self-reported pre-pregnancy weight was used to calculate pre-pregnancy BMI, while weight at delivery was measured at admission to the delivery unit. Based on BMI, women were classified as normal (18.5–24.9 kg/m2), overweight (25.0–29.9 kg/m2) or obese (&gt; 30 kg/m2). GWG was calculated as weight at delivery minus maternal pre-pregnancy weight. Biometric data of the newborns were routinely measured immediately upon delivery.
+Post hoc power analyses were performed to evaluate the primary measures of the study (BMI at delivery, BMI change percentage and weight gain). Among the macrosomic and non-macrosomic group, using alpha error of 5%, the statistical power to identify a difference for ‘BMI at delivery’, ‘BMI change percentage’ and ‘weight gain’ were found to be 95.4%, 13.2% and 79.8%, respectively.
+All statistical analyses were performed using IBM SPSS Statistics Software (19.0, SPSS Inc., Chicago, IL, USA). Kolmogorov–Smirnov test was used to test distribution of the variables. Continuous variables were presented as mean ± standard deviation (SD). The independent samples t-test was used for continuous variables while Mann–Whitney U test was applied for non-parametric variables. Chi-square test was used for comparison of categorical values. The receiver operating characteristic (ROC) analysis was used to estimate an optimal threshold for weight gain to predict macrosomia. For multivariate analysis, the possible factors identified with univariate analysis were further entered into the logistic regression analysis to determine independent predictors of patient outcome. Pearson's and Spearman's correlation tests were used for evaluation of the correlation between variables, whose variances were and were not equally assumed, respectively. Statistical significance was assumed with a probability error at p &lt; 0.05.</t>
+  </si>
+  <si>
+    <t>Two approaches were taken when selecting variables to include as input data for the predictive models. The first approach only included eccentric hamstring strength, age and previous HSI as predictors for future HSI. The second approach included eccentric hamstring strength, age, previous HSI, between-limb imbalance, previous ACL injury, stature, mass, and primary playing position. Both years (2013 and 2015) were first analyzed individually to predict within-year HSI. The modeling approach taken for within-year HSI prediction can be found in Figure 1A. Between-year HSI prediction was then explored by allocating the 2013 data as training data and the 2015 data as testing data (Fig. 1B). To account for any variance caused by random sampling, data preprocessing and cross-validation, 10,000 iterations of each modeling approach were performed. All analyses were performed using the R statistical programming language (22). Accuracy can be a poor indicator of performance when attempting to predict injury incidence (24). Cohen’s kappa coefficient is an alternative to accuracy that accounts for the base rate of expected accuracy due to random chance. However, both accuracy and kappa are calculated based on the number of correct and incorrect binary classifications and do not take into account the estimated probability of an observation belonging to one class or the other. For example, if athlete A has a 49% probability of HSI and athlete B has 1% probability of HSI, both these athletes are predicted to remain uninjured. Accuracy and kappa do account for the fact that athlete A was 48% more likely to sustain an HSI than athlete B. Area under the curve (AUC) of a receiver operator characteristic curve measures the probability that a positive case will be ranked higher than a negative case. An AUC of 0.5 indicates prediction no better than random chance, with a value of 1.0 indicating perfect prediction (13). In the current study, predicted injury probabilities were used to construct a receiver operator characteristic curve, and AUC was used to measure the likelihood that the observations with a higher probability of injury were actually the injured observations. As AUC is calculated using predicted injury probabilities and not the number of correct and incorrect binary classifications, it can be a more sensitive measure of performance than accuracy or kappa (27). Accordingly, the AUC of each algorithm was calculated and was used to compare predictive performance as well as to select the optimal parameter combination for each model.</t>
+  </si>
+  <si>
+    <t>Descriptive statistics for patient demographic and functional characteristics were tabulated for each of the three impairment categories. Separate linear regression models were computed to assess the impact of each comorbidity index on discharge functional status during inpatient rehabilitation. We developed six models for patients in each of the three impairment categories for each dependent variable. Dependent variables for the models included: discharge self-care, discharge mobility and discharge cognition ratings.
+The base model included age, gender, race/ethnicity, Medicare qualifying disability, dual eligibility, length of stay and admission functional status. Five subsequent models were computed for each dependent variable with one of the comorbidity indices included in each model. Variance explained (R2) values were compared across the models for all functional outcomes.
+Logistic regression models were computed to examine the associations between each comorbidity index and discharge setting. We developed seven models for patients in each of the three impairment categories for discharge setting. Seven receiver operating characteristics (ROC) curves were constructed to differentiate patients discharged to the community compared to institutional settings.
+Two models were computed without comorbidity indices. The first model included age, gender, race/ethnicity, Medicare qualifying disability, dual eligibility and length of stay. The second model added total functional status at discharge to show the discriminatory ability explained by functional status related to discharge setting. In each of the five remaining models, one comorbidity index was added. The C-statistic was used to quantify the ability of the models to discriminate discharge to community across the three impairment categories.18 All statistical analyses were performed using SAS 9.3 (SAS Institute, Cary, NC).</t>
+  </si>
+  <si>
+    <t>The demographic characteristics of the development and validation sets were compared using the chi-square test or Fisher’s exact test for discrete variables, and Student’s t-test for continuous variables. Associations between SRS dose, lesion size, and steroid use with the outcome (tumor progression vs. treatment response) were evaluated by logistic regression analysis. Additionally, we used the Kruskal–Wallis test to investigate whether the histopathology showed any difference in baseline T2 signal and contrast-enhanced T1-w signal.
+The associations between tumor habitats and treatment outcomes were determined by univariable logistic regression analysis, including the calculation of odds ratios (ORs) and p values. Tumor habitats were analyzed as volume numbers (1000 voxels per unit) and volume fraction. Patients with multiple metastases are clustered data, which yields a misleadingly small estimated standard error for the sensitivity and specificity [24]. A mixed-effects logistic regression model was applied to combine significant predictors according to a linear combination of regression coefficients and feature values as fixed effects [25]. A random effect for patients was included to account for clustered data of patients with tumor progression and radiation necrosis at different time points. A diagnostic model was constructed to differentiate between tumor progression and radiation necrosis, and its performance was assessed by calculating the area under the curve (AUC) of the receiver operating characteristics (ROC) curve for both the development and validation sets.
+All statistical analyses were performed using the R Statistical Package (version 3.6.3, Institute for Statistics and Mathematics, http://www.R-project.org). A p value less than 0.05 was considered statistically significant.
+Results</t>
+  </si>
+  <si>
+    <t>The Kaplan-Meier method was used for survival analysis for time to seizure recurrence. The external validation and performance of the Lamberink model and MRC model were quantified by three aspects: discrimination, calibration, and decision curve analysis (DCA).
+2.4.1 Discrimination
+The discrimination of the prediction models (ie, the ability of the prediction model to distinguish a patient with the endpoint [seizure recurrence] from a patient without the endpoint [no seizure recurrence]) was quantified with the area under the receiver operating characteristic (ROC) curve (AUC), and a 95% confidence interval (CI) was calculated for each AUC. In addition, the integrated discrimination improvement (IDI) was calculated to compare the discrimination of the two prediction models at predicting seizure recurrence at 2 years after the withdrawal of AEDs.
+2.4.2 Calibration
+Calibration refers to the agreement between the predicted probability and observed endpoints. Calibration plots were created to compare the predicted probabilities of seizure recurrence for each individual with the observed outcome. From the calibration curves, the maximal (Emax) and average (Eavg) errors between the predicted and calibrated probabilities were assessed. Moreover, we used the Spiegelhalter Z test and its two-tailed P value to evaluate the difference between the predicted and observed probabilities.
+2.4.3 Decision curve analysis
+DCA was performed to measure clinical usefulness (ie, the ability to make better decisions with a model than without it) of the prediction models by quantifying the net benefits at different threshold probabilities.21 The appropriate ranges of the threshold probabilities of the prediction models can be obtained by DCA. The net benefits of the Lamberink 2-year model and the MRC 2-year model were compared.
+All tests were 2-sided, with statistical significance set at P &lt; .05. All analyses were performed using R version 3.6.0 (R Project for Statistical Computing) with the survival, survminer, pROC, PredictABEL, ggplot2, rms, foreign, and rmda libraries (http://lib.stat.cmu.edu/R/CRAN/).</t>
+  </si>
+  <si>
+    <t>The Fitbit data consisted of time-stamped heart rate samples (in beats per minute) that were recorded every 5 seconds, ranging in total duration from 19 to 143 hours (mean = 64 hours) per patient. Seizure events took an average of 56 seconds. In order to train a neural network model to distinguish heart rate data during seizure events from heart rate data during control time, we built a data set of 2-minute windows (ie, 24 heart rate samples) of Fitbit heart rate data, where each window was either labeled as “control” or “seizure.” To create seizure windows, we slid a 2-minute window across the heart rate data in 5-second increments for as long as it overlapped with an event. This process resulted in a total of 1709 seizure windows. In order to create control windows, we randomly sampled 10 000 2-minute windows of nonevent heart rate data across all patients. The resulting data set allowed us to train and evaluate a neural network machine learning model on a binary classification task.
+We used a standard 3-layer multilayer perceptron (MLP) with 24 input nodes, 512 hidden nodes (ReLU activation), and 1 output node (sigmoid activation) as our neural network model. We briefly experimented with other architectures (eg, different numbers of hidden nodes/layers and 1-D convolutional nets) but found no significant differences in our results. In order to evaluate model performance for each individual patient, we trained a separate model for each patient using the data from the remaining patients for training. Each network model was trained to minimize binary cross-entropy using stochastic gradient descent with the adam optimizer and a batch size of 512 windows. To avoid overfitting, we trained the MLP with 80% of the data and stopped training once the accuracy on the remaining 20% of the data stopped increasing. This procedure allowed us to produce individual receiver operating characteristic curves for each patient as well as an aggregated curve across patients. Because neural network training is stochastic in nature, we repeated the entire cross-validation training procedure 10 times and reported average receiver operating characteristic curves as well as 95% confidence intervals. Based on this approach, the receiver operating characteristic curves characterize how well seizures can be predicted by distinguishing heart rate data during a seizure from normal heart rate data.</t>
+  </si>
+  <si>
+    <t>To develop the nomogram, 500 of 800 patients were randomly selected to build the model, and the remaining 300 patients were reserved to validate that model We examined the relationship between recurrence or progression-free survival (PFS) and data from each patient, including age; gender; tumor number, size, growth pattern, shape, cytology, concomitant CIS, grade, and stage; and intravesical instillation therapy (BCG or anthracycline). Weekly intravesical instillation BCG therapy was noted as with or without single immediate postoperative intravesical instillation anthracycline therapy. Intravesical instillation using anthracycline included single immediate postoperative anthracycline without BCG or weekly additional adjuvant intravesical instillation therapy without BCG. Recurrence-free survival (RFS) was defined as time from the first treatment to the first bladder recurrence. Progression was defined as the development of muscle invasion or distant metastasis, and PFS was defined as time from the first treatment to the first progression. Bladder-cancer-specific survival was defined as time from the first treatment to death from bladder cancer, and overall survival was defined as time from the first treatment to death from any other cause.
+The Kaplan–Meier method was used to estimate RFS and PFS. Univariate and multivariate analyses were used to evaluate the relationships between clinicopathological variables and RFS and PFS. Univariate analysis using the Cox-mantel and Cox proportional hazard regression model was performed to evaluate the impact of any covariate on RFS and PFS. Multivariate analysis using the stepwise forward Cox proportional hazard regression model determined independent variables predictive of tumor recurrence and progression. The multivariate analysis estimates the hazard ratio (HR) for each clinicopathological factor. The independent variables were used to construct a nomogram. All statistics analysis was performed by the Statistics Analysis Division of Theranostic Research Institute Incorporated Company (http://www.theranos-inst.com/english.html) using original software and SPSS® version 11.0 for Windows®. All tests were two-sided; p &lt; 0.05 was considered statistically significant. HRs were estimated with 95% confidence intervals (CI).
+Nomogram development was based on the Cox proportional hazard regression model, using the coefficients of the multivariable model. We decoupled each regression coefficient designated them as risk points. Negative points were converted to positive points on the nomograms. Patient scores in the nomograms were calculated from 57 (best prognosis) to 93 (worst prognosis), as shown on the nomogram for recurrence and from 44 (best prognosis) to 94 (worst prognosis) as shown on the nomogram for progression. All decisions with respect to coding the nomogram variables were made prior to modeling, because making these decisions afterward can have deleterious effects on the predictive ability of the model [7].
+Nomogram validation was performed by applying the 300 remaining patients, who were not included in the modeling sample, to the nomogram modeled by the original 500 patients. The predicted probability of diseased recurrence and progression was compared with the actual outcome, and the area under the receiver operating characteristic curve (AUC) was calculated. The AUC expresses how well the model is able to discriminate between patients who survive and those who do not. Higher values indicate better discrimination; a value of 0.5 indicates no predictive discrimination, whereas 1.0 indicates perfect separation of patients with different outcomes [7, 8].</t>
+  </si>
+  <si>
+    <t>The data were analysed using STATA V.14 (Stata Corp, College Station, Texas, USA).
+Agreement between reviewers
+The intraclass correlation (ICC) was calculated to examine agreement between reviewers within applications for all outcomes. The ICC can only be calculated on groups of the same size; therefore, the ICC for applications with differing numbers of reviewers had to be calculated separately. An ICC of less than 0.4 is described as poor reliability, 0.4 to 0.59 is fair, 0.6 to 0.74 is good and above 0.75 is excellent reliability.14
+Agreement between reviewer scores and board scores
+Bland-Altman plots15 were used to assess agreement between reviewer scores and board scores for all applications included in the study. For each application, the difference between the average board score and the average reviewer score was plotted against the mean of the same two quantities. The 95% limits of agreement, estimated by the mean difference±1.96 SDs of the difference, provide an interval within which 95% of the differences between board and reviewer scores are expected to lie. If a linear relationship is found between the differences and the means of the board and reviewer scores, regression-based 95% limits of agreement can be computed.16 17 
+ Multivariate analyses
+Linear regressions were performed of the average board scores on the average reviewer score and all other application variables as well as the number of reviews per application on all relevant application variables. Each funding application had several reviewers; we anticipated that the reviewer scores for some applications might be similar. Multilevel modelling of reviewer scores allowing for clustering by application was therefore used to take account of application and reviewer variables when analysing reviewer scores. An ordered probit regression of reviewer scores on reviewer-level variables (number of applications as chief investigator, number of applications as co-investigator, number of reviews submitted and reviewer role) and application-level variables (application cost, funding stream and research type) with a random effect for application was performed.
+Number of reviewers and influence on board decisions
+The influence of peer reviewer scores on the board decision, using only applications that resulted in a fund or reject outcome (the very small number invited to resubmit were excluded), was measured by logistic regression with SEs adjusted for clustering. Both the mean and individual reviewers’ scores were used to predict board decision, and predicted probabilities from the logistic regression were used to create receiver operating characteristic (ROC) curves. The area under the ROC curve summarises the accuracy of the reviewers’ scores in predicting board decision. An area of 1 is perfect prediction, a score of 0.9 to 1 is excellent, 0.8 to 0.9 good, 0.7 to 0.8 fair, 0.6 to 0.7 poor and a score of 0.5 is no better than chance.
+The number of peer reviewers used was explored by comparing area under ROC curve using the predicted probabilities from the logistic regression models for applications reviewed by different numbers of reviewers. These are compared to see if increasing the number of reviewers reviewing an application increases the influence of the reviewer scores on the board decision.
+Reviewers with specific categories of expertise and varying levels of NIHR application experience
+The relative influence of peer reviewer scores from reviewers with different types of expertise and different levels of research experience was measured by logistic regression, using the area under the ROC curve to compare scores from different types of reviewer with the board’s decision.</t>
+  </si>
+  <si>
+    <t>Baseline characteristics were reported for the entire sample and for subgroups as defined by presence or absence of a pulmonary nodule, by providing medians with interquartile ranges for continuous variables and counts with percentages for categorical variables; group comparisons were performed by using the Wilcoxon rank sum test and Chi-square test, respectively.
+We performed bivariate logistic regression of the primary outcome variable, a positive baseline screening exam result, on patient- and center-specific variables, and reported their unadjusted odds ratios (ORs). For continuous variables, we first performed exploratory analyses and visually examined histograms to determine the underlying relationship between exposures and outcomes (Figures E3–E5). Based on these analyses, we modeled age and years of smoking abstinence linearly; in addition, we transformed number of pack-years into an ordinal variable (categorized in 5-year increments). Finally, we used binary variables to model race (white versus nonwhite), education (college versus less than college), marital status (married versus single, divorced, or widowed), and exposure history; we modeled exposure histories as binary variables, because most exposures had too few observations when recorded quantitatively by intensity or length of exposure.
+Using variables of clinical importance and statistical significance from bivariate analyses, we performed multiple logistic regression and reported adjusted ORs with 95% confidence intervals (CIs); using this final model, we constructed a receiver operator characteristic (ROC) curve comparing the predicted probability of a nodule and the outcome of the baseline screening exam. To describe the accuracy of the model, we report the area under the ROC curve (AU-ROC) and its 95% CI. Furthermore, we internally validated the model by using a cross-validation procedure (12). We divided the study population into 10 equal samples selected randomly and without replacement, developed a multivariate model using 9 of the samples, and validated each model using the remaining sample. This procedure was repeated 10 times.
+We performed sensitivity analyses by including enrollment centers in moderately high histoplasma-endemic areas, as well as by changing the definition for a positive scan from 4 to 6 mm. Finally, we performed a sensitivity analysis by modeling enrollment center as a random effect to account for clustering by center. All statistical analyses were performed with SAS 9.4 (SAS Institute, Cary, NC).</t>
+  </si>
+  <si>
+    <t>The values obtained were expressed as mean ± standard error of the mean (SEM). Statistical analyses were performed using the SPSS package, version 15.0 (SPSS Inc., Chicago, IL, USA). The statistical level of significance was set at P &lt; 0.05. Clustering procedures were performed to identify sperm subpopulations using kinematic or morphometric data, as previously described (Vicente-Fiel et al., 2013, Yániz et al., 2015a).
+The data studied derived from 1319 inseminations performed in 16 well-managed farms in north-eastern Spain. Logistic regression analyses were performed on data from each insemination using fertility at AI as the dependent variable (measured by lambing, 0 or 1), and farm, year, month of AI, female parity, female lambing-treatment interval, inseminating ram, AI technician and sperm quality parameters as independent factors. CASA and CASMA sperm quality parameters were included as average means or included in sperm morphometric and kinematic subpopulations on independent analyses. Total and progressive motility percentages were included in both logistic regression analyses because these CASA variables were not included in the multivariate cluster analysis. The farm, year, month of AI, ram and AI technician were considered class variables. Parity, lambing-treatment interval and mean values of the studied sperm quality parameters were considered as continuous variables. All the variables studied are listed in Table 1, Table 2. Logistic regression analysis (SPSS software, Logistic procedure) was conducted according to the method of Hosmer and Lemeshow (1989). This method basically involves the following five steps: preliminary screening of all variables for univariate associations; construction of a full model using all the variables found to be significant in the univariate analysis; stepwise removal of non-significant variables from the full model and comparison of the reduced model with the previous model for model fit and confounding; evaluation of interactions among variables; and assessment of model fit using Hosmer–Lemeshow statistics. Variables with univariate associations showing P values &lt;0.25 were included in the initial model. We continued modelling until all the main effects or interaction terms were significant according to the Wald statistic at P &lt; 0.05.
+Moreover, multiple linear regression analyses were performed on data from each ejaculate (N = 139) using weighted average fertility as the dependent variable, and year, month of AI, inseminating ram, AI technician and sperm quality parameters as independent factors.
+The discriminant ability of the different semen variables to predict field fertility was analyzed using receiver operating characteristic (ROC) curve analysis (Gadea et al., 2004). This consists of calculating the sensitivity (true positive rate) and specificity (true negative rate) of each parameter for different threshold values, plotting them as a ROC curve. Then, we calculated AUC (Area Under Curve) using the integration method. AUC varies from 0.5 (test with no discriminatory ability) to 1 (perfect discriminatory ability). A ROC was also used to calculate the elective breaking point (cut-off value) for each semen variable. The breaking point is in relation with the point that maximized specificity and sensitivity.</t>
+  </si>
+  <si>
+    <t>This is an observational prospective cohort study. Between April 2016 and May 2017, we enrolled patients scheduled to undergo a prostate biopsy for the first time. All patients provided written informed consent before receiving the prostate biopsy. The Institutional Review Board of China Medical University Hospital approved this study, and the protocol number was CMUH105-REC1-123.
+The inclusion criteria were patients aged 50–75 years and a serum total PSA level 4.0–10.0 ng/mL, with or without an abnormal digital rectal examination (DRE). Patients with urinary tract infection, prostatitis, treatment with 5-alpha reductase inhibitors, or a history of PCa or prostate biopsy were excluded from this study. A transrectal ultrasound-guided prostate biopsy was performed in all patients with at least 12 cores. The biopsy specimens were processed and evaluated by an experienced uropathologist. PCa was graded according to the 2005 consensus conference of the International Society of Urological Pathology definitions [24].
+PSA parameters including total PSA, free PSA, and p2PSA were determined from serum samples. Blood was drawn before prostate manipulation, centrifuged within 3 h of collection, and frozen at −20 to −80 °C until analysis [25]. We used a Beckman Coulter DxI 800 Immunoassay System to measure the PSA parameters, and PHI was determined using the formula PHI = (p2PSA/free PSA) × √PSA [18]. The results of PHI were blinded to the operators before prostate biopsy.
+We collected clinical variables, PSA parameters, and biopsy reports for analysis. The primary outcome was the diagnostic performance of various PSA derivatives (total PSA, free PSA, %fPSA, p2PSA, %p2PSA, and PHI) to predict PCa. The secondary outcome was comparisons of PSA derivatives between patients with a Gleason score (GS)urn:x-wiley:1607551X:kjm2461:equation:kjm2461-math-00056 and GSurn:x-wiley:1607551X:kjm2461:equation:kjm2461-math-00067.
+Quantitative data are represented as mean ± standard deviation (SD) and categorical data as number (n) and percentage. The demographic and clinical characteristics between the cancer and noncancer groups were compared using the independent sample t-test and Mann–Whitney test for continuous normally distributed and skewed variables, respectively. The area under the receiver operating characteristic curve (AUC) was calculated for the various PSA derivatives using SigmaPlot version 12.5 (Systat Software Inc, USA). All statistical analyses were carried out using SPSS version 22 (IBM Corp, Armonk, NY, USA), assuming a two-sided test with a 5% level of significance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIVARIATE. We determined the ability of the Charlson index, the
+APACHE II model measurement of Chronic Health Points, and the
+APACHE II model predictions of the likelihood of survival until
+discharge to discriminate between patients who would live and patients who would die, using receiver operating characteristic (ROC)
+curves [ 11,121. To construct receiver operating characteristic curves
+we plotted the true-positive rate (sensitivity) and false-positive rate
+(1 - specificity) of the Charlson scores, Chronic Health Points, and
+the predictions made by the APACHE II model, assuming that
+those greater than or equal to each of a set of cutoff values were
+“positive” and those less than each cutoff were “negative.” The area
+under the ROC curve, also called the c index [ 131, measures discrimination. We calculated areas using the Centor and Schwartz adaptation [14] of the Hanley and McNeil method [15].
+MULTIVARIATE. To determine whether the Charlson index could
+add predictive information to that derived from the APACHE II
+model, we used logistic regression analysis. We first constructed two
+baseline models with death as their dependent variable and a linear
+combination of all components of APACHE II other than Chronic
+Health Points, weighted according to the original article describing
+the APACHE II model [8], as their independent variable. We then
+forced the Charlson index into the first model. The ability of the
+index to predict independent of and additional to the APACHE
+II components would be indicated by the improvement chi-square
+achieved when it was forced into the model. Similarly, we forced
+APACHE II Chronic Health Points into the second model and
+noted its improvement chi-square.
+Finally, we constructed a model that used an appropriately
+weighted linear combination of all APACHE II components, including Chronic Health Points, as the independent variable, and
+death as the dependent variable. We then forced the Charlson index
+into this model and assessed its improvement chi-square. </t>
+  </si>
+  <si>
+    <t>Descriptive statistics were generated for age, gender, disease duration, MS type and Expanded Disability Status Scale score. Timed Up and Go data were tested for normality using the Kolmogorov–Smirnov test and depending on distribution either independent sample t tests or Mann–Whitney U tests were used to determine the differences between fallers and non-fallers. Discrimination is the ability of a measure to differentiate between individuals with and without falls and is quantified using the area under the receiver operating characteristic curve statistic. Receiver operating characteristic curve analysis was carried out to determine this value and the optimal sensitivity and specificity values for the Timed Up and Go and Timed Up and Go-Cognitive. The area under the receiver operating characteristic curve statistic measures the average true positive rate (predicted falls that actually occurred) over all false positive rates (predicted falls that did not actually occur). It can have any value between 0 and 1 with a value of 0.5 representing chance, values between 0.7 and 0.9 representing moderate discrimination and a value of 1 representing perfect discrimination.19 The larger the area under the receiver operating characteristic curve statistic value, the greater the discriminative ability of the measure in question.20 In terms of measuring clinical utility, the sensitivity and specificity of the Timed Up and Go and Timed Up and Go-Cognitive were calculated. Balance screening tools with high sensitivity (⩾80%) are preferable to safely ‘rule out’ those at low risk of a subsequent fall (as opposed to diagnostic tools that generally demonstrate high specificity).21
+Positive predictive values and likelihood ratios were also calculated. A positive predictive value is the proportion of individuals with test results above or equal to the cut-off point who were correctly classified as fallers. The specific cut-offs used were chosen to maximize the sensitivity and specificity values as previous cut-off values have not been recommended in this population. A negative predictive value is the proportion of individuals with scores below the cut-off point who were correctly classified as non-fallers. The likelihood ratio summarizes how many times more a person who experiences falls has results on the Timed Up and Go or Timed Up and Go-Cognitive worse than or equal to the cut-off score. A positive likelihood ratio of greater than 1 indicates that the test result is associated with the disease or in this instance with faller status. A negative likelihood ratio less than 1 indicates that the result is associated with the absence of the disease or in this instance being a non-faller.22 All analyses were performed using SPSS software, version 22 (IBM Corp, Armonk, New York). The level of significance was set as P &lt; 0.05.</t>
+  </si>
+  <si>
+    <t>Data were analysed using a standard statistical software program (SPSS 15.0). Continuous variables were expressed as mean ± standard deviation or median (interquartile range) and analyzed using t-test, Mann-Whitney test or Kruskal-Wallis test, as appropriate. Categorical variables were expressed as percentages and analyzed using chi-square test or Fisher’s exact test, as appropriate. Significance was assumed when p &lt; 0.05. Boxplots were used to compare the COI of healthy controls, non-NASH patients and NASH patients, the different grades of steatosis, lobular inflammation and ballooning, and the different fibrosis stages. The performance of the COI for the diagnosis of NASH, the different grades of steatosis, lobular inflammation and hepatocyte ballooning, and the different stages of fibrosis were determined using area under receiver-operating characteristics curve (AUROC). AUROC was interpreted as follows: 0.90–1.00 = excellent, 0.80–0.90 = good, 0.70–0.80 = fair, &lt; 0.70 = poor. Optimal cut-off values for the COI were the values that provided the greatest sum of sensitivity and specificity. The sensitivity, specificity, positive predictive value and negative predictive value using the optimal cut-off values were determined. Using the AUROC, the performance of the COI for the diagnosis of NASH was compared with serum alanine aminotransferase (ALT), aspartate aminotransferase (AST) and gamma glutamyl transpeptidase (GGT) levels. Similarly, the performance of the COI for the diagnosis of fibrosis stages was compared with the AST to platelet ratio index (APRI) [14], fibrosis-4 index (FIB-4) [15] and NAFLD fibrosis score [16]. Similarly, the performance of the change in the COI and the percentage of change in the COI for detection of improvement in liver histology after a period of intervention was evaluated using AUROCs.</t>
+  </si>
+  <si>
+    <t>Continuous variables were tested for normality with the Shapiro–Wilk test, and were presented as mean ± standard deviation, while non-normally distributed variables were presented as median and interquartile range. Differences among groups were analyzed using the Student's t test or Mann–Whitney U test, as appropriate. The χ2-test was used to assess differences in the percentages of patients. A Spearman's rank correlation analysis was carried out to evaluate the associations between the four biomarkers and several clinical factors. Kruskal–Wallis test was also used to assess differences in the characteristics of patients with robust, pre-sarcopenia, and sarcopenia. The area under the curve (AUC) for sarcopenia was used for evaluating serum Cr/CysC, CysC, Cr, and Alb. The difference in receiver operating characteristic (ROC) curves was compared using the DeLong test [22]. Variables with P &lt; 0.20 in univariate analysis that are associated with a risk for acute exacerbations were selected for the multivariable model [23]. A P-value &lt;0.05 was considered to show statistical significance. A P-value &lt;0.017 (0.05/3) was considered to show statistical significance in comparisons among the three sarcopenia groups. All statistical analyses were carried out using JMP Pro for Macintosh, version 14 (SAS Institute, Cary, NC).</t>
+  </si>
+  <si>
+    <t>Continuous variables are expressed as mean (standard deviation) and compared using t-tests for independent groups if normally distributed; otherwise, they are expressed as medians [quartiles] and compared with Mann–Whitney U tests. Receiver operating characteristic (ROC) analysis was performed to evaluate individual marker prognostic utility for the combined endpoint and to ascertain cut-points yielding 80% sensitivity. The areas under the ROC curves (C-statistics) were compared using the method of DeLong et al.17 Relationships between biomarkers were evaluated with Spearman rank-order correlation. Kaplan–Meier methods were employed to generate survival plots that were compared using a log-rank test. Cox proportional hazards regression was employed to evaluate survival models using biomarkers with common log transformations for NGAL and BNP to achieve normality, and using biomarker cut-points. Net reclassification improvement20 was calculated based on risk levels of 6 and 20% as cut-points. A significance criterion of 0.05 without correction for multiple comparisons was employed throughout.</t>
+  </si>
+  <si>
+    <t>The Transparent Reporting of a Multivariable Prediction Model for Individual Prognosis or Diagnosis (TRIPOD) reporting guideline statement was used to report study elements (TRIPOD V).17 The primary outcome was 5-year RFS. Patients who had perioperative deaths within 90 days of liver transplant were therefore excluded. Recurrence was evaluated by imaging and biopsy if necessary. The NYCA score was calculated for all patients according to the previous model12; patients were assigned points accordingly and then risk-stratified into the 3 groups (Table 1). Competing risk regression was then performed for RFS, with death before recurrence as a competing risk. Once the NYCA score was validated for the entire cohort, center-level validation was conducted. Receiver operating characteristic curves were used to compare validated NYCA score with MC, F-AFP, and Metroticket 2.0. Net reclassification index was performed to evaluate whether the NYCA score would more accurately classify patients as high risk than previous models. The net reclassification index is a statistical test that compares whether risk scores more appropriately categorize patients as high risk depending on their outcome. The net reclassification index can be superior to the area under the curve, especially in cases where cutoffs are not strictly defined.18 The net reclassification index was used to assess the utility of the NYCA score compared with the other models at predicting recurrence. A net reclassification of patients into the correct risk category compared with other prediction models (ie, reclassifying patients with an eventual recurrence into a higher-risk group or reclassifying patients without recurrence into a lower-risk group) would have resulted in a positive (favorable) net reclassification index for NYCA. The NYCA score was also assessed for its ability to predict OS using Cox regression to investigate factors associated with OS. The statistical analyses were performed with SPSS, version 26 (IBM Corp) and Stata, version 14.2 for Macintosh (StataCorp LLC). With 2-sided testing, P = .05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Sensitivity and specificity were determined for each assay by reference to pretest diagnoses for group 1 patients. McNemar or exact binomial tests were used as appropriate to compare interassay sensitivity and specificity differences (JMP version 9.0 and SAS version 9.2 [SAS Institute, Cary, NC]). Receiver operating characteristic (ROC) curves were not generated for M1-ELISA or M1-CBA data due to low variability. From ROC curves generated for FACS results, we compared areas under the curves for M1 and M23 FACS results against chance (0.50) and one another. Positive likelihood ratios An external file that holds a picture, illustration, etc.
+Object name is NEURIMMINFL2014000091MMU1.jpg and confidence intervals (CIs) were calculated for group 1 and 2 patients combined. SAS version 9, JMP version 9, or R software was used for all analyses.17 p values &lt;0.05 were considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Detection rates with ACT images (term 1), the combination of ACT, MPR and VE images (term 2), and the combination of ACT, MPR, VE and WC images (term 3) were analyzed for each observer by constructing the area under the receiver operating characteristic curve (AUC), using surgical records and gastroscopic findings as the reference standard. Differences between the ROC curves were tested for their statistical significance using the McNemar exact test for paired data. Conventional measurements of sensitivity, specificity, positive predictive value, and negative predictive value were calculated with a confidence level scoring system for the three image sets and for both observers. Interobserver agreement for these imaging evaluations was calculated using weighted-κ statistics, which were interpreted as follows: poor (0), slight agreement (0.01–0.20), fair agreement (0.21–0.40), moderate agreement (0.41–0.60), substantial agreement (0.61–0.80), and almost perfect agreement (0.81–1.00).
+The Mann–Whitney test, Fisher's exact test, and χ2 test were used to compare the macroscopic characteristics of EGCs. p values less than 0.05 were considered to indicate statistical significance. All statistical analyses were performed using MedCalc software (version 9, MedCalc) for Windows (Microsoft).</t>
+  </si>
+  <si>
+    <t>All analyses were performed in SPSS 24.0 and R 3.3.2. R package “survival ROC” was applied. p &lt; 0.05 was considered significant for the analyses. The details of the statistical methods used are presented in the eMethods. These are summarized below.
+Landmark method is recommended in oncology guidelines for time-dependent analyses. For this analysis, 1-, 3-, and 6-month post-TARE Landmarks were used. The 401 patients were randomized to the following groups: (a) score development and (b) score validation. In order to determine independent risk factors for overall survival (OS), Cox regression was applied. For each Landmark, we included baseline characteristics and the laboratory parameters (at the specified Landmark) as independent variables. The outcome was OS at the post-TARE Landmark. The following scores were developed: (a) Laboratory Score, (b) Baseline Imaging Score, and (c) Combination Score. The validation of the Laboratory, Baseline Imaging, and Combination scores was performed in the validating group. Time-dependent receiver operating characteristics (ROCs) of these three scoring systems at 1, 3, and 6 months were plotted. Areas under the curve (AUCs) of time-dependent ROCs were calculated.
+Change in the Laboratory Score was also used to determine treatment response.
+Changeinlabscore=Labscore(baseline)−Labscore(Landmark)
+The change in Laboratory Score was calculated as above. A positive change in the score represents a decrease in the score at the specific post-treatment Landmark and vice versa. All cutoffs were chosen at the 25th and 75th percentile as represented in eTable 3, and patients were grouped into three groups based on these cutoffs.</t>
+  </si>
+  <si>
+    <t>The Columbia University Comprehensive Surgical Urologic Oncology Database contains the details of 3663 patients who underwent radical prostatectomy from January 1988 to December 2008. Patients who had received neo-adjuvant or adjuvant therapy, had insufficient clinical parameters for estimation of 5-year progression-free probability using the preoperative Kattan nomogram, or had less than 1 year of follow-up were excluded. For purposes of risk stratification of the remaining 1877 patients in the study, D’Amico’s criteria [4,5] were applied. Low risk was defined as clinical Stage T1c or T2a, a PSA level of 10 ng/mL or less, and a Gleason sum of ≤6; intermediate risk was defined as either clinical Stage T2b, a PSA level &gt;10 ng/mL but less than 20 ng/mL, or a Gleason sum of 7; and high risk was defined as clinical Stage T2c or greater, PSA level &gt;20 ng/mL, or a Gleason sum of ≥8. Mean estimated nomogram progression rates were compared with actuarial Kaplan–Meier survival statistics. A regression model to predict progression-free survival was fitted with estimated nomogram score and concordance indices were calculated for the entire model and subsequently for each risk group.
+To estimate the predictive ability of the current Kattan nomogram, we used two statistics: the concordance index and the Somers’ D statistic [6]. The concordance index is the probability that given two randomly selected patients, the patient with the worse outcome is predicted to have the worse outcome. The index ranges from 0.5, indicating the model performed no better than a random coin flip, to 1, indicating the model has perfect ability to rank patients. The Somers’ D statistic is the difference between the fraction of pairs for which the full model is more concordant than the reduced model and the fraction of pairs for which the reduced model is more concordant than the full. In this measure, a correlation coefficient of 0 represents no discriminating ability and a value of 1 represents perfect discrimination. It can be converted to a concordance index by dividing by 2 and adding to 0.5. All tests of statistical significance were two-sided. All analyses were conducted with STATA, version 9.0 (STATA, College Station, TX).</t>
+  </si>
+  <si>
+    <t>All analyses were conducted using R software. The Canadian cohort had an overall 10% missing rate of baseline data. Missing data were imputed in 20 datasets using the method of multiple imputation by chained equations (MICE) [19]. Outcome data was not imputed. Our reported average C-indices and average coefficient estimates are unweighted means across all 20 imputed datasets. We followed Rubin’s rules [20] to compute standard errors (SEs) for all quantities across the 20 imputed datasets.
+To validate the original un-tuned Nordic models in Canadian children, we fit each model to 100% of the data within each of 20 imputed datasets. From each dataset, we computed the C-index and the SE of the C-index. We then combined these individual SEs to produce the overall C-index SE.
+For the fine-tuned models, we needed to ensure that the model-evaluation statistics were computed on data not used to estimate the coefficients. We followed the procedure published by Jiang et al. [21] and modified it to compute the C-index. For a given imputed dataset, we estimated the average C-index using their recommendation of the Leave-One-Out Cross-Validation (LOOCV) error. To estimate the within-dataset standard error, we used their recommendation of a nested cross-validation within a bootstrap (the BCCV algorithm). We created B = 25 bootstrap samples on an imputed dataset. Within each bootstrap sample, we removed one original observation (if it occurred multiple times in the imputed data, we removed all cases) and predicted this observation using the fitted model. We repeated this process for each observation in turn to obtain predictions on each case. We then computed a C-index on all predicted values of that bootstrap sample. We then computed the standard deviation (SD) of the B = 25 bootstrap sample C-indices as an estimate of the within-dataset SD of the C-index. The between-dataset and within-dataset SDs were combined to produce the overall multiple imputation SE using Rubin’s rules [20].
+To obtain SE of coefficients, we fitted the model on each of B = 25 bootstrap samples from each imputed dataset (a total of 500 fits). For each imputed dataset, we estimated the within-dataset SE of the coefficients using the SD of the coefficient estimates from the glm package in R across the 25 bootstrap samples. Again, we combined this with the between-dataset SD to get the overall SE.</t>
+  </si>
+  <si>
+    <t>Missing Data and Preprocessing
+Prior to model building and feature selection, we explored variable distributions and missing data mechanisms using STATA 14 (StataCorp, 2007). There were no missing data in the outcome variables indicating all behaviors captured by the surveillance system were classified and coded at time of data entry. Complete data were recorded for n = 25 predictors (27.5%). Missing data in the predictors ranged from 16.2% for the variable asking about exposure to domestic violence to 76% for the variables recording who the person lived with at the time of the index event. The high percent of missingness was most associated with the year of incident since it was missing data due to changes in questionnaire items. Imputation of missing data that was found to be missing completely at random (MCAR) or missing at random (MAR) was imputed using Classification and Regression Trees as part of the MICE package in R and using all available data (Buuren &amp; Groothuis-Oudshoorn, 2010). Prior to splitting the data, we removed any zero variance predictors and linear dependencies (correlation r ≥ .95). Reporting of methods and results followed the TRIPOD guidelines for predictive modeling (Collins, Reitsma, Altman, &amp; Moons, 2015).
+Modeling Approach
+We randomly split our dataset into a training and testing dataset using a two-thirds/one-third split, respectively. This resulted in training on n = 31 cases for the 6-month outcome, n = 44 cases for the 12-month outcome, and n = 65 cases for the 24-month outcome. The test dataset had n = 16, n = 23, and n = 33 cases for the 6-, 12- and 24-month data, respectively. We trained and tested five algorithmic approaches: logistic regression, regularized regression using ridge regression, the lasso and elastic net, and a decision tree classifier. We trained all models using repeated cross-validation with ten iterations, up sampling due to the unbalanced nature of our dataset, and selection of tuning parameter that has the lowest root mean squared error (RMSE) between predicted and observed values. Logistic regression benefits from simplicity of calculation and eventual implementation, but has been shown to be inferior in the domain of suicide risk prediction compared with nonparametric algorithms like random forests (Walsh, Ribeiro, &amp; Franklin, 2017, 2018). For penalized regression, we tuned lambda penalties for L1-regularization to generate the most parsimonious model selecting for the fewest predictors. Decision tree classifiers were selected due to their utility in guiding clinical decisions and only included predictor variables that were theoretically grounded and could be used by CMHS' in the field. For decision tree classifiers, we set tune length to 10 and used information gain as our criterion.
+Once models were trained, we evaluated their performance on our validation dataset. We compared our model performance based on several statistics: kappa, sensitivity, specificity, receiver operating (ROC) curves and their c-statistic, positive predictive value (PPV), and negative predictive value (NPV). Kappa compares the observe accuracy to accuracy due to random chance (expected accuracy) and is more useful in evaluating model performance than accuracy alone in unbalanced datasets. Sensitivity is the true positive rate or the ability of the model to correctly identify those who attempted. Specificity is the true negative rate or the ability of the model to correctly identify those who did not attempt. The c-statistic from the ROC curve provides an overall estimate about how accurate the test is with 0.5 representing no better than chance and 1 representing near-perfect accuracy. Confidence intervals for ROC Area Under the Curves (AUCs) were computed with 2,000 stratified bootstrap replicates. Positive predictive value is the percentage of those identified as cases that actually are cases, while NPV is the percentage of observations identified as controls (nonattempts) that are not attempts. Positive predictive value and NPV are particularly important as they tell us how good our model will be at identifying true cases and true controls in the future. To measure calibration, that is, whether model predictions reflected underlying prevalence of suicidality in this cohort, we also examined Brier scores (Rufibach, 2010), calibration slopes, and intercepts (Steyerberg, 2008).
+A challenge in suicide research is that PPV and NPV are both impacted by the underlying prevalence of the health issue. Thus with rare events, such as suicide attempt and death, PPV and NPV are often quite low (Belsher et al., 2019). Following recent work by Kessler et al. (2016), Walsh et al. (2018), and Simon et al. (2018), we also looked at risk concentration plots to examine whether cases had higher predicted probabilities than controls. We used the risk concentration plots to generate a cutoff score in our training data based on a sensitivity of 80% and 100%. We then calculated specificity, PPV, and NPV for these cutoff scores in our test data. These methods were selected, because our work is in a community setting, with low resources and high suicide burden, and we needed an operationalized model that would help guide case managers on where to direct extra effort and resources in their follow-up procedures. This would ensure that we would attend to all those who were likely to be cases, while balancing our sensitivity at accurately identifying noncases.</t>
+  </si>
+  <si>
+    <t>Descriptive statistics were calculated for demographic characteristics, types of abuse and neglect experienced by the youth, length of time in the program, risk level on both the MEGA♪ Risk Scale and JSORRAT-II, and sexual reoffense while in the program.
+ROC analysis was used to determine the prognostic utility of the tools and compare their performance in identifying level of risk and predicting sexual reoffense. ROC analysis is commonly used when assessing predictive ability of risk assessment tools allowing for the fact that youth have a low base rate of sexual offending, therefore only a small number of sexual recidivists (Powers-Sawyer &amp; Miner, 2009). The statistic “AUC” represents the probability that a randomly selected recidivist will score higher on the tool than a randomly selected nonrecidivist. Values at either end of the spectrum (0 or 1) demonstrate a complete separation between recidivists and nonrecidivists, while a value of .50 indicates the prediction is no better than chance (Duwe &amp; Freske, 2012). The DeJong method (DeLong, DeLong, &amp; Clarke-Pearson, 1988) was used to compare the differences between the AUCs of the MEGA♪ Risk Scale and JSORRAT-II. The DeJong method is a nonparametric approach for analyzing “areas under correlated ROC curves, by using the theory on generalized U-statistics to generate an estimated covariance matrix” (DeLong et al., 1988, p. 837). The method is helpful “when two or more empirical curves are constructed based on tests performed on the same individuals, statistical analysis on differences between curves must take into account the correlated nature of the data” (p. 837). Chi-square analyses were used to examine calibration.</t>
+  </si>
+  <si>
+    <t>For purposes of cross-validation, cases and controls for each respective disease were randomly divided into 10 approximately equal subgroups. Cross validation was performed by setting aside one subgroup for the purpose of testing, while using the remaining 9 subgroups (training set) to construct a model to test in the testing subset. This procedure was repeated 9 additional times with a different subgroup set aside for testing.
+Models were constructed using the list of LD filtered SNPs. The list was divided into a list of previously replicated SNPs and a list of non-replicated SNPs. Associations were calculated for each non-replicated SNP on disease outcome in the training set using an allelic association analysis in PLINK [Purcell et al., 2007]. Risk alleles for each non-replicated SNP were determined from the association test. These non-replicated SNPs were then ordered by increasing association P-value and broken into lists of the top k = 10 to the top k = 60,000 SNPs with increasing interval size as k increases for inclusion into the PRS. Replicated SNP scores (RSS) and PRS were constructed separately. Risk scores were calculated as the sum of the number of risk alleles an individual carried at each locus summed across all loci included in the list. This assumes an additive model for each known SNP with equal weight applied to each locus and ignores any interactions that may exist between SNPs. For each cross validation set, PLINK was used to calculate one risk score for the replicated SNPs and a separate risk scores for the polygenic SNPs. This procedure was continued repeatedly for increasing k until the top 60,000 SNPs showing the strongest evidence for association with cancer were included into the PRS.
+Unconditional logistic regression models were fit to the data in the training set with case status as the outcome and two predictor variables, normalized RSS and normalized PRS. Scores were normalized by subtracting the mean and dividing by the standard error. Models were fit for each cross-validation training set for each k. The same models and parameter estimates from the training sets were used to define predicted disease probability in the testing set. Estimates of the area under the receiver-operating characteristic curve (AUC) were obtained for training and testing sets from each of the 10 cross-validation sets. Results were averaged over the 10 cross-validation sets to determine a final estimated average AUC for the testing sets. Data manipulation and statistical analyses were carried out using R 2.8.0 (R Foundation for Statistical Computing, Vienna, Austria) and SAS 9.1 (SAS Institute Inc., Cary, NC) on a UNIX platform.</t>
+  </si>
+  <si>
+    <t>Patient characteristics of the MAASTRO cohort were compared to the UMCG training and validation cohorts by using a chi-squared test for categorical variables and independent sample t-test for normal distributed variables. Boxplots of raw values of radiomic features in the models (least-axis-length of lymph node (LALLN) and correlation of gray level co-occurrence matrix (Corre-GLCM)) were generated on UMCG and MAASTRO cohorts to compare the distribution of radiomic features.
+The prognostic scores were calculated using the following clinical model, radiomic model and combined model equations [13]:
+Prognostic score_Clinical model (1):
+2.08* Gender + 1.08 * T-stage + 0.85 * N-stage + 0.78 * WHO PS
+Prognostic score_Radiomic model (2):
+0.78* LALLN + 3.14 * Corre-GLCM
+Prognostic score_Combined model (3):
+1.88* Gender + 0.93 * T-stage + 0.91 * WHO PS + 0.71 * LALLN + 2.44 * Corre-GLCM
+In the models, Gender = 0 if female, 1 if male; T-stage = 0 if T1-T2, 1 if T3-T4; N-stage = 0 if N1, 1 if N2-N3; WHO PS = 0 if 0, 1 if 1–3; LALLN = raw value in centimeters; Corre-GLCM = raw value.
+Patients were divided into low-, intermediate- and high-risk groups by using the lower and upper quantile of the prognostic scores from the UMCG training cohort (Appendix A).
+Model discrimination and calibration
+The models’ discriminative power was assessed by Harrell’s concordance index (c-index). Kaplan-Meier curves were used to show the differences between different risk groups and were compared using log-rank tests. The Z-score test was used to compare the c-indexes.
+The model calibration was checked by following the standard test procedure proposed by Royston et al. [20]. The baseline cumulative hazard function H0(t) was described in the simplified look-up table in Appendix B. The predicted survival function of S(t,PS) = exp(−H0(t))exp(PS) was used to calculate the curve for each lymph node [20]. The expected curve in each group was determined by averaging the curves of all lymph nodes of that group. The expected and observed curves were superimposed to assess how well they fit.
+The model discrimination is considered preserved in the validation cohort, if the calibration slope β is not significantly different from 1.
+Two tailed p-values &lt; 0.05 were considered statistically significant. Statistical analysis was performed using the R software (version 3.2.1).</t>
+  </si>
+  <si>
+    <t>t-Tests, Mann-Whitney tests, and chi-square tests were performed to assess significant differences (P&lt;.05) between eligible respondents who were visited at home (n = 439) and eligible respondents who were not visited at home (n = 85), between participants with (n = 175) and without (n = 264) postural sway measurements, and between participants with (n = 399) and without (n = 40) pedometer measurements. Similar analyses were performed to assess differences in characteristics between respondents who reported no, one, or at least two falls during the 1-year follow-up.
+We examined the pattern of association between the continuous fall risk factors and recurrent falling in order to determine whether there was a threshold value or whether the variable should be treated continuously. The observed relationship between the fall risk factors and recurrent falling was non-linear. Therefore, all continuous variables were dichotomized (yes/no). The cut-off point for depression (CES-D⩾16) was chosen at a pre-established point [41]. For the other continuous variables, the risk gradients across deciles and quartiles were examined and the most optimal cut-off point was chosen, i.e. the quartile or decile that showed the strongest association with recurrent falls [44]. Because muscle strength is generally higher in men than in women, sex-specific cut-off points were taken.
+Receiver-Operator Characteristic (ROC) curves were constructed, to compare the predictive quality of the easily measurable (i.e., tandem stand, handgrip strength) and more sophisticated (i.e., postural sway, leg extension strength) measurements of balance and muscle strength. It was tested whether the area under the curve (AUC) of mediolateral sway and tandem stand, and of leg extension strength and handgrip strength were significantly different (P&lt;.05). The comparisons were made for those respondents who were assessed both on postural sway and tandem stand (n = 161), or both on leg extension and handgrip strength (n = 419). The sensitivity was defined as the percentage of recurrent fallers who were correctly identified. Specificity was defined as the percentage of nonrecurrent fallers that were correctly identified.
+To investigate the independent associations between the modifiable fall risk factors and recurrent falling, we performed analyses in four stages. First, it was tested whether there was significant effect modification (P&lt;.10). Second, univariate logistic regression was carried out. Third, multiple logistic regression was performed with adjustment for age and sex. The relationship between muscle strength and recurrent falling was also adjusted for body weight and body height [45], [46]. Fourth, additional adjustment was performed for those confounders that changed the beta at least 10% [44].</t>
+  </si>
+  <si>
+    <t>Baseline characteristics were presented as the mean ± SD for normally distributed continuous variables and as the median with inter-quartile ranges for continuous variables with a skewed distribution. Discrete variables were summarised by the number of subjects with percentages. To compare the baseline characteristics between the cohorts, we used Student's t test properly. Distribution of categorical variables was compared using the chi-square test. Survival analysis was performed using the Kaplan-Meier analysis, which was used to estimate the cumulative incidence rate of the HCC rate, according to the risk groups. To compare the prognostication power between the models, we conducted both discrimination and calibration performance. It was evaluated with the concordance (c)-index for the discrimination function and the Hosmer-Lemeshow test for the calibration function. The performances of the 6 previous models, which were CU-HCC, HCC-RESCUE, ADRESS-HCC, PAGE-B, mPAGE-B, and THRI, were evaluated and compared using the SNUBH cohort. Six prediction models were selected according to the characteristic of each cohort, which should include patients with potent antiviral treatment and some portion of patients with cirrhosis. The prognostic factors that were included in each model were as follows: CU-HCC6 (age, albumin, bilirubin, HBV DNA titre, and presence of cirrhosis), HCC-RESCUE7 (age, sex, and presence of cirrhosis), ADRESS-HCC8 (age, diabetes, race, aetiology of cirrhosis, sex, and hepatic function severity), PAGE-B5 (age, sex, and platelet), mPAGE-B9 (age, sex, platelet, and albumin), and THRI10 (age, sex, aetiology, and platelet). In the original studies, all the previous models established 2 cut-off values, which divide the subjects into 3 categories according to the risk stratification (low, intermediate, and high risk). Because enrolled patients in this study cohort had cirrhosis and none of the patients were in the low-risk group of each model, we evaluated and compared the model performance with a higher cut-off value for each model. The statistical analyses were performed using SPSS 22.0 (SPSS Inc., Chicago, IL, USA) and the SAS version 9.4 software (SAS Institute, Cary, NC, USA).</t>
+  </si>
+  <si>
+    <t>Standard descriptive statistics were reported including frequency and proportion as well as measures of central tendency. Bivariate analyses were conducted using chi-squared test of independence or Fisher’s exact test, where appropriate, to determine differences between groups. A Wilcoxon rank-sum test was used for all nonparametric continuous or interval data. A receiver operating characteristic (ROC) curve analysis was used to determine the predictive ability of ESR and CRP with respect to failure of 2-stage hip or knee reimplantation for PJI. Youden’s J statistic was used to determine the optimal cut point of ESR and CRP. Statistical significance was determined a priori at an alpha level of 0.05. All data underwent statistical analyses using SAS version 9.4 (SAS Institute, Cary, NC; http://www.sas.com/software/sas9).</t>
+  </si>
+  <si>
+    <t>Follow-up began from age at follow-up 2 attendance and ended at 1) diagnosis of invasive BC, 2) follow-up time reaching 10 years, 3) age 80 years (maximum age for estimating risk in BOADICEA), or 4) censor date of June 30, 2016, whichever came first. Expected risk for the subcohort was estimated by summing the percentage risk from outputs of IBIS or BOADICEA for participants in the subcohort and then dividing by the sampling fraction (0.22) used to select the subcohort. Death from causes other than BC was a competing risk, with no censoring applied at death from other causes in the main analysis.
+We compared the performance of the models up to 10-year risk in terms of discrimination and calibration. Calibration was assessed by comparing the number of expected cases (E) within the whole cohort with the number observed (O), where E was calculated as the number expected in the subcohort multiplied by the inverse of the sampling fraction. We calculated a robust 95% confidence interval (CI) for E/O by:
+EO±(Var(log(EO))−−−−−−−−−−−−−−√.
+Where Var(log(EO))=1O+Var(E−)E−2, E− is the mean expected cases in the subcohort, and Var(E−) is the finite sample variance of the mean expected cases from the subcohort.
+Model discrimination was assessed using a concordance statistic (C-statistic) (23) and plotting the receiver operating characteristic curve, accounting for incomplete follow-up, where 1 indicates perfect discrimination and 0.50 indicates discrimination no better than chance. We compared models (accounting for correlation between models) using the Wald test with inclusion of the following components: family history, lifestyle factors, and PRS sequentially.
+Model calibration and discrimination were also examined by categories of model-specific 10-year risk (quantiles), stratified by age (50-64 and 65 years and older, because women in the latter group can be eligible for universal health care in some countries) (24) and by whether the women had an affected first- or second-degree relative. We also examined model performance for a shorter period of risk (5 years). Sensitivity analyses included censoring at diagnosis of ductal carcinoma in situ during follow-up (6 cases), accounting for competing risk of death because of other causes (for IBIS; BOADICEA does not provide this option), and by applying updated Australian BC population incidence rates for BOADICEA that take into account changes between 2010 and 2015 (25). The heterogeneity of calibration across quantiles of risk was assessed using the Hosmer-Lemeshow test.
+We calculated the specificity of all risk models at fixed sensitivity levels based on the full model (family history, lifestyle factors, and PRS) at a threshold of 3.4% for 10-year BC risk (26,27). The 3.4% threshold corresponds to the 10-year risk of an average 60-year-old woman and is approximately double the 5-year risk of 1.67% that has been used to define high risk for the purpose of eligibility in some chemoprevention trials. We calculated the mean risk stratification (MRS), comparing models with and without PRS (28). Analyses were performed using Stata (version 16) and R (version 3.5.1).</t>
+  </si>
+  <si>
+    <t>For hematologic and GI toxicity during IMRT, logistic regression analysis was conducted to identify significant clinical and dosimetric variables and to build predictive models. For this analysis, clinical variables considered included dichotomized age (≤ 59 and &gt; 59 years), gender, concurrent chemotherapy regimen, cycles of MMC (0/1 vs. 2) and the American Joint Committee on Cancer T stage and N stage, as continuous variables. Dose-volume parameters for pelvic bones and bowel were extracted for modeling using our in-house software tools: CERR (Computational Environment for Radiotherapy Research) and DREES (Dose Response Explorer System) [Citation11,Citation12]. The risk of toxicity was given by:
+where NTCP denotes normal tissue complication probability and Y represents linear regression with selected variables.
+In order to obtain an unbiased estimate of the generalized performance of each model, we performed a 10-fold cross validation (CV). At each iteration of the 10-fold CV, a nested leave-one-out CV was performed for model selection, and the models most frequently observed were chosen as NTCP models for hematologic and GI toxicities. The 10-fold CV was repeated 50 times, and the model performance was averaged. To evaluate the predictive models generated, the area under the receiver operating characteristic (ROC) curve (AUC) and Spearman's rank correlation coefficient (Rs) metrics were employed. For those toxicities where predictive models were sufficiently strong, we suggest radiation dose or volume constraints. To find the best cut-offs of dosimetric variables, the ROC curve was used such that the summation of sensitivity and specificity was maximized. In addition, the goodness-of-fit of these models was evaluated by using R-squared (R2) between the predicted incidence of hematologic and GI toxicity, calculated from the predictive models, and the actuarial incidence in the cohort. Fisher's exact test was used for comparison of categorical variables. A generalized estimating equation (GEE) approach was used for modeling the change of toxicity over time.</t>
+  </si>
+  <si>
+    <t>We use the receiver operating characteristic curves (ROCs) and the areas under the ROC curves (AUCs) to compare the performance of ASGARD with those of the other two pipelines, as well as bulk methods. Since these pipelines/methods report both drugs and compounds, we let ASGARD report both drugs and compounds in the comparisons with other pipelines/methods. ROCs and AUCs are calculated for each pipeline using the pROC package34. In ROC and AUC estimation, we regarded FDA-approved drugs and compounds used in advanced clinical trials or have been proven effective in animal models as positive cases (Supplementary Table 1), and all other drugs as negative cases. To identify drugs and compounds used in advanced clinical trials or have been proven effective in animal models, we used three databases that are ClinicalTrials.gov, PubMed, and PubChem, and all the drugs and compounds we found are listed in Supplementary Table 1.
+We determined the need to assess the robustness of the three pipelines on different (1) sizes, (2) similarities, and (3) unbalances of single-cell populations. For (1), the Bootstrapping method in R35 generated simulation data of different sizes by randomly drawing the same number of disease and normal cells from GSE123926 and GSE113197. For (2), additional simulation data are generated by adjusting the differential gene expression levels from 20% to 90% of the original differential levels of the single-cell cluster, based on GSE123926 and GSE113197. For (3), simulation data is generated by randomly drawing 5000 cells with diseased cell proportions ranging from 20% to 90%, thereby yielding unbalanced populations.</t>
+  </si>
+  <si>
+    <t>Descriptive analyses were performed to characterize the distributions of various variables in our study population with respect to encountered adverse events. Pearson's χ2 test was used for binary and categorical variables, and Student's t-test for continuous variables to compare differences in the positive and negative outcomes groups. To develop the risk scores and test their validity, subjects from our study population were randomly assigned to either a derivation subset or a validation subset using the proc surveyselect procedure in SAS software v 9.4. Since DM has been reported as a risk factor for TB and adverse TB outcomes in some studies [13–21], we used stratified random sampling with a DM proportion of 25·2% to keep the proportion of DM identical to that in the total sample [22]. The derivation dataset had 4216 observations and the validation dataset had 4215 observations with 0·50 probability of selection.
+Univariable (simple) logistic regression was used with the derivation subset to determine the relationship of each independent variable for each of the selected adverse events. For the multiple logistic regression model building, we selected variables with clinical significance and all the predictors with P ⩽ 0·25 at the univariable level. Then we identified the variables with significant independent predictive value (P ⩽ 0·1) in the multiple logistic regression model using Hosmer–Lemeshow model building criteria [23], and checked for linearity in the logit of continuous variables and for significant interaction terms. We also assessed goodness of fit and stability of the model. Then we derived risk scores based on these variables and tested them initially in the derivation subset. The modified risk scores were developed using the sum of the weighted risk factors identified in the final models. Weights were assigned to each positive and negative predictor based on the magnitude of the odds ratio (OR) for each variable for easier interpretation. The β-coefficients (or log of the ORs) were used to develop weighted score for one of our models (details below) where β-coefficients were rounded to the nearest 10th and then multiplied by 10. For categorical variables, a score was assigned to each category and we accounted for that when calculating the range of potential risk scores since patients can fall in only one of the categories. Finally, the precision of the best prediction methods that were developed for each adverse event with data from the derivation subset were tested among subjects in the validation subset. For this, we conducted logistic regression models entering each patient's risk score as the independent variable for each of the adverse events of interest. We also tested if the rate of the adverse events increases with the increasing risk scores. Finally based on sensitivity and specificity analysis, area under the curve (AUROC), and aiming to maximally reach our targeted population, we developed cut-off points for all constructed modified risk scores using the validation dataset. All statistical analyses were conducted using STATA 14 [24] and SAS 9.4 [25].</t>
+  </si>
+  <si>
+    <t>In the descriptive analysis, quantitative variables were expressed as mean ± standard deviation. Discrete variables are presented as number of cases and percentages. Sensitivity and specificity were calculated using standard procedures. Diagnostic capacity was assessed by positive (sensitivity/1-specificity) and negative (1-sensitivity/specificity) likelihood ratios, and pathologies that required treatment or disqualification of sport were determined by the area under the curve. All data were analysed using the SPSS statistical package (version 19, SPSS Inc., Chicago, New York, USA).</t>
+  </si>
+  <si>
+    <t>The age range for which DIABSCORE initially showed the highest safety levels was 18–54 years in the Spanish population. In our study (n = 225), the participants aged 18–54 years were only 138. Despite the small size, we validated DIABSCORE in both age ranges (S1 File).
+The continuous variables were summarized by means ± standard deviations and the categorical variables as proportions (%) with confidence interval of 95%. For independent samples when two means were compared, Student's test was used. If the variables were not normal, the Mann-Whitney U test was used. Pearson's Chi Square was used to compare proportions.
+ROC curves were plotted using DIABSCORE as a contrast variable, with undiagnosed T2D or prediabetes as state variables. The areas under the curve (AUC) were evaluated and the cut-off points were obtained. The optimal cut-off value of DIABSCORE for screening of T2D and prediabetes was extrapolated and their predictive values were calculated.
+The Open-Epi application (http://www.openepi.com) was used to compute the prevalences odds ratios, and to compare the excess risk of T2D or prediabetes among participants exposed and not exposed to values equal or greater than the cut-off point of the screening variable. The analyses were carried out with SPSS software, version 21.0.</t>
+  </si>
+  <si>
+    <t>Data from both eyes were collected from charts, but only the value from the worst eye was taken into consideration for statistical purposes. Statistical analysis was performed with computer software (IBM SPSS Statistics for Windows, Version 20.0; Armonk, NY, USA) and MedCalc 5.0 (MedCalc Inc., Ostend, Belgium). All data were expressed as mean ± SD and median (min value; max value) (95% confidence interval for the median).
+Differences between groups were evaluated by Mann-Whitney test for independent samples. Each parameter was analysed for sensitivity, specificity, area under the receiver-operating characteristics (ROC) curves (AUC, ranging 0–1), likelihood ratio, calculated comparing SS vs. not-SS DE patients. The prevalence of the SS-I was calculated having as a reference the population included in the present study. The relationship between AUC and the diagnostic accuracy was estimated as follows: 0.9–1.0 excellent, 0.8–0.9 very good, 0.7–0.8 good, 0.6–0.7 sufficient, 0.5–0.6 poor and &lt; 0.5 test not useful.
+Chi-square and multivariate logistic forward regression analysis were used to assess the association between demographic, ocular and blood-related variables and SS vs. not-SS DE diagnosis. Risk for primary Sjogren's syndrome (pSS) diagnosis was also estimated by odds ratio (OR) with 95% confidence intervals that independently predicted the disease. Data were considered to be statistically significant if P &lt; 0.05.</t>
+  </si>
+  <si>
+    <t>We summarized categorical variables with counts and percentages and continuous measures with medians, interquartile ranges (IQRs), means, and standard deviations. For each CBC parameter analyzed, we reported sensitivity, specificity, positive predictive value, and negative predictive value for the commonly used thresholds. We also analyzed likelihood ratios with 95% confidence intervals. We constructed receiver operating characteristic (ROC) curves and determined an optimal cutoff value for each CBC parameter through minimizing the sensitivity, specificity coordinate pair from the point (1,1), also known as the Euclidean method.29,30 We calculated areas under the ROC curves (AUC), and based on prior work, we defined AUCs of less than 0.7 as having poor discriminatory value; AUCs of 0.7 to 0.8 as minimally accurate; AUCs of 0.8 to 0.9 as having good accuracy; and AUCs of greater than 0.9 as having excellent accuracy.17 We used SAS, version 9.4 software (SAS Institute) for analyses. P values less than .05 were considered significant, and all tests were 2-sided.</t>
+  </si>
+  <si>
+    <t>Data were tabulated, and statistical analyses were performed using SPSS software version 25.0 (IBM, Chicago, IL, USA).
+2.4.1. Descriptive Statistics Continuous variables are presented as means and standard deviations. Categorical variables are presented as frequencies and percentages.
+2.4.2. Explanatory Statistics—Univariate Analysis The associations between hypertension and independent variables were examined with Pearson Chi-Square test or likelihood ratio test (for categorical parameters), and with a non-paired t-test for independent samples (for continuous variables). The assessment of normal distributions of all the continuous parameters was performed and revealed a lack of normal distribution. Therefore, we also used the non-parametric Mann–Whitney test, which does not require the assumption of normal distributions to analyze the association between hypertension diagnosis and the independent continuous variables. Due to the large sample size, and since there were no differences in the statistical significance between the t-test results and the Mann–Whitney test results, we present the t-test results for all the correlations between hypertension diagnosis and the independent continuous parameters in this study.
+2.4.3. Calculations of Odds Ratios (OR) OR were calculated for the continuous variables using linear regression analysis, and for categorical variables, the calculation was performed using binary logistic regression analysis.
+2.4.4. Addressing the Large Sample Size and Possible Confounders Following the univariate analyses, a multivariate analysis was performed using multivariate logistic regression analysis for hypertension diagnosis as the dependent variable. The criteria for independent variables to enter the multivariate analysis were as follows:
+(1)
+A statistically significant association with hypertension diagnosis in the univariate analysis. Due to the large sample size, a p value of &lt;0.01 (2-tailed) in the univariate analysis was considered statistically significant to enter the multivariate analysis;
+(2)
+Multicollinearity tests—before entering a statistically significant variable in the univariate analysis into the multivariate model, the collinearity of the independent variables was examined. If two or more variables were found highly collinear, only one of them was included in the model, and it was decided by the context which of the variables will be included in the analysis. A p value of &lt;0.01 level (2-tailed) was also considered significant for the multicollinearity tests. The multicollinearity tests between the variables comprising the DOME repository have been previously published [24]. A linear regression analysis was performed to assess collinearity between the independent variables. The variance inflation factors (VIFs), which are 1/Tolerance, are presented in the linear regression analysis. The results ruled out collinearity (VIF &lt; 2.5). Although values of VIF below 10 are usually regarded as indicating multicollinearity, in weaker models values above 2.5 may be a cause for concern. Therefore, the cutoff of VIF in the present study was 2.5.
+(3)
+Multivariate analysis—Finally, the multivariate logistic regression analysis was used as a statistical model, by including in the analysis simultaneously all the variables fulfilling the criteria as described above. Due to the large sample size, a p value of &lt;0.01 (2-tailed) was also considered statistically significant in the multivariate analysis.</t>
+  </si>
+  <si>
+    <t>Continuous variables are expressed as the mean ± standard deviation or interquartile range. Categorical variables are expressed as frequencies (percentages). For the comparison of patient baseline data between the two cohort groups, continuous variables were evaluated using the Mann-Whitney U test, and categorical variables were evaluated using the χ2 test.
+Statistical analysis was conducted using SPSS software (version 19.0; IBM, Armonk, NY, USA). All statistical tests were two-sided. Statistical significance was set at p &lt; 0.05. All ANN models were constructed using MATLAB software (version 2011b; The MathWorks Inc., Natick, MA, USA), whereas R (version 3.4.1) open source software (R Foundation for Statistical Computing; www.Rproject.org) was used for validation.</t>
+  </si>
+  <si>
+    <t>Demographic differences between the TPTL and no-TPTL outcome groups were compared with the use of chi-square tests for categoric variables. Continuous variables were tested for normality with the Shapiro–Wilk test and then compared with two-sample t tests or Mann–Whitney U tests. Two types of analysis were performed to compare the primary exposure and outcome. A chi-square analysis was used when USG was categorized into dehydrated or not and then compared with TPTL. Because of the limited post hoc power of the chi-square analysis, a receiver operating characteristic (ROC) analysis was used to compare the outcome of TPTL to USG as a continuous variable.</t>
+  </si>
+  <si>
+    <t>Baseline characteristics of the patients are shown as mean (SD) or as number (%). One-way analysis of variance (ANOVA) for continuous variables and χ2 tests for categorical variables were used for comparisons between the three groups (0, 1, ≥2) classified by the pre-operative qSOFA score or the three groups (1, 2, ≥3) classified by the pre-operative ASA physical status.
+We first selected potential covariates that might have an association with postoperative 30-day mortality for inclusion in the logistic regression model with the independent variables (pre-operative qSOFA scores, ASA physical status and CCI) in this study. Next, all selected covariates were included in the univariable and final multivariable logistic regression analyses (model 1). In addition, we created another multivariable logistic regression model to investigate the association between the combination of pre-operative qSOFA scores and the ASA physical status or CCI and 30-day mortality (model 2). We confirmed that there was no multicollinearity among variables in the final multivariable models (all variance inflation factors were &lt;2.0 in model 1 and model 2). The Hosmer–Lemeshow test was used to confirm goodness of fit of the final multivariable logistic regression models.
+To assess the predictive power of the qSOFA score for 30-day mortality, a receiver-operating characteristic (ROC) curve analysis was performed. IBM SPSS version 24.0 (IBM Corp., Armonk, New York, USA) was used for all statistical analyses, and P value less than 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Selection Criteria
+Articles were included on the basis of passing all the selection criteria:
+•
+A lung cancer prediction model was proposed or validated using a human population.
+•
+The model did not only incorporate patients already targeted for primary care and lung cancer screening using symptomatic predictors.
+•
+The full article could be obtained in English.
+For articles that solely validated existing prediction models there were 2 additional criteria to be considered:
+•
+A case-control or cohort study was used in a validation study of the model.
+•
+The article provided statistical results that assessed the models' predictive power. Acceptable measures of model performance were expected versus observed incidence, Hosmer–Lemeshow test, area under the receiver operating characteristic (AUROC), sensitivity, specificity, net-benefit ratio, positive predictive power (PPV), negative predictive power (NPV), and the net-reclassification index.
+Using the listed criteria, search records were assessed for eligibility at title and abstract levels. Potentially relevant articles were then examined at the full text stage, if they could be obtained in English, and were independently verified by a second reviewer to collect the correct, relevant articles before being included in the systematic review. The first study selection at the title and abstract stage was undertaken by a single reviewer as part of an academic exercise, but the second full article stage was confirmed by a second reviewer to have confidence in the review.
+Data Extraction
+The data extraction was undertaken by a single reviewer and focused on the characteristics of each model including the form of statistical model (eg, survival logistic regression), risk factors, the time period over which risk was calculated, and restrictions applied to the model. All performance results were recorded, including calibration, discrimination, and sensitivity and specificity rates for specific risk thresholds. The data extraction also reported if the validation results had been tested in internal or external data sets. In internal validations, “models can be expected to perform optimistically in the data sample from which they are developed”7 compared with external validations. In this review it will be reported if the model formula was presented in the article so it can be applied in future validation studies; it is important this is provided when presenting a model.7 Tables are presented to provide a summary of the populations used to devise and test the models including any restrictions that were in place, these can allow an informed decision of the epidemiological models' quality and performance. The quality is assessed according to the size and restrictions of the study, which can influence the weight of the model and results for validation studies. We also provide a collection of all statistical results for the clinical assessment models. Assessment of the results in published validations can identify if a model would be successful as a decision tool. The model could assist health care providers with guidelines12 for selective screening trials and improve the cost-effectiveness in identification of lung cancer cases.
+Validation Tests
+A thorough validation should consider the calibration, discrimination, and prediction rules of a model. The calibration and discrimination are used to evaluate the overall model performance. The discrimination is often reported in validations and allows a good comparison between models. The prediction rules should also be considered because they provide guidelines at which a risk threshold a model should be applied. The sensitivity, specificity, PPV, NPV, and net benefit ratio allow a detailed analysis of the prediction rules.</t>
+  </si>
+  <si>
+    <t>The Kaplan-Meier method was used tocalculate survival probabilities for up to 5 years after re-OLT. Follow-up was censored at 5 years for patients whosurvived at least that long. Survival between subgroupswas compared using the log-rank test. Among patientswho underwent three OLT, follow-up was censored at thetime of the third OLT. The Cox proportional hazardsmodel was used to assess the CTP and MELD scores and other potential predictors of mortality after re-OLT. Theunivariate results were reported as hazard ratios (HR)with 95% CI. The bivariate Cox model was applied sub-sequently for the most significant predictor identifiedfrom the univariate model to determine the impact of theother factors on mortality after re-OLT. If the standardmethod failed due to infinite estimates, the Firth-Coxmethod was used.21Receiver operating characteristics(ROC) curves22were generated for the CTP and MELDscores using 1-year mortality after re-OLT as the endpoint. The area under the curve (AUC) generated by con-nected ROC curves with 95% CI was used as a measure ofthe ability of each model to predict 1-year mortality afterre-OLT and was compared by nonparametric methods.23An independent cohort of 49 patients from the Uni-versity of California, Los Angeles, was used to validate ourfindings in terms of the impact of the CTP and MELDscores on survival after re-OLT. These were consecutivepatients who underwent re-OLT between January 1995and August 2002 for chronic graft failure (median, 11.9months from first OLT; range, 3.5-178 months). TheROC curves with AUC22were generated for CTP andMELD scores using 1-year mortality after re-OLT as theend point. Survival function based on CTP and MELDscores was compared using the log-rank test. The institu-tional review board from both institutions approved thecurrent study.</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed using the Statistical Package for the Social Sciences (SPSS®) version 24.0 software (SPSS Inc., IBM Corp., Armonk, NY). Evaluation of data distribution, using the Kolmogorov–Smirnov test, showed a non-normal distribution of all the variables included in the study. Differences between groups of patients in medians for quantitative variables and differences in distributions for categorical variables were tested with the Mann–Whitney test and chi-squared test, respectively. Univariate and multivariate binary logistic regression were used to evaluate predictors of PCa and high-grade PCa. Receiver operator characteristic curves were used to evaluate the accuracy of iXip in the prediction of cancer and high-grade cancer.</t>
+  </si>
+  <si>
+    <t>Statistical  analysis  was performed using  SAS  version  8.0  (SAS  Institute  Inc.,  Cary,  NC).  Factors  con-tributing  to  the development of  ARDS  were  deter-mined using univariate and stepwise logistic regression as  well  as  odds  ratios.  The discriminative ability o frisk  factors  was examined using receiver operating characteristic (ROC) curves.  Here discrimination is the ability of the model-based predicted risk to distinguish ARDS patients from  non-ARDS patients.  To measure discrimination the  area  under  the ROC  curve  was computed and compared for  univariate predictors as  well  as  predictors  made  from  multi-variate  models.  The  area  under  the  ROC  curve  may alternatively be  thought of as  the  probability  that  arandomly  chosen  A1U)S  patient  will  have  a  higher predicted probability of ARDS  than  a randomly  chosen  non-ARDS  patient.  A nonparametric method  described by Hanley and McNeiHo was used to calculate the  area  under  the  ROC  curve  using  the predicted probability of contracting ARDS.  The  area  under  theROC curve is bounded by 0.50 and  I;  better discriminating model-predicted risks have a greater area under the  curve  than  more poorly discriminating ones. Dichotomous variables  were  also compared using Chi  square,  and continuous variables  were compared using Student's t-test. Significance is  defined  as P&lt;0.05.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characteristics of the participants were summarized using mean and SD for continuous variables and counts and proportions for categorical variables. Differences between participants with HbA1c levels lower or higher than 6.0% were compared using the t test for continuous variables and the chi-square for categorical variables. Correlation between survey score and HbA1c level was measured using the Pearson correlation coefficient. The 2013 Canadian Diabetes Association (CDA) clinical practice guidelines were used to define categories of no diabetes (HbA1c level &lt;6.0%), elevated blood glucose (HbA1c level ≥6.0%), and diabetes (HbA1c level ≥6.5%) [33]. The CANRISK groups respondents into three risk categories: low (scores 0–20), moderate (scores 21–32), and high (scores 33–91) [26]. The Canadian Task Force also groups respondents to the FINDRISC survey into three risk categories: low to moderate (scores 0–15), high (scores 16–20), and very high (scores 21–26) [26], [34].
+The CANRISK categories of medium or high risk and the FINDRISC categories of high or very high risk were evaluated for the ability to identify seniors with an HbA1c level of 6.0% or higher and an HbA1c level of 6.5% or higher, using the area under the receiver- operating characteristic (AUROC) curve method and likelihood ratio [35], [36]. The AUROC curve method has been used for several decades to measure how well medical tests discriminate between patients with and without a condition of interest [36]. For example, several previous studies measuring the performance of the FINDRISC survey have used the AUROC curve method [27], [28], [37], [38].
+Performances of the CANRISK and FINDRISC surveys were also evaluated in three preplanned secondary analyses. First, we used the American Diabetes Association (ADA) threshold for prediabetes (HbA1c level ≥5.7%) to identify participants with elevated blood glucose level [39]. Second, we evaluated the ability to identify people with an HbA1c level of 6.0% or higher in age-stratified subgroups. We stratified participants into those younger and older than 78 years because previous validation studies of these surveys have enrolled participants aged 65 years and younger and 65 to 78 years [26], [27], [28], [37], [40]. Third, we repeated the stratified analysis by separating participants according to sex.
+Stata version 13.1 (StataCorp, College Station, TX) was used to complete all statistical analyses.
+</t>
+  </si>
+  <si>
+    <t>Among the screened patients, genotyping data were already available for 554 patients. Of these, 104 patients were genotyped at the Wellcome Trust Sanger Institute using the Illumina Human660-Quad chip.5 248 additional cases were genotyped using the Illumina OmniExpress array at OSR11; the remaining 202 patients were genotyped using Illumina HumanOmni2.5 arrays.
+A cohort of 258 Italian healthy controls (HC) recruited at OSR MS center were also included in the analyses. These individuals did not have any degree of kinship with the patients with MS enrolled in the study and they did not have a known familial history for MS. They were genotyped using the Illumina OmniExpress array at OSR.12
+The wGRS was calculated as previously described,11 combining the odds ratio of 106 non–human leukocyte antigen (HLA) MS variants (table e-1 at Neurology.org/nn)4,5 and one tagging single nucleotide polymorphism (SNP) for the HLA-DRB1*1501 allele. Quality controls were performed as described elsewhere.5,12 Whenever a specific SNP was absent in one of the arrays, the best available proxy according to HapMap release 24 was considered for the analyses; in this case, the r2 value between the original and proxy SNP was included in the wGRS calculation. The score was also calculated after the exclusion of the HLA polymorphism in order to evaluate the contribution of non-HLA risk variants (wGRS–non-HLA). For the HLA-DRB1*1501 allele, since the tagging SNP rs313538813 was not available on used arrays, the best available proxy (rs9271366) was chosen (r2 = 0.974, D' = 1.0 according to HapMap release 24). Patients with genotypes with more than 10% missing were excluded; patients with genotypes with less than 10% missing were included in the analysis, setting the missing SNPs as heterozygous.
+Receiver operating characteristic (ROC) curves were computed to assess the wGRS performance in discriminating between cases and controls, and the area under the curve (AUC) was calculated. Differences in the predictive performance of the genetic models were tested using the DeLong test for correlated ROC curves in the R package “pROC.” Statistical analyses were performed using the nonparametric Mann-Whitney test and the Pearson correlation implemented in GraphPad software v.5.</t>
+  </si>
+  <si>
+    <t>Continuous variables were reported as median and range, categorical variables were reported as frequency and percentage, and confidence intervals (CIs) were reported at the 95% level. Comparisons between patients with and without baseline biochemical remission were performed using Mann‐Whitney U tests for continuous variables and Fisher’s exact tests for nominal variables.
+Correlations between all surrogate markers (LS, APRI, ELF, Model for End‐Stage Liver Disease [MELD] score, and international normalized ratio [INR]) with median cT1 and cT1 IQR measured at baseline and follow‐up were then assessed using Spearman’s correlation coefficient (r S). Given the significant time interval with intervening therapeutic treatment, the amount of historic histologic fibrosis was unlikely to reflect the current clinical situation and thus was not included in the statistical analysis for this study.
+Analyses to predict failure to maintain remission occurring during the follow‐up period were then performed after excluding those patients not in biochemical remission at baseline. Overall predictive accuracy of the individual surrogate biomarkers collected at baseline (cT1, cT1 IQR, LS, and ELF) to discriminate future loss of biochemical remission was estimated using the area under the receiver operating characteristic curves (AUCs). Markers found to be significantly predictive were then further assessed using univariable binary logistic regression models to quantify the relationships with failure to maintain remission.
+AUCs were also used to investigate the ability of the change over time in the biomarkers to discriminate between patients that did and did not fail to maintain remission during follow‐up. Statistical analyses were performed using R version 3.5.3,( 32 ) with P &lt; 0.05 deemed to be indicative of statistical significance throughout.</t>
+  </si>
+  <si>
+    <t>Statistical analyses were performed using R (v3.5.3, R Foundation for Statistical Computing). All tests were two-tailed. A P value &lt; .05 was deemed significant. Figure 1 shows the study flowchart.</t>
+  </si>
+  <si>
+    <t>Our technique offers the important advantage that it can reduce the dimensionality of the feature space of the classification problem by assigning a classifier to each feature separately. Considering only one feature at a time greatly reduces the complexity of the problem by avoiding the need to estimate multidimensional probability density functions (PDFs) of the feature space. Accurately estimating such multidimensional PDFs likely requires many more observations than a typical medical data set contains. Other benefits of decision fusion are that it is robust in noisy data43 is not overly sensitive to the likelihood ratio threshold values,42 and can handle missing data values.44 Our decision-fusion technique can also be tuned to maximize arbitrary performance metrics (as described later in Sec. II C) that may be more clinically relevant, unlike more traditional classification algorithms that minimize mean-squared error.
+1. Detection theory approach - likelihood ratio Although decision fusion combines binary decisions regardless of how those decisions were made, it is still important to choose the right initial classifiers in order to pass as much information to the decision fuser as possible. In our algorithm, we used the likelihood ratio as the initial classifier and applied a threshold to generate the binary decisions on each feature. Previous work has shown the likelihood ratio to be an excellent classifier for breast cancer mass lesion data.45,46
+According to decision theory, the likelihood ratio is the optimal detector to determine the presence or absence of a signal in noise.47 For this study, the signal to be detected was the potential malignancy of a breast lesion. The null hypothesis (H0) was that the signal (malignancy) is not present in the noisy features, while the alternative hypothesis (H1) was that the signal is present:
+H0:XH1:X=N,=S+N.
+(1)
+Sources of noise in the features included anatomical noise inherent in the mammogram or sonogram, quantum noise in the acquisition of the mammogram or sonogram, digitization noise and artifacts for data set C, and ambiguities in the mammogram reading process for the radiologist-interpreted findings in both Data sets C and M.
+The likelihood ratio is the probability of the features under the malignant case divided by the probability of the features under the benign case:
+λfeatures(X)=P(X∣H1)P(X∣H0),
+(2)
+where P(X|H1) is the PDF of the observation data X given that the signal is present, and P(X|H0) is the PDF of the data X given that the signal is not present. The likelihood ratio is optimal under the assumption that the PDFs accurately reflect the true densities. We estimated the one-dimensional PDFs of the features with histograms. We used Scott's rule to determine the optimal histogram bin width,45
+h = 3.5σn−1∕3, 	(3)
+where h is the bin width, σ is the standard deviation, and n is the number of observations. The interval of two standard deviations around the mean, [μ −2σ,μ+2σ], was then subdivided by the bin width, h. We assigned the values falling outside this interval to the extreme left or right bins. Next, we applied a threshold value, τ, to the likelihood ratio to produce a binary decision about the presence of the signal.
+u={10ifλfeature≥τifλfeature&lt;τ.
+(4)
+2. Fusing the binary decisions For the signal-plus-noise hypothesis H1, the probability of detecting an existing signal is P(u=1|H1)= Pd and of missing it is P(u=0|H1)=1−Pd. For the noise-only hypothesis H0, the probability of false detection is P(u=1|H0)= Pf and of correctly rejecting the missing signal is P(u=0|H0)=1 −Pf. Using these probabilities, the likelihood ratio value of a binary decision variable has a simple form, as shown in Eq. (5):
+λdecision(u)=P(u∣H1)P(u∣H0)={PdPf1−Pd1−Pfifu=1ifu=0.
+(5)
+We can then use the likelihood ratios of the individual local decision variables to calculate the joint likelihood ratio of the set of decision variables. Assuming that the local decision variables are statistically independent, the likelihood ratio of the fused classifier is a product of the likelihood ratios of the individual local decisions.
+λfusion(u1,…,up)=∏pi=1λdecision(ui)=∏pi=1P(ui∣H1)P(ui∣H0)=∏pi=1(PdiPfi)ui(1−Pdi1−Pfi)1−ui.
+(6)
+Note that we assume statistical independence of only the local binary decisions, not of the sensitivity, false-positive rate, or even the features on which the local decisions were made.
+In our decision-fusion theory approach, we have made the important assumption that all the local decisions are statistically independent. While this appears to be a very strong assumption, using it in decision fusion often does not lower classification performance substantially below the performance of the optimal decision fusion processor for correlated decisions. Although we can construct an optimal correlated decision-fusion processor with known decision correlations,48 it is difficult to estimate the correlation structure of the decisions accurately, especially given many decisions but only few observations. However, even with correlated decisions, the simplifying assumption of independent decisions often does not lower decision fusion performance. Liao et al.42 have shown that, under certain conditions for the case of fusing two correlated decisions, the independent fusion processor exactly matched the performance of the optimal correlated decision fusion processor. Even in many situations when the optimality conditions were not kept, the degradation of the fusion performance was not significant.42 Another benefit of the independent local decisions assumption is that decision fusion can usually recover from weak signals and correlated features given enough decisions to fuse.43 Because we have a large number of local decisions by setting a separate local decision for each feature, our algorithm takes advantage of this performance benefit.
+C. Classifier evaluation and figures of merit
+We used the receiver operating characteristic (ROC) curve to capture the classification performance of our decision-fusion algorithm. Assuming independent local decisions, the PDFs of the decision-fusion likelihood ratio have a similar product form.42
+P(λfusion∣H1)P(λfusion∣H0)=∏pi=1(Pdi)ui(1−Pdi)1−ui,=∏pi=1(Pfi)ui(1−Pfi)1−ui.
+(7)
+Using the fusion likelihood ratio value as a classification decision variable, the probabilities of detection and false alarm are calculated as follows:
+Pdfusion(β)Pffusion(β)=Σλfusion≥βP(λ=λfusion∣H1),=Σλfusion≥βP(λ=λfusion∣H0),
+(8)
+where β is a threshold on λfusion that determines the operating point on the ROC curve. By varying the value of the threshold β, these Pdfusion(β) and Pffusion(β) values trace the entire decision-fusion ROC curve.
+One can use the ROC curve to quantify classification performance by calculating summary metrics of the curve. Certain performance metrics have more significance in a clinical setting than others, especially when high sensitivity must be maintained. This study used two clinically interesting summary metrics of the ROC curve: The area under the curve (AUC), and the normalized partial area under the curve (pAUC) above a certain sensitivity value.49 For this study, we set the sensitivity value true positive fraction (TPF) =0.90 for pAUC to reflect that diagnosing breast cancer at high sensitivities is clinically imperative. We used the nonparametric bootstrap method 50 to measure the means and variances of the AUC and pAUC values as well as to compare metrics from two models for statistical significance.
+D. Genetic algorithm search for the optimal threshold set
+The selection of the likelihood-ratio threshold values is important to maximize performance of the fused classifier. Threshold values very far from the best values often lowered the fused classifier's performance to near chance levels. A genetic algorithm searched over the likelihood-ratio threshold values for each feature to select a threshold set that maximized the desired performance metric or figure of merit (FOM),
+τoptimal = argmax FOM[λfusion(u; τ)], 	(9)
+where the FOM is either AUC or pAUC, u is the set of local decisions, and τ is the set of feature-level likelihood-ratio thresholds. The fitness function of the genetic algorithm was set to the FOM in order to maximize the FOM value. We optimized for cross-validation performance the following genetic algorithm parameters: The number of generations, population size, and rates of selection, crossover, and mutation.
+E. Decision fusion with cross-validation
+We used k-fold cross-validation (k=100) to estimate the ability of the classifiers to generalize on our data sets. For each fold, a new model was developed, i.e., the likelihood ratio was formed on the k−1 subsets (99% of cases) used as training samples, and the genetic algorithm searched over the thresholds to maximize the performance metric on these training samples. Once the best thresholds had been found on the training set, they were then used to evaluate the algorithm on the one subset (1% of cases) withheld for validation. The resulting local decisions were then combined into the fused validation likelihood ratio λtest,fusion, as in Eq. (6). The process was then repeated k times by withholding a different subset for validation, such that all cases are used for training and validation while simultaneously ensuring independence between those subsets.
+Compiling all λtest,fusion values at the end of the cross-validation computations created a distribution of λtest,fusion(X) of the test cases. We constructed an ROC curve from the λtest,fusion(X) values, as in Eq. (8), in order to measure the classification performance of the decision-fusion classifier with k-fold cross-validation.
+F. Using decision fusion in a diagnostic setting
+Once the model has been fully trained and validated, it can similarly be applied to new cases by setting all of the existing data to be the training data and applying the new clinical case as a new validation case. The decision-fusion algorithm would recommend to the physician either a biopsy with a malignant classification or short-term follow-up with a very likely benign classification.
+G. Other classifiers: Artificial neural network and linear discriminant
+We compared the classification performance of the decision fusion against both an ANN and Fisher's linear discriminant analysis (LDA), which are well-understood algorithms and are popular breast cancer CADx research tools.
+For the ANN, we used a fully connected, feed-forward error backpropagation network with a hidden layer of five nodes, implemented using the nnet package (version 7.2-20) for statistical software (version 1.12, the R Project for Statistical Computing). For the LDA, we used the Statistics Toolbox (version 5.1) of matlab® (Release 14, Service Pack 2, Mathworks Inc, Natick, MA). Both models were carefully verified against custom software previously developed within our group. We implemented our decision-fusion algorithm in MATLAB, relying specifically on the Genetic Algorithm and Direct Search Toolbox (version 2) to find the best thresholds for the likelihood ratio values.</t>
+  </si>
+  <si>
+    <t>Data for this study were collected for 918 subjects (395 men and 523 women) aged 40 years and over. They were recruited from 919 consecutive participants who were given health check-ups15,16 by the city of Settsu at the Settsu City Health Center between July and December 2001. The compliance rate was 99.9%. The ages ranged from 40 to 85 years (mean 58.3) with a sd of 9.2 years.
+A certified audiologist obtained a hearing history from each subject and performed a brief otoscopic examination followed by questioning in relation to noise exposure, tinnitus and ear disease. Self-reported hearing difficulty depended on the question ‘Do you have any difficulty with your hearing?’
+Pure-tone air conduction audiometry for two frequencies, 1 and 4 kHz, was conducted with a Rion AA-54 (Rion Co. Tokyo, Japan) by trained technicians in a quiet room. The audiometer is especially made for screening examinations17, 18 and was used for testing the audible hearing levels of 30, 40 and 50 dB at both frequencies. If the subject could not hear the sound at the cut-off point for a certain hearing level, it was defined as hearing impairment at that hearing level. For each cut-off point, we examined the prevalence of subjects who had hearing impairment in the worse ear or the better ear at 1 and 4 kHz, and complained of hearing difficulty (Tables 1 and 2). Further details regarding the study population is provided in Okamoto et al. Sensitivity and specificity were calculated over a range of cut-off points and ROC curves were used to compare the accuracy of self-reported hearing difficulty associated with hearing in the worse and the better ear. This comparison was based on measurement of the area under the curve (AUC) of ROC. The AUC and standard errors were measured with the method of Henley and McNeil2,3 followed by examination of significant differences detected among AUC. For all statistical analyses, P &lt; 0.05 was considered significant.
+For this study, we first analysed data for all of the subjects and next for subjects excluding those with noise exposure, tinnitus and ear disease, in relation to self-reported hearing difficulty.</t>
+  </si>
+  <si>
+    <t>Continuous variables were expressed as mean ± SD if normally distributed, or median (interquartile range) if not normally distributed, unless otherwise specified, and the appropriate parametric (t-test) or non-parametric (Mann–Whitney) test was used to assess significance of the differences between subgroups. Categorical variables were displayed as frequencies and compared using the χ2 test. All of the tests were two-sided and statistical significance was set at p &lt; 0.05. BIVA data were analysed as R/Xc graph using BIVA software by A Piccoli and G Pastori. We performed the Hotelling’s T2 test for paired data (discharge–admission). The survival to outcomes was evaluated according to the Kaplan–Meier method and tested with Log-rank test. Survival curves were created as a function of the median of differences of R/H and Xc/H at discharge. Univariate analysis was performed to evaluate the predictive performance of BIVA variables and of clinical signs and Odds Ratio (OR) and 95% Confidence Intervals (95% CI) were calculated. Multivariate survivor analysis was performed with Cox analysis. Receiver Operating Characteristics (ROC) curves analysis was performed to identify the prognostic value of clinical variables and BIVA variables alone or in combination. All data were first analysed for normality of distribution using the Kolmogorov–Smirnov test of normality. Statistical analysis was performed by using the Statistical Package for Social Science (SPSS), release 15.0.</t>
+  </si>
+  <si>
+    <t>Descriptive statistics were performed.
+Sensitivity (Se), specificity (Sp), positive
+predictive value (PPV), negative predictive
+value (NPV) and accuracy (ACC) of IFN-γ,
+TNF-α, IL-1β, IL-2 in identifying TBE were
+assessed. The receiver operating characteristic curves (ROC) and area under the
+curve (AUC) were computed using the
+greatest sum of sensitivity and specificity.
+P-values &lt;0.05 were recognized as statistical
+significance.</t>
+  </si>
+  <si>
+    <t>After institutional review board approval (HSC-MS-15-0371), two databases were used: a retrospective multicenter database (the Ventral Hernia Outcomes Collaborative [VHOC] database 2010-2011) and a single-center prospective database (Prospective 2013-2014). Informed consent was obtained from patients enrolled into the prospective database but was waived for the retrospective database. Two databases were used because the ACS-NSQIP calculator is time-intensive to use (requires manual calculation) and includes data not captured in the VHOC database. The Prospective database made assessment of the ACS-NSQIP calculator feasible. However, the VHOC database provided multicenter data and a large sample size.
+All patients who underwent VHR in the VHOC database and the Prospective database were eligible for inclusion. Patients followed for at least 1 mo were included in the analysis. Definitions were derived from the ACS-NSQIP data dictionary and European Hernia Society guidelines and have been previously reported.1, 2, 5
+Outcome data collected included SSO and SSI. SSO was defined as including SSI, seroma or hemotoma formation, or wound dehiscence. The presence of SSI was determined using the guidelines described by the CDC.4 All patients were assigned scores with the VHRS, VHWG, CDC, and HW-RAT, whereas only patients in the Prospective database were assigned ACS-NSQIP predicted risk.
+The primary outcome was the ability to stratify patients between groups, and the secondary outcome was the accuracy of the five models to predict SSO and SSI. Differences between patients who developed SSOs and those who did not develop SSOs were compared using Pearson chi-square, two-tailed t-test, or Kruskal–Wallis. Risk stratification was determined by chi-square where any P value &lt;0.05 was considered “able to stratify patients among risk groups”. The accuracy of the models was compared using the area under the curve (AUC) of a receiver operating characteristic (ROC) curve. An AUC of &gt;0.70 was considered “fair,” whereas an AUC &gt; 0.80 was considered “good”.12 All statistics were performed using IBM SPSS software.</t>
+  </si>
+  <si>
+    <t>Results were expressed as mean ± standard deviation (SD). Statistical tests such as 1 sample-KS test was performed to determine the normal distribution of the data. The data were log-transformed to normalize the distribution. One way Analysis of variance (ANOVA) was performed to test for the difference in serum PSA and glyoxalase levels between the study groups. Levene's test was performed to examine the homogeneity of variance for the PSA and glyoxalase levels between the study groups. Tamhane's post hoc test was adopted to compare the serum PSA and glyoxalase levels between the study groups, as equality of variance was not assumed by the data. These analyses were performed by SPSS.16 software (SPSS Inc., Chicago IL, USA).
+With the help of MedCalc software (version 9.6.2.0; MedCalc Software, MariakerKe, Belgium) receiver operating characteristic (ROC) curve was constructed using sensitivity and specificity for both the serum PSA and Glyoxalase. The area under curve (AUA), positive predictive value (PPV), negative predictive value (NPV) were determined from the ROC curve for assessing the diagnostic efficacy of serum glyoxalase. P&lt;0.05 was considered significant.</t>
+  </si>
+  <si>
+    <t>Receiver operating characteristic (ROC) curves were built for both PCA3 score and PSA. A P value &lt; 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>In the training set (randomly-selected 70% of sample), we developed a reference model and two machine learning models to predict the probability of 30-day readmission. For the reference model, we fitted a logistic regression model, including age, comorbidities, and invasive mechanical ventilation use, according to the CMS readmission measures [Citation10]. Subsequently, we used these predictors to construct two machine learning prediction models: logistic regression with lasso regularization (lasso regression) and deep neural network [Citation24]. Lasso regularization extends a standard regression model by enabling the selection of important predictors (feature selection), and the resulting model is more interpretable and clinically useful, compared with the standard logistic regression model using many predictors. For the lasso regression, we used minimal lambda to penalize large beta coefficients. The minimal lambda was calculated by 10-fold cross-validation using the glmnet package. The deep neural network is a class of machine learning algorithms consisting of multiple layers of non-linear processing units to learn the values of the parameters that result in the best prediction of outcome. In the deep neural network, we constructed a five-layer feedforward model with an adaptive moment estimation optimiser [Citation25] using keras implemented in R [Citation24]. For the deep neural network, we developed the final model by randomly and manually tuning the hyperparameters, such as numbers of layers and hidden units, learning rate, learning rate decay, dropout rate, batch size, and epochs, using the keras package [Citation24]. To minimize potential overfitting in the two machine learning models, we used lasso regularization, and dropout, Ridge regularization, and batch normalization during the model development. In the logistic regression with lasso penalization (regularization), the penalty function shrank the large coefficients toward zero, thereby minimizing potential overfitting. In the deep neural network, to minimize potential overfitting, we used dropout that randomly removed portions of the units in the network, Ridge regularization that shrank the large coefficients, and batch normalization that normalized the means and variances of layer inputs. We used missing indicators for the treatment of missing values.
+In the test set (remaining 30% of sample), we measured the prediction performance of each model by computing the 1) C-statistic (area under receiver-operating-characteristic [ROC] curve) and 2) prospective prediction results (sensitivity and specificity). In addition, to gain stable predictions, we measured the prediction performance of each model with 5-fold cross-validation.
+To gain insights into the contribution of each predictor to the machine learning models, we also determined important predictors based on regularized beta-coefficients in the lasso regression model with minimal lambda. Values of p &lt; 0.05 were considered statistically significant. All analyses were performed with R version 3.4.1 (R Foundation, Vienna, Austria).</t>
+  </si>
+  <si>
+    <t>Statistical analysis was conducted using Stata version 13 (Stata Corp, College Station, TX). Since the META score is an ordinal variable, we used the intra-class correlation coefficient (ICC) to determine inter- and intra-observer agreement; the ICC allows analyzing data with multiple response levels when observer agreement varies across the possible responses. The sample size was determined using the method reported by Walter et al. [11]; for six evaluators, we defined ρ0 (minimally acceptable level of agreement) as = 0.5 and ρ1 (expected ICC value) as = 0.7. The minimal sample size needed was 26.5 for α = 0.05 and β = 0.2. However, taking into account that we needed to have enough OVF and MVF, we increased the sample size to 64 patients.
+The ICC was calculated using a two-way random model characterized by absolute agreement, with the ICC meant to quantify the agreement of evaluators based on averages ratings [12]. Interpretation of ICC values was performed as proposed by Fleiss [13], with ICC values below 0.4 considered poor agreement, 0.40–0.74 as fair to good agreement and 0.75 or more as excellent agreement, beyond chance. The results are expressed with a 95% confidence interval (CI). Inter-observer agreement was calculated by comparing the initial responses of all the evaluators. Intra-observer agreement was determined by comparing the same rater’s responses between two evaluations of the same cases. The two evaluations were separated by a three-month interval and presented in a random sequence to avoid recall bias.
+Additionally, to express the agreement for each of the five independent criteria described by Kato et al. among different evaluators, we used the kappa statistics (κ). Levels of agreement for κ were determined as proposed by Landis et al. [14], considering 0–0.2 to be slight agreement, 0.21–0.4 to be fair agreement, 0.41–0.6 to be moderate agreement, 0.61–0.80 to be substantial agreement and higher than 0.8 to be almost perfect agreement.
+To assess the overall accuracy of the original score, we generated a C-statistic by calculating the area under the receiver-operating characteristic (ROC) curve; the results are expressed with a 95% confidence interval (CI).
+Two-by-two contingency tables were generated for each evaluator to determine sensitivity, specificity, and positive and negative predictive values. To calculate mean diagnostic accuracy between multiple evaluators, the contingency tables were added and mean sensitivity and specificity calculated.
+Finally, we determined the agreement among the evaluators for determining if the fracture was OVF or MVF. As proposed by Kato et al. [1], a total score less than or equal to 4 indicates OVF, while a total score greater than or equal to 5 suggests MVF. Due to the dichotomic nature of this variable, we used the kappa statistics (κ) to evaluate this agreement.</t>
+  </si>
+  <si>
+    <t>Classifier Evaluation Methods
+The classifier was evaluated using receiver operating
+characteristic (ROC) (20, 21). The ROC curve illustrates
+the performance of a classifier over all sensitivity and
+specificity levels. A succinct measure of performance
+from the ROC is the area under the ROC curve (AUC)
+(20). The AUC can be described as the average specificity over all sensitivities. The AUC can range from 0.5
+(chance performance) to 1.0 (perfect performance). A
+more clinically meaningful measure of performance
+(when high sensitivity is essential) is the partial area index (22). We used partial area index (0.90AUC) above the
+sensitivity of 90%, which represents the average performance of the classifier at sensitivities from 90% to 100%.
+Other measures of performance may include points on the
+ROC curve corresponding to a specific sensitivity and
+specificity. The sensitivity at a fixed specificity is often
+preferable to the AUC when evaluating a test for a particular application (23). Because in this application, we are
+interested in correctly diagnosing malignancies while decreasing the number of biopsies performed on benign
+findings, we are interested in performance at very high
+sensitivities. Additional measures of performance included
+specificity at 95% sensitivity, specificity at 98% sensitivity, and specificity at 100% sensitivity. In this application,
+specificity at 100% sensitivity indicates how many benign
+cases could potentially be spared from biopsy while correctly diagnosing all malignancies. It also represents
+100% negative predictive value (NPV). NPV defines the
+percentage of cases with a negative classifier output that
+are clinically benign. NPV of 100% means that there are
+no false-negative classifier predictions. The 100% sensitivity/100% NPV operating point is the most conservative
+measure of performance.
+The classifier development (training/testing) used two
+resampling methods to avoid overtraining: RR and bootstrap. The RR method is a classifier training/testing
+method that is well-established. On the other hand, the
+bootstrap is not so well known, but it is more comprehensive. We have used both methods in lieu of just one to
+present the full picture of the classifier performance.
+Training and Testing.—For classifier training and testing, leave-one-out bootstrap (24, 25) was used. Leaveone-out bootstrap (also referred to _x0001_o) is a subcomponent
+of the 0.632 bootstrap (25, 26), without the error correction. This means that theoretically, the leave-one-out
+bootstrap gives pessimistic estimates of future performance. For the bootstrap, just as with other resampling
+methods, part of the data is used for training and part is
+used for testing the classifier. Randomly selected cases
+from the original dataset are called a sample. For the
+training/testing stage, 3,000 bootstrap samples were drawn
+with replacement from the original case set. Each bootstrap sample was used to train the classifier, and the cases
+not in the bootstrap sample were used to test the classifier. This resulted in 3,000 estimates of performance,
+from which the mean performance (ROC measurements)
+and standard deviations were computed. In effect, the
+classifier was trained and tested 3,000 times, each time on
+a different subset of the training/testing data.
+Independent Validation.—To simulate the performance
+of the optimized LRb classifier in a potential clinical situation, the trained classifier was applied to the validation
+case set without retraining. The performance on the validation case set was calculated from the validation ROC
+curve. The thresholds that had been established on the
+training data were applied directly to the validation ROC
+curve. This yielded a binary cutoff for establishing a clinical recommendation: proceed with biopsy or with shortterm follow-up. The performance at the thresholds (95%–
+100% sensitivity) was examined in terms of numbers of
+cases that would be correctly diagnosed as benign and
+malignant. This corresponds to the exact performance one
+would expect if the classifier were used in the clinic. Establishing of Sensitivity Cutoff Thresholds
+Actual clinical application of a classifier requires establishing a sensitivity threshold to decide which cases
+are malignant and which cases are benign. In practice,
+this is accomplished by establishing a cutoff threshold
+from the ROC curve of the training data. We evaluated
+four sensitivity thresholds (100%, 99%, 98%, and 95%)
+that might be clinically acceptable for biopsy classification. For each sensitivity level, two different methods
+were used to determine their ROC thresholds. For bothmethods, because nonparametric ROC analysis was used,
+the thresholds were determined based on the ROC curves
+of the training/testing dataset. The first method established thresholds directly from the RR ROC curve of the
+670 training cases, and we will refer to it as threshold
+method RR. The second method, named threshold method
+BB (bootstrap-based), established the most often occurring
+thresholds from the bootstrap evaluation of the 670 training cases. For a given sensitivity level (eg, 100%), each
+bootstrap run produced a distributions of 3,000 thresholds.
+The peak of this distribution was established as the most
+likely and consistent threshold for the given sensitivity
+level.
+Comparison to Neural Network
+A popular artificial intelligence algorithm used in CAD
+of breast cancer is the back-propagation artificial neural
+network (ANN) (27, 28). The ANN is based on the concept of biologic neurons and is often used in pattern recognition. An ANN developed previously (13, 27) for the
+problem of breast biopsy prediction was used. Briefly, the
+ANN was a three-layer (one hidden), feed-forward, and
+error back-propagation neural network. The ANN merged
+the case inputs to output one value (0 –1 range) indicating
+an increasing likelihood of malignancy. The ANN developed previously was trained anew with the exact 670
+cases used by the LRb. Tenfold cross-validation was used
+to iteratively train the network. All network parameters
+were established empirically and were fixed after the
+training. Performance of the trained ANN was evaluated
+on the new database of 151 cases, and then compared
+with the performance of the trained LRb.</t>
+  </si>
+  <si>
+    <t>PET/CT diagnostic performance for LNM detection using the investigational tracer [18F]-fluciclovine was evaluated in comparison to the standard PET imaging method that was available, [11C]choline. Medians with interquartile range (IQR) and proportions were reported for continuous and categorized variables as descriptive statistics. For instance, patient-based analyses (n = 72) and region-based analyses (n = 576) were performed to investigate diagnostic accuracy of both [18F]-fluciclovine and [11C]choline PET/CT. For statistical analysis, a dichotomization of the semi-quantitative 5-scale rating for PET/CT was applied both on patient-based and region-based analyses (visual score 0–3 = negative findings and visual score 4–5 = positive findings). For region-based analyses, a non-parametric method was used to account for the correlation of multiple observations in the same patients. Thus, sensitivity, specificity, positive predictive value (PPV), negative predictive value (NPV), and accuracy were calculated for LNM detection both on patient-based and region-based analyses. Overall diagnostic accuracy was assessed for receiver operating characteristic (ROC) analyses on patient-based and region-based analyses. For both modalities ([18F]-fluciclovine and [11C]choline PET/CT), ROC curves were calculated. Area under the curves (AUCs) with the 95% confidence intervals (C.I.) are presented and were compared to each other as well as to a fixed value of 0.5. Moreover, [18F]-fluciclovine and [11C]choline PET/CT performance on region-based analysis (including mean and median value of SUV max, TBR-A, and TBR-BM) were compared between region with LNM and without LNM at final pathology, using the Mann–Whitney test. In patients with LNM, the concordance of diagnostic accuracy of [18F]-fluciclovine and [11C]choline PET/CT according to pathologic size of intranodal metastatic deposit was investigated using McNemar test. Finally, univariate and multivariable logistic regression were performed to predict LNM at final pathology. A p value of &lt; 0.05 was considered statistically significant. All statistical tests were performed using SPSS 25 for Windows.</t>
+  </si>
+  <si>
+    <t>All 86 patients were included in the OS analysis, with living patients or those lost to follow-up censored at the date of last clinical encounter. DF was analyzed in 77 (89.5 %) patients with follow-up imaging. The remaining nine (10.5 %) patients died or were lost to follow-up prior to first post-treatment intracranial imaging. DF was defined as leptomeningeal disease or new parenchymal MBM at sites other than previous treatment. Patients free of any failure were censored at the date of last imaging showing intracranial control.
+The median follow-up time was computed using the inverse Kaplan-Meier method [25], while OS and time to DF were estimated using the Kaplan-Meier method. Variables with a p-value ≤0.10 on univariate analysis were considered for multivariable analysis. For clinical utility, continuous variables were categorized using previously described techniques [26]. Prior to modeling, correlations between variables were checked for multicollinearity. Missing data points (i.e., BRAF mutation status, N = 15) were addressed via multivariable imputation.
+Two different multivariable models were developed to identify predictors of OS and DF. The first used all variables that demonstrated significance during univariate Cox proportional hazards modeling, while the second used a backwards, stepwise elimination procedure (exit criteria: p &gt; 0.05) to identify the most parsimonious model. Bootstrapping with 200 resamples was used to test model stability and control for over-optimism.
+Next, significant factors relative to each outcome of interest were used to derive risk scores for OS and DF. Point values were assigned to each risk factor based on weighted regression coefficients from the Cox proportional hazards model. Reference categories for each variable were assigned zero points. Scores were tabulated for each patient based on the presence of weighted risk factors, and patients were then sub-classified into clinically useful risk groups. Patients were assigned to one of three risk groups for OS based on similarities in survival patterns. This process was repeated for DF risk; group assignments for DF risk were made independently of the patient’s designation for OS risk.
+Model discrimination was evaluated using the Harrell’s concordance index (c-index) [27] for both OS and DF. A c-index value of 0.5 indicates no predictive capacity, while 1.0 indicates perfect discrimination. Harrell’s c-indices were also calculated for the melanoma-GPA and RPA for OS. These results were compared to the c-index derived from our SRS-specific MBM OS risk scores.
+Descriptive statistics were performed for all variables. P-values ≤0.05 were considered statistically significant. Statistical computations were performed utilizing IBM SPSS, version 22 (IBM Corp., Armonk, NY) and SAS 9.3 (SAS Institute Inc., Cary, NC).</t>
+  </si>
+  <si>
+    <t>For each risk factor, we first assessed its association with high-risk adenoma adjusting for 5-year age group by logistic regression. To assess dose-response, we compared the model fit between the models with continuous vs categorical risk factor using log likelihood ratio test. We tested for statistical interaction by adding a cross-product term of the two variables to a model along with the main effects and compared to the model with only main effects using a log likelihood ratio test.
+Stepwise multiple logistic regressions with Pentry=0.15 and Pstay=0.20 were used to build the prediction model in men and women, respectively. Odds ratios (ORs) and 95% confidence intervals (CI) of high-risk colorectal adenoma were presented. Predicted risk of high-risk colorectal adenoma was calculated by exp(βo+∑βiXi)/(1+ exp(βo+∑βiXi)), where βo was the intercept, and βi was the regression coefficient for risk factor Xi.
+Receiver-operating characteristic (ROC) curves were plotted for the final models as well as the models with age, and age and family history of colorectal cancer to evaluate the impact of adding modifiable risk factors to the current risk stratification criterion. C-statistics and age-adjusted C-statistics 36 which capture the predictive ability of the model without the impact of age were calculated to evaluate the discriminatory ability. Because of a limited sample size and overly pessimistic estimates of performance with large variability by split-sample method, as well as complex computation involved in bootstrapping, ten-fold cross-validation was performed to validate the models internally.37 We first randomly divided the data into 10 subsets, fitted the final model in 90% of the data (training set) and estimated the predictive risk of high-risk adenoma in the remaining 10% of the data (test set). We repeated this procedure for all the 10 subsets, and calculated the average C-statistics in the 10 test sets.
+We assessed calibration by Hosmer-Lemeshow (HL) goodness-of-fit test comparing observed and predicted probabilities across deciles of predicted risk. PHL values greater than 0.05 indicate adequate calibration.
+As sensitivity analyses, we examined whether using continuous instead of categorical variables and a unisex model would improve discrimination, respectively. All the statistical analyses were conducted using SAS version 9.3 (SAS Institute, Cary, NC).</t>
+  </si>
+  <si>
+    <t>Data were analyzed using Stata v13.0 (StataCorp, 2013). Level of significance was set at 5%. We calculated the Receiver Operating Curve (ROC), area under the curve (AUC), sensitivity/specificity, and positive/negative likelihood ratios for various scoring algorithms for the PHQ-PD and PDSQ-PD. Each was computed separately with SCID diagnosis of panic attack and panic disorder as the reference standard.</t>
+  </si>
+  <si>
+    <t>Data about oocyte maturity, its fertilization, blastocyst formation, blastocyst grades and the ploidy of blastocyst biopsies were evaluated with reference to the diameter of the follicle from which the oocyte was retrieved. Follicle diameters were expressed in two ways: the diameter of the follicle (mm) and as Z values. The use of Z values was employed in order to minimize differences in the mean follicle diameter and result in the homogeneity of variance among different donors. Therefore, follicles sizes assessed as Z values were independent of the donor in which they were measured. Receiver operator characteristic curves were used to evaluate whether developmental stages were associated with follicle diameters.</t>
+  </si>
+  <si>
+    <t>The study population included patients belonging to the Bronchogenic Carcinoma Cooperative Group of the Spanish Society of Pneumology and Thoracic Surgery (GCCB-S). There were 2,994 patients prospectively collected between 1993 and 1997. These patients are part of the international database used by the International Association for Study of Lung Cancer (IASLC) to update the TNM classification of lung cancer, the seventh edition of which was published in 2009 9.
+A total of 512 patients with NSCLC in pathologic (p) stages I–II, who underwent complete resection in six hospitals randomly selected among the 19 hospitals of the GCCB-S were included in this study. The seventh edition of the TNM classification was used for tumour staging 9.
+Surgical specimens were studied following a standard protocol 10. Histological types were independently established by three pathologists (F. López-Ríos, E. Conde, and A. Suárez-Gauthier (all Pathology Dept, Hospital Universitario 12 de Octubre, Madrid, Spain)) according to the World Health Organization 2004 classification 11. All discrepancies were resolved by consensus.
+A sample size of ∼500 patients was considered adequate for the expected presence of a 55–60% death rate in a 5-yr interval from time zero of calculation of survival, and about 25–35 variables on multivariate analysis.
+The Institutional Review Board (Hospital Universitario 12 de Octubre) approved the protocols, and written consent was obtained from all the subjects of this study.
+Initial available variables (&gt;200) were included in four different groups: the TNM histology group (group A), which contained all qualitative and quantitative descriptors that define each TN category of stages pI–II; the clinical variables group (group B); the analytical and functional variables group (group C); and the molecular variables group (group D), which included 32 markers that explored five biochemical pathways (see online supplementary material).
+Several steps were undertaken to build the predictive model. First, in each group, univariate analysis for selection of significant prognostic variables was performed by the Kaplan–Meier method. A p-value &lt;0.3 was chosen as threshold for selection. Secondly, with the variables selected for each group, a classification tree was built by supervised learning classification algorithm. We consider vital status at 5-yr survival as the dependent variable at each terminal node of the classification tree. This was followed by multivariate analysis by recursive partitioning decision tree using the supervised learning classification algorithm C4.5 constructed with R interface to Weka 12. Each group had a tree with several terminal nodes. Every terminal node had a different probability of overall 5-yr survival. Group terminal nodes with minimal and maximal probababilities are shown. Thirdly, an integrated group was built with the variables obtained in the second step for all groups. Finally, a 5-yr probability of survival (Kaplan–Meier) was calculated (see Methods in the online supplementary material) for the clinical pattern of variables obtained in each terminal node of the integrated group.
+The model’s ability to discriminate between patients with or without the event was assessed using the area under the receiver operating characteristic (ROC) curve (AUC) method, measured by the concordance index (C-index) 13, and its overall predictive capacity, measure by the coefficient of determination 14. Stata version 10 (StataCorp, College Station, TX, USA) was used for the remaining results. Given the digit preference in the tumour size variable, Schoenfeld’s procedure was used 15. (see online supplementary material). The internal validation of the model’s estimation was calculated by bootstrapping.</t>
+  </si>
+  <si>
+    <t>Continuous variables were tested for normal distribution by the Kolmogorov–Smirnov test. Continuous variables are represented as mean ± SD or median (interquartile range) and categorical variables as a percentage. We explored the best cut-off points for sST2 in our study population, and receiver-operating characteristic (ROC) curve analyses were generated to test the predictive discrimination of sST2 to identify an association with mortality events during follow-up. We used Cox models to determine the association of plasma sST2 levels with time to adverse events independently to clinical risk factors. We calculated hazard ratios (HRs) derived from the Cox regression analysis to identify the event predictors during follow-up. The independent effect of variables on prognosis was calculated using Cox multivariate regression analyses, incorporating covariates with P values &lt; 0·15 from the univariate analysis. A P value of &lt; 0·05 was accepted as statistically significant. Statistical analysis was performed using spss version 15·0 for Windows (IBM, Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>Chi square and Student’s t-test were used to compare dichotomous and continuous variables. Cox models generated hazard ratios for the composite end point of death or transplant within 6 months using MELD and MELDNa as continuous predictors. The assumption of proportional hazards was tested by the Schoenfeld statistical test. The Harrell’s C index 23 was employed to compare the predictive ability of MELD versus MELDNa models. The 95% confidence intervals for the C indices were created using bootstrap techniques. To identify the MELDNa cutoff that maximized the difference in probability of death or transplant between 2 groups, we compared log rank tests for Kaplan Meier survival curves stratified by various MELDNa cutoffs, and confirmed these findings by fitting a tree-structured survival model using recursive partitioning in R version 2.8.1. Statistical analysis was otherwise performed using Stata version 10.0 [College Station, TX].</t>
+  </si>
+  <si>
+    <t>The details of patient recruitment into the HeartMate II (Advanced Heart Failure Treated With Continuous-Flow Left Ventricular Assist Device) BTT and DT trials have been previously reported (1, 3). Patients who received a HeartMate II (HMII) as part of the HMII BTT trial (n = 486), HMII DT trial (n = 638), or who received a HeartMate XVE (XVE) as part of the HeartMate II DT trial (n = 114) were included in this study. Baseline demographics, laboratory values, echocardiographic parameters, and medical therapies were recorded just prior to device implantation.
+The DTRS was calculated for each patient and then patients were divided into risk groups as previously described: low risk (DTRS 0–8), medium risk (DTRS 9–16), high risk (DTRS 17–19), and very high risk (DTRS &gt;19). Complete data for calculating the DTRS was available for 95% (1,063 of 1,124) of the patients with a HMII. Patients with missing data were not included in the analysis. The high-risk and very high-risk categories were combined into a single risk category due to the low number of patients in the very high-risk group, and are henceforth referred to as “high risk.”
+Analyses of continuous variables for more than 2 groups were performed using either analysis of variance (if data was normally distributed), or the Kruskal-Wallis nonparametric test (for non-normal data). Post hoc pairwise comparisons between 2 groups were either performed using the Tukey or the Mann-Whitney U tests. Categorical variables were compared using the Pearson chi-squared test for &gt;2 groups and the Fisher exact test for 2 groups. The 90-day in-hospital mortality was evaluated for all groups and was the primary outcome variable for the analysis. Area under the receiver-operator characteristic curves were calculated for the 90-day in-hospital mortality to evaluate the discriminatory value of the DTRS for each group studied, and Hosmer-Lemeshow goodness-of-fit statistics were used to evaluate the calibration of the dataset. Discrimination and calibration was performed on DTRS itself and not on risk groups. Survival analysis was performed using the Kaplan-Meier method and comparisons of survival between groups were made using the Mantel log-rank test. Patients were censored at the time of transplantation, recovery, or ongoing support at the time of this analysis (September 2010). All statistical analyses were performed using either Systat (Cranes Software, Chicago, Illinois) or SAS (SAS Institute, Cary, North Carolina).</t>
+  </si>
+  <si>
+    <t>To validate the model and score, we use calibration and discrimination. It adds global performance measures. Calibration reflects the extent to which the predicted probabilities and actual probabilities agree. We focus on the calibration-in-the-large (intercept) plus the calibration slope. The concordance statistic (c-statistic) represents the probability that individuals with the outcome will receive a higher predicted probability than those without it. It corresponds to the area under the curve (AUC) and their 95% CI.16,17 The missing data were excluded from the sample and no method of data input was performed.
+The variables included in the PREDICE-score validation are: age, eGFR, serum sodium levels, dependency for daily basic activities and physiopathology diagnosis (systolic function preserved or reduced).12
+The formula that was constructed in the PREDICE derivation article12 is called the prognostic index (PI):7
+The risk of mortality at one year for the PREDICE model12 were calculated using PI, where the estimated glomerular filtration rate (eGFR) was estimated with the 4-variable version of the Modification of Diet in Renal Disease equation (MDRD4).18 Age, eGFR, serum sodium levels, dependency for daily basic activities and physiopathology diagnosis (systolic function preserved or reduced) were used to predict the one-year death risk using the clinical prediction rule PREDICE-score.12
+The probabilities of mortality at one-year for the AHEAD-score were estimated using atrial fibrillation, creatinine levels, hemoglobin levels, age and the existence of diabetes mellitus.13 The original formula was requested from the correspondence author. Because the exact formula was not provided, the score was firstly obtained and then, probability was assigned using the AHEAD-score table.13
+The distribution of characteristics of development and validation samples were compared separately. Additionally, relatedness between validation and development PREDICE samples was quantified using the c-statistic.16 The predictive ability of the models was evaluated based on calibration and discrimination.</t>
+  </si>
+  <si>
+    <t>All categorical variables were expressed as frequencies and proportions. All continuous variables were expressed as mean with standard deviation or median with interquartile range, based on distribution. Urinary NGAL—which did not follow a normal distribution—was log transformed and compared. Categorical variables were compared with Chi-square tests and continuous variables were compared using student's T test, ANOVA with Bonferroni correction, Mann-Whitney U test or Kruskal Wallis test based on the distribution and number of groups. A logistic regression model was used to identify the independent predictors of mortality. Receiver operated curves (ROC) were constructed to assess the ability of uNGAL to distinguish the type of renal dysfunction and predict the mortality at 3 months. A pair-wise comparison of ROC curve of serum creatinine and uNGAL was done using the method described by De Long et al., 1988. A binary logistic regression analysis was done to assess the independent predictors of mortality. All statistical analysis was carried out at 5% level of significance and P value of &lt;0.05 was considered as significant. The data were analyzed using the statistical software SPSS version 19.0 (IBM; Armonk, NY, USA) and Medcalc (MedCalc Software Acacialaan, Belgium).</t>
+  </si>
+  <si>
+    <t>Continuous data is presented as median and quartiles (Q1, Q3), categorical data as counts and percentages. Data was statistically analyzed using non-parametric tests, including the Pearson´s χ2-test and the Mann-Whitney U test. Furthermore, receiver operating characteristic (ROC) curves of the parameters investigated were drawn to compute the area under the curve (AUC). The DeLong test was used to compare ROC-AUCs of different parameters. To set an optimal cut-off value for optimal differentiation, the Youden-index method was applied. For dichotomized parameters, sensitivity, specificity, negative predictive value (NPV), and positive predictive value (PPV) were calculated and given with 95% confidence intervals. Statistical significance was defined at a p-value less than 0.05 (two-tailed). When appropriate, accumulation of the α-error probability related to multiple testing was corrected using the Bonferroni-Holm method. All calculations were done using SPSS 21.0 (IBM, Hercules, USA) and MedCalc 12.7.0 (MedCalc Software bvba, Ostend, Belgium).</t>
+  </si>
+  <si>
+    <t>SPSS (version 16.0, SPSS Inc, Chicago, IL, USA) was used for statistical analysis. Chi-square test was for categorical variables. ROC analysis was used to assess sensitivity and specificity of TCT, HPV testing and staining results of FRD.</t>
+  </si>
+  <si>
+    <t>Data were not normally distributed data so they were analysed by non-parametric (Mann-Whitney U) test or by one-way analysis of variance (ANOVA) with Tukey post-test (or post-test for linear trend) on data that had been transformed as log10. Proportions were compared with Fisher's exact test (p&lt;0.05 was considered significant). Receiver operating characteristics (ROC) curves were used to examine the relationship between specificity and sensitivity. All data analysis was carried out using SPSS v11.0 (SPSS, Chicago, Ill.) or by Prism 3.0 (GraphPad Software, San Diego, Calif.).</t>
+  </si>
+  <si>
+    <t>Proportions of patients with certain characteristics were compared using the chi-square test. We assessed the distribution of variables. Variables with normal distribution were compared using two-tailed unpaired t-tests, while data that did not conform to a normal distribution were compared using the Mann-Whitney rank sum test. BD and Lac were compared using Pearson correlations. Receiver operating characteristic (ROC) curves were determined for BD to detect the presence of hyperlactatemia. Hyperlactatemia was defined as a serum lactate greater than 2.0 mmol/L. Unless otherwise specified, all means are reported as ± S.D. All statistics were performed with SPSS 11.0 (SPSS, Chicago, IL.).</t>
+  </si>
+  <si>
+    <t>Continuous variables with symmetric distribution were presented as the mean ± standard deviation (SD), while asymmetric distribution with median and interquartile (IQR). Categorical variables were expressed as frequency and percentage. Continuous variables with a normal distribution were compared between groups using Student’s t-test, and with a nonnormal distribution using the Wilcoxon ranked test. Statistical significance of differences between categorical variables was evaluated using the chi-squared test. Logistic regression was used to identify predictors for subsequent AKIs within 3 days after PICU admission. The efficiency of risk factors for predicting AKIs was evaluated by the area under the curve (AUC) of the receiver operating characteristic (ROC) curve. All the analyses were conducted in IBM-SPSS version 25(IBM corporation, Armonk, New York, USA), and p&lt;0.05 from 2-sided tests was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>All numerical data were presented as mean ± standard deviation. Categorical and continuous variables were compared using the χ2 test or the Fisher exact test and the Student t test or Mann-Whitney U test, respectively. Logistic regression analysis was used to determine independent predictors from 17 MRI-based breast tumor descriptors for pSLN burden. ROC curve was used to assess the performance of radiomics nomogram, predictive MRI-based breast tumor descriptors, and MRI-determined ALN burden. The AUC values were compared by using the DeLong method. To assess the reliability of the radiomics nomogram, ROC curve analysis was also performed in the training cohort (n = 126) using segmented VOIs repeated by reader 1 and reader 2 in a separate session. Statistical analysis was performed by using R software (version 3.0.1; R Foundation for Statistical Computing). LASSO binary logistic regression was done using the “matrix”, “foreach”, “pROC”, and “glmnet” package. Binary logistic regression and internal validation were done with the “rms” package. AUC was calculated using the “pROC” package. A two-sided p value &lt; 0.05 indicated statistical significance.</t>
+  </si>
+  <si>
+    <t>Data are presented as medians and interquartile range (IQR) for both continuous and ordinal variables. When comparing groups, Student's t test, the Mann-Whitney U test, or Fisher's exact test were used when appropriate. Univariate analysis of glucose parameters and mortality was performed by calculating receiver-operator characteristics (ROC) curves. Multivariate analysis was performed by means of binary logistic regression that controlled for age, sex, and ISS (for trauma patients). All evaluated parameters were entered in the model. Odds ratios for glucose-related parameters were calculated for increases of 10 mg/dL. Significance of differences between odds ratios was calculated as described by Altman and Bland.25 Statistics were performed with the SPSS statistical package (version 10.0.7, SPSS Inc, Chicago, IL) and Excel (version 97-SR 2, Microsoft Corporation. Redmond, WA).</t>
+  </si>
+  <si>
+    <t>Statistical analyses were performed using the SAS/STAT® software, Version 9.1.3 (SAS Institute Inc., Cary, NC, USA). Continuous variables were described by mean ± standard deviation (SD). Continuous variables between groups were compared using Student’s two-tailed t test or the Mann–Whitney U test if not normally distributed. The chi-square test was applied for categorical data. All potential predictors were evaluated in univariate analysis and in multivariate analysis by multiple logistic regression with a stepwise forward method in order to obtain risk factors of hospital mortality. The two-tailed p value of &lt;0.05 was considered to be statistically significant. Basic model-fitting techniques for regression analysis, including (1) variable selection, (2) goodness-of-fit (GOF) assessment, and (3) regression diagnostics were applied to assure the quality of analysis results. Discrimination for hospital mortality was determined by means of the area under the receiver operating characteristic (ROC) curve, comparing between all scores. We performed goodness-of-fit test using the Hosmer–Lemeshow statistics and plotted observed and predicted mortality in each quintile of risk for assessing the agreement between the actual and predicted death rates. The predicted mortality was plotted according to specific customized equations the SAPS 3 designs for the different geographic regions. We used conditional effect plots, which predicted values of Y against one X variable, with the other X variables held in constant.</t>
+  </si>
+  <si>
+    <t>The present study was approved by the Macquarie University Human Ethics Committee (5201700919). A retrospective review of all patients who underwent biopsy across two centres in Australia (Westmead Private Hospital and Macquarie University Hospital) by a single surgeon between January 2014 and March 2019 was performed.
+Inclusion criteria were: prostate MRI prior to biopsy using a 3-T scanner with body coil; an assigned PI-RADS v2 (v1 prior to 2016) score for the MRI; biopsy using a TP approach; and availability of all patient characteristics required for risk models. All patients received systematic biopsies and, in addition, targeted biopsies if they had a PI-RADS 3–5 region of interest. Patients who did not undergo MRI prior to biopsy, patients who underwent TR biopsy, patients with previous positive biopsy and patients with incomplete datasets as required for risk models were excluded.
+Baseline patient characteristics were collected from patient files including age, PSA, DRE findings and family history. Prostate size and PI-RADS score were collected from MRI reports. All MRI studies were reported by certified subspecialty radiologists at the two selected institutions using the PI-RADS version 2 (version 1 prior to 2016).
+All biopsy specimens were assessed by dedicated uropathologists. Pathological data were collected from reports including the International Society of Urological Pathology Grade Group (ISUP GG). Biopsy results were divided into negative, low-grade prostate cancer and high-grade prostate cancer. High-grade prostate cancer was defined as having ISUP GG 2 or higher and low-grade prostate cancer as ISUP GG 1.
+The predicted risks for the PBCG-RC and van Leeuwen model were calculated using the supplementary information provided in the respective publications. The PBCG-RC did not include information on volume as this requires further testing which may not be available for specific subsets of patients. The predicted risk for the ERSPC models were calculated with adjustment for the prevalence of cancer by two co-authors (M.R. and S.R.).
+Area under the receiver-operating characteristic (ROC) curve (AUC) was used to determine how well the models discriminated between those with and without significant prostate cancer. An AUC of 0.5 indicates chance discrimination, while an AUC of 1.0 indicates perfect discrimination. Calibration was assessed graphically using calibration curves and numerically using Cox’s intercept and slope, which is estimated from a logistic model that regressed the observed significant prostate cancer outcomes against the linear predictor of the model predictions. Perfect calibration is indicated by an intercept of 0 and a slope of 1. Intercepts &lt;0 indicate overestimated risk and intercepts &gt;0 indicate underestimated risk. Slopes &lt;1 indicate that estimated risks are too high for high-risk patients and too low for low-risk patients, while slopes &gt;1 indicate the opposite [19]. Tests were undertaken to determine whether the estimated intercept and slope differed significantly from 0 and 1, respectively. Comparison of the proportion of patients with correct predictions at various model thresholds was also undertaken. Finally, clinical utility was assessed using net benefit curves [20]. Summary statistics are presented as median and interquartile range (IQR) for continuous variables, and count and percent for categorical variables.
+Statistical analyses were performed using the R version 4.0.2 statistical software [21]. P values &lt;0.05 were taken to indicate statistical significance.</t>
+  </si>
+  <si>
+    <t>Statistical analyses were performed using SPSS software (version 19.0) and MedCalc software (version 11.4.2.0). The Shapiro–Wilk test was used to verify the normality of the data in this study. Data are shown as mean ± standard deviation (SD). Continuous variables were compared with the independent sample t-test or the Mann–Whitney U test. Correlation analysis between variables was computed using Spearman’s rank correlation coefficient analysis. Further, a multiple linear regression was used to analyze the relationship between serum ferritin and RDW-CV and RDW-SD. The diagnostic performance of RDW-CV and RDW-SD was estimated by ROC curve analysis. The Z statistic was used for pairwise comparison of the diagnostic performance between RDW-CV and RDW-SD in the diagnosis of IDA among mid-pregnancy women; p &lt; 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Participant selection Of the 502,536 participants, we excluded (i) 381 participants with inconsistent genetic and reported sex or inconsistent date of death, (ii) a total of 105,950 (N = 77,772 cancer, N = 34,230 CVD) prevalent cases, (iii) 2138 individuals with all biomarkers missing, (iv) 26,166 participants with missing information on education or one or more missing covariate, and (vi) one participant with uncertain cancer status (Supplementary Figure 1), leaving 366,748 (171,193 men, 195,555 women) participants free of cancer and CVD at baseline. Age at recruitment was grouped into the following three categories: &lt;50, 50–64, and &gt;64 years old, giving similar number of participants in each age group among men and women (Supplementary Table 3).
+We calculated the BHS (and system-specific sub-scores) for each participant and explored age and education gradients in the scores using linear models (Supplementary Methods). Up to March 1st, 2016 (i) a total of 14,396 deaths were observed, including 8,014, 1,899, and 488 from cancer, CVD, and external causes, respectively (Supplementary Table 4-A), and (ii) 52,443 and 15,653 cases of cancer and CVD were diagnosed (Supplementary Table 4-B).
+Survival analyses Univariate and multivariate Cox proportional hazard regression models using age as timescale were fitted to estimate hazard ratios (HRs) for the BHS on health outcomes. We set the BHS (or system-specific sub-score) as predictor, and sequentially adjusted for education level, lifestyle behaviours (smoking, physical activity, and alcohol consumption), BMI, and co-morbidities and treatments. Analyses were conducted in men and women separately for (i) all-cause, (ii) cancer, (iii) CVD, and (iv) external-cause mortality, and (v) cancer and (vi) CVD incidence (Supplementary Methods). Effect size estimates were expressed as hazard ratios per 0.1 increase in the BHS (or system-specific sub-scores). We adopted the same sequential adjustment procedure for models setting education as predictor, which were further adjusted for behaviours, BMI, co-morbidities and treatments, and the BHS.
+To assess the predictive performances of the models investigated, we used the same Cox regression models using age as timescale to derive the distribution of the age-adjusted 10-year event-free survival probabilities in cases and non-cases, as well as age-adjusted Harrell's C-statistic. C-statistics were also calculated for survival models unadjusted for age, by taking time elapsed since enrolment as timescale and additionally including chronological age as a predictor.
+The validity of the proportional hazard assumption was evaluated by visual inspection of the Schoenfeld residuals.
+Sensitivity analysis To check the potential role of ethnicity, we ran our survival models adjusting for ethnicity. Ethnicity was self-reported in the UK Biobank and reflects social aspects of minority communities.
+As an unsupervised alternative to the BHS, we constructed a continuous biomarker score based on principal component analysis[19,20] to summarise the information in the biomarker data and chose the first component of (i) the 13 biomarkers as an alternative to the BHS and (ii) biomarkers included in each system, as an alternative to each system-specific score in our survival analyses.
+Mendelian randomisation We adopted a one-sample two-stage least squares Mendelian randomisation (MR) approach [21] relying first on the identification of genetic instruments which were used to estimate the instrumentally explained (exposure-independent) part of the BHS. The selection of genetic variants as instrumental variables was done using a linear model coupled with a stringent pruning strategy (Supplementary Methods) [22]. We performed series of sensitivity analyses for the selection of instrumental variables using (i) the BOLT-LMM model, as an alternative with relaxed normality assumptions, (ii) using different values of the significance level to select variants in the clumping step, and (iii) using different values of r2 for the pruning of SNPs in high LD. In the second stage, the genetically predicted BHS was regressed against the health outcomes and resulting effect size estimates were used to infer the causal effect of the BHS on each outcome (Supplementary methods). The second stage regression was based on a proportional hazard Cox model [23] adjusted for sex, and the first 10 principal components capturing the latent population structure. The univariable MR model including only BHS as risk factor was extended to a multivariable Mendelian Randomisation (MVMR) [24], where the survival model also included the instrumental estimate of the education variable as additional risk factor, using the same genetic instruments in order to account and adjust for a pleiotropic effect via education.
+All statistical analyses were performed using R v3•6•1 in the RStudio environment and PLINK v1.90p 64-bit (16 Apr 2016).</t>
+  </si>
+  <si>
+    <t>All data were analyzed with SPSS 22.0 software (SPSS Inc., Chicago, IL). All values are expressed as mean ± SD for parametric values or as a median (range) for nonparametric values. Comparisons among groups were made by analysis of variance and then Mann–Whitney U test. The χ2 test was conducted for the analysis of discrete variables. P &lt; 0.05 was considered to be statistically significant. Logistic regression analysis was used to evaluate the contribution of the various factors to the outcome. Each risk factor was scored based on the value for the corresponding standardized β coefficient of the multiple logistic regressions. The β-coefficients were rounded to the closest integer to generate the score. The overall score was calculated as the sum of the risk factors scores. Model discrimination was quantified by calculating the area under the Receiver Operating Characteristic curve (AUC) and calibration was assessed by Hosmer–Lemeshow goodness of fit test and Pearson correlation coefficient.</t>
+  </si>
+  <si>
+    <t>A comparison of the final diagnosis to the probability of malignancy predicted by each of the Mayo model, the VA model, and the McWilliams model was calculated (see Electronic Supplementary Material Appendix A for links to each prediction model calculator). Model accuracy was assessed by calculating the area under the receiver operating characteristic (ROC) curve (AUC), comparing the model probability of malignancy with the actual patient diagnosis. Calibration curves were calculated between the observed and predicted probabilities of the models (see Electronic Supplementary Material Appendix B). Attempted assessment of the Herder model was limited by the small number of patients undergoing PET-CT for subcentimetre PNs (required in the model). The results of this analysis are presented in Electronic Supplementary Material Appendix B only.
+Analyses were performed using SPSS for Mac Version 22.0.</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>The Kolmogorov-Smirnov test was used to assess a normal distribution of continuous variables. Results were described as median and interquartile range (IQR) for quantitative variables and absolute and relative frequencies for qualitative variables. Mann-Whitney U test or Kruskal-Wallis test were used to compare continuous data among groups, and chi-squared or Fisher’s exact test to compare categorical variables. A multivariate logistic regression model (backward stepwise selection, likelihood ratio statistic) was applied to assess whether the UCA and CL were independently associated with sPTB and to adjust for potential confounders (history of previous preterm birth, parity, body mass index, history of previous cesarean section, age, smoking, artificial reproductive techniques, and conization). If the potential confounder changed the estimate of the risk by 10% or more, it was considered sufficiently different and remained in the model. The relation between the UCA and CL and the risk of sPTB was analyzed using logistic regression and the estimated probability of sPTB by UCA and CL was calculated. Receiver operating characteristic (ROC) curves for the UCA and CL, and for a logistic regression model including the UCA and CL as predictive variables were obtained to determine the area under the curve (AUC) for the prediction of sPTB before 37 weeks and before 34 weeks. The resulting AUC were compared.21 The detection rates with a 95% CI for fixed false-positive rates of 5%, 10%, and 20% for the prediction of sPTB before 37 weeks and before 34 weeks were calculated based on the ROC curve for the UCA and CL and for the combined use of UCA and CL.
+Pregnancies that had an indicated preterm birth that were excluded from the analysis were as follows. All cases of indicated preterm birth before 37 weeks were excluded for the prediction of sPTB before 37 weeks. For the prediction of sPTB before 34 weeks, only cases of indicated preterm birth before 34 weeks were excluded; and all births ≥34 weeks remained in the analysis, including those cases of indicated preterm delivery over 34 weeks.
+A two-sided type I error of 5% was applied in the statistical tests. All analyses were performed using the statistical software package R version 3.6.022 and SPSS Statistics 22.0 (IBM Corp., Armonk, NY, USA).</t>
+  </si>
+  <si>
+    <t>Continuous variables are reported as means and standard deviations, and categorical variables as frequencies and proportions. For comparison purposes, we have reported the baseline characteristics of the Armenian population along with those of the cohorts that were used to develop the original and adjusted LH scores.16,17 Next, we have reported the observed mortality rates by LH score categories. Finally, we tested the effect of the individual components and composite scores on hospital mortality using univariable logistic regression analysis. To check the diagnostic accuracy of the composite scores, we measured the area under the receiver operating characteristic curve.19</t>
+  </si>
+  <si>
+    <t>Continuous variables were expressed as median with
+interquartile range and were compared using the MannWhitney U test. Categorical variables were compared
+using the chi-square test. Univariable and multivariable
+(backward selection) analyses were performed with
+ALBI and MELD for severe PHLF and mortality. In
+addition, individual score components, including total
+bilirubin, albumin, INR, and creatinine, were entered
+into a backward stepwise multivariable regression for
+severe PHLF and mortality. Receiver operator characteristic (ROC) curves were performed for severe PHLF
+and mortality for all patients and for those with HCC.
+An area under the curve (AUC) was also generated for
+ALBI and MELD. Results are reported as odds ratio
+(OR), 95% CI, and p value. Statistical significance was
+set at p &lt; 0.05, and all analyses were performed using
+SPSS, version 25 (IBM Corp).</t>
+  </si>
+  <si>
+    <t>Violin plots illustrate the distribution of normalized feature values for the top performing features between the two risk categories. Thus, high degrees of separation between the two distributions indicate a high level of discrimination from that feature. AUC curves indicate the true positive rate as a function of the false positive rate at varying confidence thresholds. The higher the area under the curve (indicated by the curve extending into the upper left quadrant), the more frequently the classifier is able to correctly identify the class, and the less frequently it is to falsely classify a case as positive. For comparison, a diagonal line extending from the bottom left to the upper right corner would indicate an AUC of 0.5, which is considered to be the equivalent of guessing.
+In order to demonstrate the significance of epithelial/stromal separation, we ran two sets of features using the optimized machine learning classifier and feature ranking algorithm. The two feature sets were: 1) nuclei features extracted from all nuclei, 2) nuclei features extracted from epithelial and stromal nuclei separately. The utility of separating epithelial and stromal nuclei prior to feature extraction was measured by comparing the AUCs between models trained from features with no epithelial/stromal separation, and epithelial stromal separation prior to feature extraction.
+Evaluation of models on external validation set
+In order to fully assess the effectiveness of the models generated, the models with the highest performance were used on an external validation set. Models were trained over the entire primary cohort before being applied without any retraining to the external validation set.</t>
+  </si>
+  <si>
+    <t>paper behind paywall</t>
+  </si>
+  <si>
+    <t>The prevalence of individual comorbidities and the overall comorbidity score were assessed by reporting source (all healthcare contacts, hospitalisation records only and delivery records only). The kappa statistic was used to examine the agreement between data sources for comorbidities that affected at least five women. The discrimination of the comorbidity index was assessed in each reporting source by constructing logistic regression models predicting either maternal end‐organ damage or extended length of stay for delivery using the continuous comorbidity score as the exposure variable and measuring AUC. The stratification capacity (proportion of women categorised as low and high risk) was assessed by examining the proportion of women allocated to each score, and calibration accuracy (correlation between predicted and observed outcomes) was assessed by examining the Brier score (the sum of the average squared error difference between the forecasted and observed outcome, with ‘0’ representing perfect forecasting) and what proportion of women in each comorbidity category experienced end‐organ damage or an extended length of stay for delivery. Finally, odds ratios and 95% CIs (derived from logistic regression) were used to illustrate the association between the comorbidity index and each outcome of interest. All analyses were conducted using Stata 12 SE (Stata Corp., College Station, TX, USA).</t>
+  </si>
+  <si>
+    <t>The chi-square test was used to evaluate the statistical significance of differences in the proportions of variables for the three cohorts. Overall survival (OS) was defined as the time from medical diagnosis to death from any cause. OS were estimated using the Kaplan-Meier method and compared using the log-rank test. Multivariate Cox proportional hazard regression was used to determine independent prognostic factors. The hazard ratio (HR) and corresponding 95% confidence interval (CI) were calculated. Statistical analyses were performed using SPSS 22.0. The C-indexes of two different models were compared as previously described (12). Statistical analyses were performed utilizing MedCalc 18.2.1. P&lt;0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Study subjects were pregnant women seen for prenatal ultrasound for standard indications, and in whom nuchal thickness measurement had been obtained between 14 and 24 weeks' gestation. Only chromosomally normal (apparent or confirmed) cases in which postnatal outcome (autopsy, neonatal echocardiogram, or clinical examination) was available were included in this study. Autopsy reports, neonatal cardiac echocardiographic report, or clinical examination by a pediatrician was reviewed to establish the presence or absence of a significant CHD. Approval for our study was provided by the Yale Institutional Review Board.
+Nuchal thickness was measured as previously described.6, 7 To be used in the study, the nuchal thickness values had to be expressed in millimeters and to an accuracy of 1 decimal place. Qualitative descriptions such as “increased” or “decreased” nuchal thickness in the absence of a record of the actual measurement in millimeters were grounds for exclusion.
+Midtrimester nuchal thickness measurement is known to vary significantly with gestational age.8 Normative data on nuchal thickness values and biparietal diameter were measured in a normal midtrimester population. A regression equation for the expected median nuchal thickness based on biparietal diameter was derived. This was reported in a prior study6 and the equation for expected median derived was NT = 2.8444 − (BPD × 0.0513) × (BPD2 × 0.0015). This eliminated variation in nuchal thickness measurement due to gestational age. The nuchal thickness values measured in the current study population was transformed to a multiple of the median by dividing the measured value by the expected median value based on BPD, by using the previously mentioned regression equation. We have previously demonstrated that the log-transformed nuchal thickness (multiples of the median [MoM]) values are normally distributed.
+By using different threshold nuchal thickness (MoM) values as a screening test, we determined the sensitivity and false-positive rates for detection of CHDs. Based on these values, we constructed a receiver operating characteristics (ROC) curve by plotting sensitivity against false-positive rate. The area under the curve and the P value of this area were used as a statistical test of the diagnostic accuracy of nuchal thickness for detecting postnatally confirmed CHDs.
+We assessed the diagnostic accuracy of nuchal thickness measurement for different categories of heart defects by constructing ROC curves and determining the area under the curves and P values.
+Current indications for fetal cardiac echo include: a prior child with CHD, maternal or family history of CHD, medication exposure, and pregestational diabetes. With the use of a stepwise logistic regression analysis, we compared the diagnostic accuracy of nuchal thickness measurement with established clinical risk factors.
+Patient-specific numerical estimates improve patients' understanding of their risk status. We therefore developed a technique for estimating patient-specific risk of fetal CHD based on background risk of major congenital cardiac defect (estimated at 4.4 of 1000), nuchal thickness value, and positive or negative likelihood ratio of each significant epidemiologic risk factor.
+The positive likelihood ratio of a risk factor was defined as sensitivity divided by false-positive rate and is applied if the patient has the particular risk factor. Negative likelihood ratio was defined as (1 − Specificity/Specificity) and was used if the particular risk factor was absent. The epidemiologic risk factors used in the risk estimation algorithm were those found to be significant in the logistic regression. Measured nuchal thickness is converted to MoM by dividing expected nuchal thickness based on measured biparietal diameter (by using the regression equation given above). The odds (likelihood ratio) of heart defect based on nuchal thickness value was derived from overlapping gaussian distributions of the log-transformed nuchal thickness (MoM) values in normal and anomalous (chromosomally normal with CHD) populations.
+The patient-specific risk was calculated in the following manner, assuming that nuchal thickness and positive family history are found to be the significant predictors of CHD based on the logistic regression and that a particular patient has a negative family history. Her fetal risk for congenital heart defect would be derived by multiplying background risk by likelihood ratio based on nuchal thickness (MoM value based on biparietal diameter) times negative likelihood ratio for (her negative) family history. Determination of individual risk was based on computerized calculations that used similar principles to those universally and clinically used for Down syndrome risk calculations based on multiple analytes and background (age-related) risk.9
+It is noteworthy that the majority of study patients did not undergo fetal or neonatal echocardiogram. In addition, the earliest midtrimester scan available (≥14 to ≤24 weeks) was used. Thus, the study cannot address the issue of the sensitivity of prenatal echocardiogram for the detection of CHD.</t>
+  </si>
+  <si>
+    <t>Receiver operator characteristic (ROC) curves in which
+sensitivity was plotted against false positive rates were used
+to compare the Down’s syndrome screening efficiency of
+nuchal thickness using MoM, PIN, and the actual nuchal
+thickness values in millimeters. We also compared their
+performance in the subgroup of fetuses ,18 weeks gestational age. This group represents the ideal period for
+prenatal screening in the second trimester.
+Gaussian curves for the distribution of nuchal thickness
+(MoM) measurements were plotted for both Down’s syndrome and normal populations after log10 transformation of
+the data. The mean and distributions of nuchal thickness
+values in the Down’s syndrome and normal cases was
+calculated using data from a total of 66 Down’s syndrome
+cases in which nuchal thickness measurements were obtained prospectively from 1990 to June 1997 and entered
+into our database. This number included most of the 50
+Down’s syndrome cases in the current prospective study. It
+should be noted, therefore, that the study population
+consisted of consecutive cases entered more recently into
+our database. Fetuses with cystic hygromas were excluded
+from the population used to determine nuchal thickness
+distributions in the Down’s syndrome and normal population. As is standard in serum screening, the mean was
+estimated from the median, and standard deviations were
+estimated robustly by subtracting the 10th and 90th percentiles, then dividing by 2,563 [9]. The truncation limits for
+nuchal thickness MoM values were determined from inspection of probability plots of centiles of nuchal thickness
+expressed in logarithm for normal and affected cases [10].
+Down’s syndrome likelihood ratios based on nuchal thickness (MoM) were derived from the height of the Gaussian
+curves [11].
+Down’s Syndrome likelihood ratios were also calculated
+using the PIN value by dividing the percentage of Down’s
+syndrome cases with a given PIN value by the percentage of
+normal cases with the same PIN value. The PIN was given a
+value of zero when the nuchal thickness measured less than
+the expected median. A regression equation expressing the
+Down’s syndrome likelihood ratios based on the PIN value
+was derived. The relationship between PIN and Down’s
+syndrome likelihood ratio was also expressed graphically.
+The sensitivity and false positive rates at different cutoffs
+for nuchal thickness (mm), MoM values, and PIN (percentages) were used to create ROC curves. For ultrasound
+biometry data to realize its full potential as a mid-trimester
+Down’s syndrome screening tool, one must be able to
+combine it with other risk predictors such as maternal age. We, therefore, evaluated the screening performance when
+nuchal thickness data were used to modify age-related risk.
+Since fetal nuchal thickness is independent of maternal age
+[4], this was accomplished by multiplying the age-related
+risk by the Down’s syndrome likelihood ratio at a given
+nuchal thickness MoM value. An ROC curve was developed by calculating the sensitivities and false-positive rates
+for Down’s syndrome detection at different risk thresholds
+based on combined (nuchal thickness MoM and age)
+screening. The same exercise was performed with PIN
+values after their conversion to likelihood ratios. The areas
+under the ROC curves were used to compare the screening
+efficiency of different parameters, e.g., MoM vs. PIN, and
+also to compare the different paradigms (e.g., maternal age
+vs. maternal age plus nuchal thickness). Such areas were
+calculated as previously reported [12].</t>
+  </si>
+  <si>
+    <t>This is a secondary data analysis of the REDUCE study, a three armed, randomized, double-blind, placebo-controlled study conducted in 21 hospitals in the Netherlands from July 2013 to December 2016 [7]. In this study, low-dose haloperidol was associated with neither delirium occurrence nor its duration, which allows the intervention and control groups to be merged into a single cohort. Among the 21 participating hospitals, 7 did not collect data on delirium and coma days, and therefore 283 of 1789 (15.8%) of the patients were excluded from the current study. Each day with at least one positive Confusion Assessment Method for the ICU (CAM-ICU) assessment was deemed a delirium day, and each day with at least one Richmond Agitation Sedation Scale (RASS) score of −4 or −5 was deemed a coma day [8,9]. When both delirium and coma occurred in the same day, the day was coded as a delirium day.
+Using the distribution (quartiles) of delirium days across the 28 days in the cohort, the 28-day delirium exposure was categorized as a none (0 days), short- (1 day), moderate- (2–5 days) or a long (≥6 days) exposure. Patients who died in the 28 day period and had delirium or coma in the day prior to death admission were included in the long-exposure group if they had at least one additional delirium day in the period since ICU admission. While data for the PRE-DELIRIC score was collected for all patients, the E-PRE-DELIRIC score was developed in the year after enrollment in the parent study started, and thus data to calculate a E-PRE-DELIRIC was not available for all patients [10,11].
+The correlation between days spent with delirium (and days spent with delirium or coma) in the 28-days after ICU admission and each delirium prediction model score was calculated using the Spearman's rho given the skewed distribution of the variables [5,12]. The discriminative value of the models for the four different delirium groups was analyzed using the area under receiver operating characteristics (AUROC). Continuous variables are presented as mean (standard deviation [SD]) or as median (first and third quartile [IQR]) and compared using one-way ANOVA or Kruskal Wallis test depending on their distribution. Proportions were analyzed using χ2-test. All statistical tests were 2-sided and statistical significance was defined as a P &lt; .05. Data were analyzed using IBM SPSS version 25 (Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>All diagnostic variables of routine clinical assessment (symptoms and signs) of the GP and the (mean and median) biomarker values are presented for subjects with a TIA or minor stroke and subjects with other diagnoses. Biomarker levels of both groups were compared using Mann-Whitney U tests. Three biomarkers showed test results below the detection range. In these cases, we assigned in our database a biomarker level fixed at 50% of the LOD, and we present the mean and median values of only those patients with values within the detection range in a separate table.
+Diagnostic accuracy measures were assessed for both clinical characteristics and biomarkers. We created receiver operating characteristic (ROC) curves and used the Youden index to determine the optimum cut-off of the biomarkers assuming an equal cost of misdiagnosis in each direction, and we present corresponding accuracy data.
+We performed multivariable logistic regression analyses to quantify the diagnostic accuracy of the strongest predictors of the clinical assessment (excluding additional examinations), and aimed to determine the improvement of diagnostic accuracy by adding biomarker assessment to these clinical determinants. Biomarkers with skewed distributions were logarithmically transformed before logistic regression analyses. Harrell’s rule of thumb was applied to determine the maximum number of determinants in our final multivariate model, that is, one determinant per 10 subjects in the smallest category of the outcome value (in our situation patients without TIA/minor stroke).15 In the multivariable analysis, we used stepwise backwards selection of variables, with a cut-off of p&lt;0.10.</t>
+  </si>
+  <si>
+    <t>Clinical and pathological characteristics were presented descriptively. Student’s t-test or nonparametric test for quantitative variables. The survival time was estimated from the date of diagnosis until death or last follow-up. Overall survival was estimated by Kaplan-Meier method and the log-rank test was used to compare the difference among groups. Sensitivity, specificity, positive predictive value (PPV), and negative predictive value (NPV) were used to describe the diagnosis accuracy of CT and MRI in detecting lymph nodes positive. ROC curve was used to describe the diagnosis value of the maximum diameter of lymph nodes in indicating lymph nodes positivity. Data were analyzed by SPSS (version 25, IBM Corp.) and GraphPad Prism 7 (GraphPad Software, Inc.). P values less than 0.05 were considered statistically significant.</t>
+  </si>
+  <si>
+    <t>For each variable listed above, univariate logistic regression analysis was performed using the training dataset to identify the potential predictors significantly associated with pathological LN metastasis (N+/N−). Variables with P &lt; 0.1 were considered significantly associated with LN metastasis and selected for the multivariate logistic regression analysis to construct a model for predicting LN metastasis. All statistical analyses were carried out with the R software package v. 3.5.3 (www.r-project.org). When using univariate logistic regression analysis to screen for risk factors, P &lt; 0.1 indicates that the factor was related to LN metastasis. For other statistical comparisons, P &lt; 0.05 meant statistically significant differences. The diagnostic efficiency of the model was judged by receiver operating characteristic (ROC) curve and area under the curve (AUC), and sensitivity, specificity, accuracy, positive predictive value (PPV), and negative predictive value (NPV).</t>
+  </si>
+  <si>
+    <t>All hemodynamic variables were analyzed as continuous variables
+and expressed as mean  SD. The normality of
+variables was tested using a KolmogorovSmirnov test for normality. All variables were
+normally distributed. The comparison before
+and after fluid infusion was done using a
+paired Student’s t-test. To assess the ability of
+cardiac filling pressures to distinguish between positive and negative responses to fluid
+challenge, we first compared the values of
+each filling pressure measured immediately
+before the fluid challenge using an unpaired
+Student’s t-test. Then receiver operating characteristic (ROC) curves were generated by
+varying the discriminating threshold of each
+variable. The area under the ROC curve was
+calculated and compared using a HanleyMcNeil test (7). The optimal threshold value
+(the value that maximizes the sum of the
+sensitivity and specificity) was also defined for
+each variable. The linear correlations were
+tested using the Spearman rank method. Statistical analysis was performed using Statview
+5.0 software (Abacus concepts, Berkeley, CA)
+and MedCalc 8.1.0.0 software (MedCalc, Mariakerke, Belgium). For all comparisons, a p
+value of .05 was considered significant.</t>
+  </si>
+  <si>
+    <t>Paired two-tailed t tests were used to perform comparisons pre- and post-salbutamol on IBM SPSS Statistics V.23.0 (SPSS Inc., Chicago, IL). The Holm–Bonferroni correction was used to adjust P values for all VDP and texture classifier multiple tests. To measure the performance of VDP and texture features as bronchodilator response classifiers, ROC curves were generated using GraphPad Prism V.6.04 (GraphPad Software Inc., San Diego, CA) from which the area under the ROC curve (AUC) was calculated. Methacholine response was used as the truth standard for ROC analysis. Pulmonary function measurements, VDP, texture features, and a VDP–texture composite classifier (calculated using a linear Bayes normal classifier) were evaluated for sensitivity and specificity. Linear regressions and Pearson correlation coefficients were generated using GraphPad Prism .</t>
+  </si>
+  <si>
+    <t>This analysis was confined to the 1393 study subjects who had not had a CHD event before their first HDL-C measurement. Differences in CHD risk factors between subjects with and without heart disease were assessed with the Student t tests and χ2 tests, as appropriate. Multivariable analysis was performed with a logistic regression model that included the CHD risk factors considered in the scoring models described above.
+The predicted number of CHD events was calculated with the Framingham and ESC prediction models. We calculated the κ statistic, a measure of agreement between the Framingham Heart Study and ESC scoring models, and the c-statistics for the respective models. The predicted 10-year risk of CHD events was grouped into 5 categories: low (&lt;5%), mild (5%-10%), moderate (10%-20%), high (20%-40%), very high (&gt;40%), as defined by the second joint task force of the ESC.13 This risk prediction model estimates the absolute 10-year risk of a coronary heart disease event on the basis of a patient's sex, age, smoking status, systolic blood pressure and serum total cholesterol. The observed incidence of clinical events in each risk category of this cohort of the Normative Aging Study was compared with the predicted incidence of clinical events, by use of both prediction models respectively.</t>
+  </si>
+  <si>
+    <t>The HOSPITAL score and LACE index were investigated as predictors of any cause hospital readmission within 30 days. Qualitative variables were compared using Pearson chi2 or Fisher’s exact test and reported as frequency (%). Quantitative variables were compared using the non-parametric Mann–Whitney U or Kruskal–Wallis tests and reported as mean ± standard deviation.
+The HOSPITAL score and LACE index were calculated for each admission. HOSPITAL scores of 0–4 points were classified as low risk for readmission (5%), 5–6 points intermediate risk (10%), and 7 or more points as high risk (20%) based on the initial validation study of the HOSPITAL score (Donzé et al., 2013).
+LACE indexes ranged from 0–19, with an expected probability for readmission of 0 to 43.7% based on the initial validation study of the LACE score (Van Walraven et al., 2010). We choose the LACE index of 10 or more as the cut point for high risk of admission, the predicted risk of readmission in the initial study mentioned above was 12.2% to 43.7%.
+These readmission risk predictions were used to calculate a Brier score.
+Most statistical analyses were performed using SPSS version 22 (SPSS Inc., Chicago, IL, USA).
+The Brier score was calculated with R version 3.3.1 (R Foundation for Statistical Computing, Vienna, Austria).
+Two sided P-values &lt; 0.05 were considered significant.</t>
+  </si>
+  <si>
+    <t>The relationship between the outcomes and the various factors were analyzed using the common method of logistic regression analysis (the enter method). Before entering the variables for the model, the univariate association was evaluated by paired or unpaired Wilcoxon’s signed-rank test or Fisher’s exact test. Then, the variables that were identified as significant were entered into the multivariate logistic regression model. The analysis was conducted using the outcome (survived, 1; died, 0) as the criterion variable and the patients’ age, body weight, baseline AT activity, AT activity change, baseline DIC score, DIC score change, infection site, history of surgery (yes, 1; no, 0) as the explanatory variables. The relationship between the post-treatment AT activity (≧ 73%, 1; &lt; 73%, 0) and the various factors were also analyzed by logistic regression analysis. ROC curve analysis was performed to calculate the optimal cutoff levels and to evaluate the areas under the curve (AUCs) of different indicators to compare their ability to predict the 28-day mortality. Results are reported as the odds ratios (ORs), p values, and 95% confidence intervals (CI). For all the reported results, p &lt; 0.05 was considered to denote statistical significance. The above-mentioned analyses were performed using SPSS 22.0 for Windows (IBM SPSS Inc., Chicago, IL).</t>
+  </si>
+  <si>
+    <t>P ≤ 0.05 (2 sided) was considered statistically significant. A Bonferroni correction was imposed to adjust for multiple testing in associations between SNP and CRC risk and between SNP genotype and CRC phenotype. Statistical analyses were principally performed by use of STATA, version 10.0, software (StataCorp LP, College Station, Texas). To test for population stratification, for each variant, we used the chi-square test to assess genotype frequencies for evidence of departure from Hardy-Weinberg equilibrium among control subjects. The CRC risk associated with SNPs was calculated by odds ratios using unconditional logistic regression. Recessive, dominant, or multiplicative (i.e., where the risk is the product of the risk associated with carrying 2 risk alleles) models were fitted on the log scale using logistic regression. The best fitting model of inheritance for each variant was individually determined by comparing the −2 times the log-likelihood of each model with a base model via a chi-square test with 1 df. Interaction between SNP genotypes was evaluated by likelihood ratio tests. We used logistic regression on the general model (i.e., individual SNP genotypes as indicator variables) to construct receiver-operating characteristic curves.
+The population attributable fraction ascribable to SNP genotypes was estimated by the formulae: 1 − Πi1 – ((xi − 1)/xi), where xi = (1 − p)2 + 2p (1 − p)OR1 + p2OR2, p is the population allele frequency, and OR1 and OR2 are the odds ratios associated with hetero- and homozygosity, respectively (23).
+Associations between SNPs and tumor site (colon and rectal cancer, International Classification of Diseases, Ninth Revision (ICD-9), codes 153 and 154, respectively), stage (Dukes’ A + B, C + D), grade (poorly, moderately/well differentiated), sex, age at diagnosis (≤49, ≥50 years), family history of CRC in first-degree relatives, and microsatellite instability status were tested among case subjects by using logistic regression only, with and without correcting for known confounders, such as age and sex.
+To enumerate the collective impact of SNPs on the familial CRC risk, we first estimated the cumulative probability of CRC in first-degree relatives of cases by the Kaplan-Meier product-limit method (24). The variance of the product-limit estimator was estimated according to the formulae of Greenwood (25) and was used to calculate 95% confidence intervals. First-degree relatives were censored at the date of pedigree ascertainment, emigration, or last contact with the case. CRC incidence in first-degree relatives was truncated at age 80 years to avoid miscertification of registered cancer diagnosis and death. Comparison of CRC risk in first-degree relatives with the risk in the general population for England and Wales was based on 1998 rates (Office for National Statistics; http://www.statistics.gov.uk) using the formula 1 − e−cumulative incidence. Expected numbers of CRCs in first-degree relatives were calculated by adjustment for age, sex, and calendar-period incidence rates for England and Wales (1971–2004) using the Person-Years program (26). Observed numbers were compared with expected numbers by means of the standardized incidence ratio assuming a Poisson distribution. Poisson regression was used to calculate the proportion of the phenotypic variance in familial risk associated with SNPs using age-, sex-, and calendar-adjusted expected numbers rates and observed numbers for families.</t>
+  </si>
+  <si>
+    <t>The sample size was based on a power analysis using previous [16] T1 mapping results in acute viral myocarditis compared with healthy controls, presuming similar T1 values in acute viral myocarditis and IIM myocarditis. A necessary sample size of 19 patients and 19 controls was calculated with an α-error of 0.05 and a power of 90% to differentiate cardiac inflammation from normal myocardium with native T1. Comparison of IIM patients and controls was done with non-parametric Mann-Whitney test for continuous and Fisher’s exact test for categorical variables. Quantitative measures obtained in the IIM subgroups were compared using a Kruskal-Wallis test. ROC analysis was used to obtain the best discriminating parameter in skeletal and myocardial muscles to differentiate IIM patients and controls. Any p &lt; 0.05 was regarded as significant. Statistical software package Stata software (Version 11.2, Stata Corp) and GraphPad Prism (Version 7.1, GraphPad Software Inc) were used.</t>
+  </si>
+  <si>
+    <t>Differences in distribution of categorical variables were assessed using chi-squared test and reported as frequencies with percentages; continuous variables were reported as median with interquartile range (IQR) and compared using the Kruskal-Wallis test. Adjusted multivariable logistic regression models including variables selected a priori were used to derive the hepatectomy and pancreatectomy SRRA models. AUCs were used to evaluate the performance of hepatectomy and pancreatectomy SRRA models, modified RRS after hepatectomy, modified RAP score after pancreatectomy, the LACE Index, LOS/2 + ASA integer-based score, Unplanned Readmission Nomogram Score, and ARIA in hepatectomy and pancreatectomy validation cohort. Analysis was performed using R (v4.0.2, R Foundation for Statistical Computing, Vienna, Austria) and SAS software 9.4 (Cary, North Carolina).</t>
+  </si>
+  <si>
+    <t>The Mann-Whitney U-test and Kruskal-Wallis analysis of variance test were used to analyze differences in quantitative data. The discriminative ability of the scoring systems to predict outcomes was evaluated by receiver operating characteristics curves (ROC) with 95%CI. The areas under ROC (AUROC) curves were compared using the method of Delong et al[26] (1988) for the calculation of the standard error of the Area Under the Curve (AUC) and of the difference between two AUCs. The optimal thresholds of the GBS, RS and BBS for the prediction of rebleeding, death, and needs for blood transfusion and/or surgical intervention were identified as the threshold associated with the highest Youden index[27]. A two-tailed significance level of 5% was used in all comparisons. All analyses were performed using a statistical package MedCalc for Windows, version 15.8 (MedCalc Software, Ostend, Belgium).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data presented are expressed as mean ± SEM unless otherwise indicated. Group characteristics were compared with the non-parametric two-sided Wilcoxon signed rank test. Different markers were compared with a similar test on the z statistics normalizing control group scores to zero mean and unit variance.
+High risk and low risk thresholds of the individual continuous markers were determined by two methodologies, either to reveal stratifications quantitatively identical to those by the categorical scoring (C) or based on quartiles. Odds ratios for quartiles and for high risk versus low risk and their confidence intervals were computed with the Mantel–Haenszel 95% confidence interval. Logistic regression models were used for adjustment for density and for odds ratio per standard deviation analysis. Differences in odds ratio were tested with likelihood ratio tests.
+The area under the ROC curve (AUC), its standard deviation, and significant differences of AUCs were computed with the method of DeLong et al. [22].
+Correlations were computed using Kendall's tau stratified into diagnosis groups to remove the influence of diagnosis.
+The uncertainty in the model of the aggregate mammographic marker (A) was analysed for the influence of the individual data points in a leave-one out fashion.
+All tests were two-sided and considered significant when p &lt; 0.05.
+</t>
+  </si>
+  <si>
+    <t>Brier score difference</t>
+  </si>
+  <si>
+    <t>Descriptive statistics (mean ± standard deviation or percentage) for all the variables of the analysed participants were
+first calculated. Then, the one-way analyses of variance
+(ANOVA) (continuous variables) and the chi-squared test (categorical variables) were conducted to examine potential differences in terms of general characteristics between males and
+females and samples A and B. Afterwards, receiver operating
+characteristic (ROC) curve analyses were used to estimate the
+accuracy of the daily step-based indexes related to achieving or not achieving the recommended 60 minutes per day of MVPA
+(Bossuy et al., 2015). The parameters were set as follows: (a) the
+nonparametric method for curve fitting; (b) the DeLong
+method for confidence interval, and (c) the Youden method
+for the optimal cut-point (Goksuluk et al., 2016). The areas
+under the ROC curves (AUC) and the partial AUCs (with values
+range from 0.80 to 1.00) were calculated (Goksuluk et al., 2016).
+Moreover, sensitivity and specificity were calculated to provide
+the test accuracy in terms of adolescents’ population (Mallet
+et al., 2012). Sensitivity was referred to as the probability of
+correctly detecting adolescents who met the daily MVPA
+recommendation, and specificity referred to those who did
+not meet it. Positive predictive value was estimated to examine
+the probability that a particular adolescent with a given positive test result met the daily MVPA recommendation, whereas
+the negative predictive value was estimated to detect those
+adolescents with a given negative test result (Mallet et al.,
+2012). Positive and negative likelihood ratios were used to
+calculate the role of a test result in changing an estimate of
+the probability of meeting the daily MVPA recommendation in
+a particular adolescent (Mallet et al., 2012). Proportion of agreement (P) and Kappa coefficient (k) were calculated to examine
+the agreement between the step-based indexes and the reference standard (Hernaez, 2015). Finally, multiple ROC curve
+comparisons were performed using the Bonferroni method
+(Goksuluk et al., 2016).
+Since imputation of the missing data requires strong
+assumptions that are hard to justify (Streiner, 2008), “complete
+case” analyses including only those whose all the outcomes
+were known were used (i.e. 351 participants). A priori sample
+size calculation was estimated with the method of comparison
+of the two tests. The parameters were set as follows: Type
+I error = 0.05, Power = 0.80, AUC for the first/second test
+under null hypothesis = 0.50, AUC for the first/second test
+under alternative hypothesis = 0.90/0.70 (based on MayorgaVega et al. (2019)), and allocation ratio = 4 (based on World
+Health Organization (2014)). A final sample size of 180 adolescents was estimated. All statistical analyses were performed
+using the Web-tool easyROC version 1.3.1 (Goksuluk et al.,
+2016), except for P and k, which were performed using the
+SPSS version 25.0 for Windows (IBM® SPSS® Statistics). The
+statistical significance level was set at p &lt; 0.05.</t>
+  </si>
+  <si>
+    <t>For predictive modelling, we adopted a recently established statistical technique L1-penalised continuation-ratio model for ordinal outcomes [28]. Different from traditional ordinal regression models that assume monotone effects of predictor variables [29], the continuation-ratio model uses separate coefficients for different outcome classes, at the same time automatically selects highly predictive variables (and their time scales) for each class. As prior studies suggest that predictors of the two classes may be different [30], it is desirable to model the moderate-risk and the high-risk classes using separate coefficients. The variable selection capability comes from the lasso-like shrinkage [31] that forces variables with weak association with the outcomes to have zero coefficients. The shrinkage strength was adjusted so that the predictive performances on the derivation and validation cohorts were similar, and thus ensuring no over-optimism in the estimated model [32].
+A single prediction risk score was computed, representing the expected lethality level. The risk score takes a value from 0 to 2, with 0, 1, and 2 representing low, moderate, and high risk respectively. This score results in a simple decision rule: Given two thresholds in the range 0 – 2, the outcome class is low-risk if the score is less than the lower threshold, moderate-risk if the score is below the upper threshold and high-risk otherwise. The thresholds can be adjusted according to the clinical need.
+The contribution of individual risk factors toward each risk class was assessed using bootstrap. That is, the models were estimated multiple times from bootstrap samples, and variable coefficients were then collected and statistics were derived. Among them are Wald statistics, confidence intervals, variable importance, and selection probability. Variable importance is defined as the product of absolute mean coefficient and variable standard deviation. Selection probability is the chance that a variable is being selected by applying the lasso shrinkage.
+Model validation
+To assess the performance of prediction methods, the 7,399 patients were randomly divided into a derivation cohort of 4,911 patients and a validation cohort of 2,488 patients. The risk score assigned by the predictive model and clinician-assigned overall risk were validated against true outcomes on the validation cohort. The risk score makes it simple for estimating performance measures for multiple binary decisions such as high-risk versus the rest, or moderate/high-risk versus low-risk. We reported here Area under the ROC Curves (AUC), sensitivity and specificity. The confidence intervals for these measures were estimated using bootstrap.</t>
+  </si>
+  <si>
+    <t>The study population was randomly divided into training (123 cases, 258 controls) and validation sets (123 cases, 264 controls), while retaining the matched nature of the data. Although controls had been matched to the cases, unconditional logistic regression was used to test for associations between the mammographic features and breast cancer case-control status. This approach provided a more natural structure under which to perform our entire suite of analyses, including the calculation of concordance statistics and repeated bootstrap sampling and analysis. Breaking the matches, and performing analysis using unconditional logistic regression, provided results that were comparable to what would have been observed in the matched analyses, since the distributions of the matching variables remained consistent between cases and controls even after the explicit matching was dissolved. We verified the comparability of results from conditional and unconditional logistic regression approaches on selected analyses.
+A series of logistic regression based analyses were carried out to identify features that were associated with breast cancer case-control status. Initial analyses were performed within each class of features (i.e. Markovian, run length, Laws, wavelets, and Fourier), and later analyses were performed across these classes. Due to the strong correlation among some features within each class, a bootstrap-based variable selection procedure was used to identify the subset of features most strongly associated with breast cancer. Five hundred bootstrap samples of the same size as the original collection of cases and controls in the training set were selected with replacement from the training set. For each bootstrap sample, a stepwise logistic model selection procedure was carried out. This identified the subset of features most strongly associated with breast cancer in the bootstrap sample. Features in this model were recorded and the process was repeated for each bootstrap sample. The number of times each feature appeared in the final stepwise-selected logistic regression model was tabulated.
+The features that were most frequently retained in the models specific to each bootstrap sample were considered to be candidate variables for the specific class of image features being considered. These features were then entered into a multiple logistic regression model, which was subsequently simplified using a backward elimination procedure: the least significant features were removed, one at a time, until all variables in the final model were significantly (p&lt;0.05) associated with breast cancer case-control status. The features identified through these model selection procedures were then assessed in the validation dataset. This was done by applying the regression coefficient, estimated from the training data set, from the identified feature to the measurements of that feature from the images in the validation dataset. The resulting score was assessed for significance in a simple logistic regression model, and the validation concordance statistic was computed.
+For the features that validated within each class, models were then re-fit on the entire dataset. These models were used to obtain estimates of odds ratios, confidence intervals and concordance statistics. Because age, BMI, and PD are known to be strongly associated with risk of breast cancer, ORs and c-statistics were also estimated after adjusting for these factors. To measure the predictive precision of each feature, the concordance or c-statistic, also known as the area under the receiver-operator characteristic (ROC) curve (AUC), for a logistic regression model was calculated. This statistic measures how often the model correctly identifies the case in a random case-control pair as having a higher risk. Values of this statistic range from 0.0 (perfect incorrect prediction) to 0.5 (chance) to 1.0 (perfect prediction).
+In an attempt to combine all features across the different classes into one model, a final bootstrap procedure similar to the one used within each class of features described above was performed where the final validated features from each class were considered to be the only candidate features. As in the individual classes of features, the top selected features were removed by a backward elimination procedure until only those with p&lt;0.05 remained. Two sided p-values were obtained for all tests. SAS software (Cary, NC) was used for all analysis.</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed using SPSS 11.0 (Statistical Package for Social Sciences Inc, Chicago, Ill). Groups were compared at baseline using analysis of variance (ANOVA) test for continuous data and the Chi-squared test for categorical data. In line with published guidelines, 14 we defined primary patency as graft patency without a significant stenosis requiring intervention. Primary-assisted patency was defined as graft patency after intervention for a graft stenosis. Intraoperative Doppler measurements were compared using the Mann-Whitney test and the predictive value of these measurements to predict graft outcome were further assessed with receiver operating characteristics (ROC). Kaplan-Meier plots were used to assess patency rates over time, which were estimated by life-table analysis and compared with the log-rank test. A P value of less than .05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Pearson correlation coefficient was used to assess the correlation   between   the   ESS   score   and   mean   sleep   latency  on  MWT.  Difference  of  the  ESS  score  between  normal and abnormal MWT categories was calculated by using  unpaired  student  t-test.  The  receiver  operating  characteristic  analysis  was  done  to  evaluate  how  well  the ESS  distinguishes  drivers  with  normal  from  those  with  abnormal  MWT. P  value  less  than  0.05  considered  as  significant.  Statistical  analysis  was  done  by  using  SPSS 15 software.</t>
+  </si>
+  <si>
+    <t>The wound classification, duration of the procedure, and ASA
+score for each patient were obtained from operating room
+records and used to calculate each patient’s NNIS risk index,
+as described by Culver et al.3 Additional potential risk factors
+for SSI, including demographic characteristics, inappropriate
+antibiotic prophylaxis, and intraoperative variables, were ascertained by review of inpatient medical records. All patients
+were followed up for at least 30 days postoperatively unless
+death occurred before that time. For our model, patients were
+classified as having either an SSI or no SSI, which was used
+as the dichotomous outcome variable. Although the timing
+of perioperative antibiotic prophylaxis is a known risk factor
+for SSI,6 this could not be assessed because all case patients
+had appropriate timing of antibiotic prophylaxis documented
+in the medical record. Data were analyzed using Stata statistical software, version
+9.0 (Stata). Categorical variables were described as counts and
+percentages, and compared by the Fisher exact test. Continuous variables were described as mean, median range, and
+interquartile range values, and were compared by the Wilcoxon rank sum test. The original NNIS risk index was calculated for each patient (risk index model 1). Modified risk
+indexes were then created by the addition of new variables, including age, duration of cardiopulmonary bypass, use of
+inotrope or prostaglandin preoperatively, prematurity, and
+duration of preoperative hospitalization (risk index models
+6-18). Multivariable logistic regression analysis was used to
+calculate odds ratios to measure the association between the
+risk index scores and SSI. Receiver–operating characteristic
+(ROC) curves were created after logistic regression analysis.
+The area under the ROC curve (AUC) that resulted from
+these analyses was used to evaluate the accuracy of the original
+NNIS risk index and the modified risk indexes.7 An ROC
+curve is constructed by plotting the true-positive rate (sensitivity) against the false-positive rate (1_x0001_specificity) over the
+range of scores for a given risk index. The AUC determines
+the accuracy of a test independent of the positive test result
+threshold. An AUC value of 1.0 indicates that the test has
+perfect discriminatory ability. Some investigators have suggested that an AUC of 0.7 is a reasonable lower threshold for
+concluding that a test has sufficient discriminatory value to
+be useful in practice.8,9 With a prevalence of 25% in the
+control population, our target ratio of 4 or more control
+patients per case patient allowed us 80% power to detect an
+odds ratio of at least 2.8, with a significance level of .05.</t>
+  </si>
+  <si>
+    <t>Descriptive statistics were calculated for the entire cohort and subgroups of interest. Demographics, presenting vitals and laboratory test results, culture data, and treatment data were compared between groups using the Student t test and the χ2 test. Normality was assumed by the central limit theorem. Reference Kutner24 Use of early antibiotics and culture positivity were compared among ordinal SIRS groups (ie, 0–4) using the χ Reference Álvarez-Lerma, Grau and Echeverría-Esnal2 test with Bonferroni correction (significance level &lt; .005).
+The odds of receiving early antibiotics or having a positive blood culture, as predicted by presenting vitals and laboratory test results, were modeled using binomial regression. Candidate regression models were optimized using stepwise regression, and final models were chosen by the lowest corrected Akaike information criteria score. Outcomes of interest were modeled against categorical SIRS criteria and ordinal SIRS. The area under the curve (AUC) was used to determine model predictive ability. Dummy variables to control for initiation of the antibiotic time-out procedure and adoption of NEWS were included as controls but not reported.
+For all analyses, P values &lt; .05 were considered significant, except where Bonferroni correction was applied, as detailed above. Data analysis was conducted using R Studio version 1.2.5033 software (R Foundation for Statistical Computing, Vienna, Austria) and Microsoft Excel version 16.29.1 (Microsoft, Redmond, WA).</t>
+  </si>
+  <si>
+    <t>Data were described as median and interquartile range or mean
+and sd. Qualitative values were compared using chi-square
+test. Quantitative variables were compared using the Student
+t test or the nonparametric Wilcoxon test or Mann-Whitney
+U test. Correlation tests were performed by using the Spearman correlation coefficient. Receiver operating characteristic
+(ROC) curves were plotted to evaluate diagnostic performance
+of RI, [TIMP-2] × [IGFBP7], fractional excretion of sodium
+(FeNa), and sCr to diagnose a persistent AKI. Area under the
+curves (AUCs) values were compared using the DeLong’s nonparametric approach (25). Optimal cutoff was defined using
+Youden’s J statistic (26).
+Based on previous study (18), the sample size was calculated
+as follow. Assuming a RI of 0.69 in patients with transient AKI
+and a sd of 0.08, using a two-sided test with an α-risk (type
+I error) of 5% and a statistical power of 80%, we needed 42
+patients per group to detect a 15% absolute difference in RI
+between patients with transient AKI and those with persistent AKI. Taking into account a rate of failure to obtain RI of 10%
+and a rate of failure to measure urinary biomarker of 10%, we
+would be needed 100 patients.
+We performed logistic regression to identify variables significantly associated with persistent AKI. Given the number
+of events (50 patients with persistent AKI), we selected five
+variables according to their clinical relevance and statistical
+significance in univariate analysis (27). Selected variables were
+“Vasoactive drugs,” “Renal resistive index,” “SOFA,” “Diagnosis,”
+and “Lactate.” Then, a conditional stepwise regression was used
+to select the most informative variables. A p value of less than
+0.05 was considered statistically significant. Statistical analysis
+was performed using R Software Version 3.3.1 (R Foundation
+for Statistical Computing, Vienna, Austria).</t>
+  </si>
+  <si>
+    <t>Development of SAS-LT A SAS for liver transplant (SAS-LT) was developed using lowest intraoperative HR, lowest MAP, and transfusion volume. Lowest HR and MAP were categorized based on the cutpoints specified by the SAS.12 Transfusion volume was analyzed as a continuous variable, and also categorically with cutpoints established after reviewing receiver operating characteristic (ROC) curves. Blood transfusion volume was divided into quartiles, and a score from 0 to 3 was assigned according to descending quartiles with adjustment of volumes to nearest 1000-mL value.
+Outcome Prediction The classificatory ability of the SAS-LT, SOFA, APACHE 3, and MELD scores for death or severe complications were compared by ROC analysis. The associations of scoring systems with death or severe complications were analyzed separately for dichotomous outcomes using multivariable logistic regression. Additional ROC analysis was also performed using the SAS-LT components as continuous variables both combined and individually. Area under the curve (AUC) estimates for individual SAS-LT components were obtained by logistic regression models. Two-tailed P values of 0.05 or less were considered statistically significant, and findings were summarized using point estimates and 95% confidence intervals.</t>
+  </si>
+  <si>
+    <t>Normally distributed continuous variables were expressed as means ± standard deviations, and nonnormally distributed continuous variables were presented as medians (interquartile ranges). Categorical variables were expressed as numbers and percentages. The patients were classified into two groups according to the SARC-F score: SARC-F &lt;4 and SARC-F ≥4 [29]. Baseline patient characteristics and the prevalence of sarcopenia were compared between the two groups using the unpaired Student's t test, Mann-Whitney U test, or χ2 test, as appropriate. In addition, we evaluated the sensitivity, specificity, and positive and negative predictive values. The areas under the curves (AUCs) for the SARC-F scores, defined by the AWGS2019 diagnostic criteria, were computed, and receiver operating characteristic curve analysis was performed. Furthermore, the sensitivity, specificity, and positive and negative predictive values of each SARC-F score were calculated to investigate the screening accuracy of SARC-F for sarcopenia (as defined by the AWGS2019). The analyses were performed using Stata version 16.1 (Stata Corp LP, College Station, TX, USA). A two-tailed p value of &lt;0.05 was considered to indicate statistical significance.</t>
+  </si>
+  <si>
+    <t>Continuous variables are expressed as mean±standard deviation or median with interquartile range and compared using the Student t test (for parametric variables) and Mann-Whitney test (for nonparametric variables). Distribution of continuous variables was tested for skewness using the Kolmogorov-Smirnov test and graphically displayed. Categorical data are expressed as percentage and compared by using χ2. To assess composite outcomes, univariable and multivariable Cox proportional hazards analyses were used. For univariable analysis, individual associations of relevant predictors, known to be associated with survival in this population, were tested. Subsequently, we created a parsimonious multivariable model incorporating various relevant variables that are typically associated with survival in such patients. As we have demonstrated in a previous study, even though STS score has only been validated to predict 30-day postoperative mortality, we used it in the survival analysis, because it is a composite of many factors that are known to be associated with adverse postoperative events in the long term.20 An interaction term of aortic surgery and aortic area (root or ascending aorta) ≥10 cm2/m was entered in the multivariable model. For the secondary outcomes, patients that had a documented noncardiac death were censored at the time of event. Hazard ratios (HRs) with 95% confidence intervals (CIs) were calculated. In addition, Kaplan-Meier survival curves were generated to determine the cumulative proportion of events as a function over time, and compared using the log-rank statistic. We assessed the classification of risk using categorical and continuous net reclassification improvement (NRI). In addition, discriminative ability of various survival models to predict mortality was compared using the c-statistic.21 Statistical analysis was performed using SPSS version 11.5 (SPSS Inc), Stata version 10.0 (StataCorp), and R 3.0.3 (R foundation for Statistical Computing). A P value of &lt;0.05 was considered significant.</t>
+  </si>
+  <si>
+    <t>Individual and per-reader group (experts and novices) sensitivity, specificity, and positive and negative likelihood ratios were calculated for each of the reviewers. Diagnostic accuracy (true positive + true negative/true positive + false positive + false negative + true negative) and precision (true positive/true positive + false positive) were also calculated. In addition, individual and summative receiver operating characteristic (ROC) analysis was undertaken. The ROC curve is initially constructed by plotting the sensitivity and the false positivity (1-specificity) for each reviewer. The ROC curve is constructed to fit these points. The area under the ROC curve (AUC) is then calculated. An AUC close to 1.0 signifies that the test has near perfect discrimination, whereas an AUC close to .5 suggests poor discrimination.24 The AUC comparison was performed by comparing the square of their standardized difference with the quartiles of the χ2 distribution. The analyses were performed with Stata 13 (Copyright 1996–2013 StataCorp LP, College Station, Tex) using the function “roccomp” as described in detail elsewhere.25, 26
+Interobserver agreement, for each group and for each reviewing session, was measured by the kappa statistic using the Randolph's free-marginal multirater kappa; k).27 Brennan and Prediger28 suggested using free-marginal k when raters are not forced to assign a certain number of cases to each category and using fixed-marginal k when they are. A negative value represents agreement worse than chance, whereas values in the range of 0 to .25, .25 to 0.50, .50 to .75, and .75 to 1.00 represent poor, fair, good and near-perfect agreement, respectively.29</t>
+  </si>
+  <si>
+    <t>A quantitative assessment of the brain images was performed by calculating the percentage of voxels with an ADC value of less than 0.650 × 10−3 mm2/s (PV650) and by calculating mean ADC values in 11 regions of interest as well as the whole brain, which results in the parameter of mean whole brain ADC value (MWB ADC). This is done by an in-house developed software (Matlab R2011a, The Matworks, Massachussets) that measures mean ADC values for the predefined regions of interest in normalized brain images. For each patient, DWI and ADC maps were co-registered to the anatomical images, followed by affinely normalizing the co-registered DWI scans to the MNI template (EPI template, Montreal Neurological Institute atlas) using SPM12 in Matlab (Mathworks) resulting in normalized DWI scans and ADC maps. The following regions were analyzed: frontal, parietal, temporal, occipital, precentral and postcentral cortex, caudate nucleus, putamen, thalamus, cerebellum, and pons.
+Statistical comparison of quantitative values (MWB ADC, PV650) between good and bad outcomes was done using Mann-Whitney U tests, with a p value of &lt; 0.05 indicating a statistically significant difference.</t>
+  </si>
+  <si>
+    <t>To survey the general relationships between test predictor variables and driving outcomes, correlations between the ADReS and other cognitive predictors and driving scores were first analyzed using Pearson correlation coefficients. Because individuals with visual field defects were excluded from participation, visual field rating was not included in analyses. Visual acuity was not used in analyses of the conventional rating method for the ADReS, because the recommended cutoff was worse than the state-mandated exclusion, but it was included in the revised modeling analyses to explore whether lesser degrees of acuity than 20/50 could contribute to driving impairment.
+A binary outcome for the RIRT was obtained by collapsing the marginal and fail groups into a category called “unsafe” and contrasting them with study participants who passed the test, labeled as “safe.” Based on published recommendations,4 there is no total score for the ADReS. The discriminatory ability of the ADReS test battery was analyzed using receiver operating characteristic (ROC) curves, generated first by components based on recommended cutoffs and then according to the composite decision-making rule that results in a driver being declared unsafe if at least one of the ADReS components falls below the cutoff. Because of the low frequency of impaired driving in cognitively normal participants, ROC curves were evaluated only for the full sample and the cognitively impaired subsample.
+These analyses were followed by logistic regression modeling of the ADReS component scores, with backward elimination used to simplify the number of test components. In a subsequent model elaboration phase, demographic characteristics from Table 1 (age, sex, educational history) and additional tests from Table 2 (MMSE, Trails A, computerized maze, SMT) were considered for inclusion. For trails and mazes, the relative merits of including error scores versus completion time were evaluated in terms of improvements in predictive performance. Therefore, 10 additional variables were considered for inclusion in this phase. When a regression model is validated on the same sample as the one used to develop the model in the first place, classification accuracy is likely to be overestimated, because the data are effectively being used twice.16 The degree of overoptimism can be evaluated using resampling procedures, such as cross-validation or bootstrapping.17 In this analysis, the generalizability of the findings was assessed using the 0.632 + bootstrap method, which eliminates biases due to the size of the training set and the amount of overfitting.18</t>
+  </si>
+  <si>
+    <t>The normality assumption was tested using the Kolmogorov–Smirnov test and visual assessment. Continuous variables are presented as median and respective inter quartile range (IQR) and categorical variables are presented as frequencies and respective percentages. Confidence intervals of proportions were calculated using the Agresti-Coull method. Using logistic regression with functionally relevant CAD as outcome, interleukin-6 concentrations were adjusted for patient characteristics, risk-factors and treatment, and combined with the clinical assessment of the treating physician before and after stress testing. Diagnostic accuracy of the clinical assessment, interleukin-6, and their combination for functionally relevant CAD was quantified by the area under the receiver operating curve (AUC) and compared with the method described by DeLong et al. [33]. Interleukin-6 cutoffs for pre-defined target sensitivities and specificities for functionally relevant CAD were derived and the incidence of criteria calculated.
+Cox regression analysis was used to evaluate whether interleukin-6 was a predictor of all-cause death, cardiovascular death and acute myocardial infarction independent of patient characteristics, risk-factors and elective revascularization within 90 days after MPI-SPECT examination. To adjust for possibly uncontrolled other inflammatory systemic disorders, the equivalent Cox regression analysis was performed while excluding the 5% of patients with the highest interleukin-6 concentrations. Time dependent AUCs were used to quantify the predictive accuracy (discriminative ability) of the biomarkers for all-cause death within 2 years, cardiovascular death within 2 years and acute myocardial infarction within 2 years, while accounting for censoring and competing risks [34].
+Kaplan-Meier curves for interleukin-6 concentrations below and above the median were constructed for 2-year all-cause death as well as 2-year cardiovascular death and compared by log rank testing. Statistical analyses were performed with SPSS version 25.0 and R version 3.4.2. All hypothesis testing was two-tailed, and a p-value &lt; 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>We constructed a retrospective cohort of 145 consecutive patients admitted to the intensive care unit (ICU) at Tufts University Medical Center who had achieved return of spontaneous circulation (ROSC) after undergoing either in-hospital or out-of-hospital cardiac arrest. All patients had undergone serial assessment of cTnT during ICU care after achieving ROSC. These cTnT were obtained from chart review. For the purposes of our study, the first cTnT on arrival to the ICU was referred to as the “initial” troponin. “Peak” cTnT, the highest recorded cTnT during hospitalization, was also recorded. Standard troponin assay protocol was followed, wherein cTnT levels were tested every 6 h. The number of tests before peak cTnT levels were reached were not recorded.
+Two cardiologists independently adjudicated the aetiology of cardiac arrest for all patients, and any discrepancies were resolved with mutual agreement. A transthoracic echocardiogram (TTE) had also been performed on all patients to assess presence of LVSD, defined as regional or generalized wall-motion abnormalities of left ventricular myocardium. Ejection fraction (EF) during the first 24-h period following cardiac arrest was measured. Lastly, survival to hospital discharge was also recorded.
+Values of cTnT were iteratively evaluated at different thresholds to define a positive value, including 0.01 ng/mL (clinical cutoff), 0.1 ng/mL (10× clinical cutoff), 1.0 ng/mL (100× clinical cutoff), and 10 ng/mL (1000× clinical cutoff), to determine their clinical utility in predicting outcome variables using area under the receiver operating characteristic curves (AUROC).
+Statistical analyses were conducted at the University of Texas Southwestern Medical Center using SAS software, release 9.3 (SAS Institute, Cary, NC) for Windows (Microsoft, Redmond, Washington). P &lt; 0.05 was set as the level of statistical significance, and tests were two-sided.</t>
+  </si>
+  <si>
+    <t>Characteristics of RA cases and controls were summarized by means and standard deviations for continuous variables and frequency and percent for categorical variables. Data for NHS was presented separately from data from EIRA. All analyses were performed using SAS version 9.1 or version 9.2 (SAS Institute, Cary, NC).</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed using SPSS v26 (IBM, Armonk, NY) and SAS v9.4 (SAS Institute, Cary, NC). Group comparisons of categorical variables in frequencies and percentages were performed using the Chi-squared test or Fisher exact test. Group comparison of continuous variables in medians and interquartile ranges (IQR) used the Mann-Whitney U test. For all analyses, a p &lt; 0.05 was considered to be statistically significant with correction for multiple comparisons with the false discovery rate where appropriate.
+Clinical variables were analyzed as a function of days from outcome with time-locked to day of death (non-survivors) or discharge (survivors). Clinical variables were compared between groups at each time point with linear mixed models that included demographic information such as sex, age, ethnicity, and comorbidity as covariates. Within-subject correlation was adjusted in the linear mixed models using covariance (i.e., compound symmetric, autoregressive, or unstructured) matrices.
+The temporal fluctuation of each clinical variable between groups was calculated by taking within-subject standard deviation across time normalized by mean, excluding the three time points closest to death or discharge to avoid possible spikes closer to the day of death. The medians of within-subject standard deviations were compared between the non-survivors and survivors using the Mann-Whitney U test.
+Univariable logistic regression models were first built using individual clinical variables to predict outcomes on each day separately. Prediction performance was evaluated by area under the curve (AUC) of the receiver operating characteristic (ROC) curve. The Stony Brook University Hospital data were split into 80% for training and 20% for testing. The average ROC curve and AUC were obtained with five runs. Using ROC analysis, the top earliest predictors were identified. Instead of calibration measures (e.g., calibration slope), we demonstrated consistency through internal and external validation and systematically selected top variables for prediction. We started with univariable models (single predictor) and evaluated different combinations of 12 variables. We further constructed models using combinations of top predictors that included top three, top five, and top seven clinical variables. AUCs with the top 3, 5, or 7 variables for all three analysis cohorts were analyzed to verify consistency of top predictors across models. These were done for different days prior to outcome separately. For comparison, prediction performance using clinical variables at admission of the same dataset was also computed. In addition, Tongji Hospital data were also used as a “testing” dataset for external validation.
+To avoid the potential of overfitting, for training, we performed univariable analysis first and identified 12 laboratory measures and vital signs to build the predictive model to predict mortality. Then we performed variable selection and used top 3, 5, or 7 variables to present results. No more than 10 variables were included in one model at any given time for a cohort of 1,252 patients.</t>
+  </si>
+  <si>
+    <t>Quality control procedures and normalization were performed on the NanoString gene expression data using the NanoString nSolver Analysis Software. Probes were re-annotated using the Basic Local Alignment Search Tool (BLAST) to obtain the most current gene annotations. Data were normalized by comparing to positive and negative spike-in controls and to the housekeeping genes, and then transforming the expression values using a log2 transformation. Observed expression values less than the spike-in controls were set to missing. Probes that did not map to the intended gene targets (N = 2) were excluded: CCDC64 and ZNF546, or failed in more than 20% of samples (N = 13): BRCA1, C6orf150, DIAPH3, GSTA1, HOXB6, HSDL1, KCNH3, MUC15, PTCHD1, ST6GALNAC5, TNFSF11, TTTY17A, ZRANB. Therefore, 46 genes were available for analysis (Supplemental Table 2). Samples that failed in more than 50% of probes were also excluded (N = 5). As a technical evaluation of the assay, Spearman correlations were assessed between each DASL probe and corresponding Nanostring probe. Additionally, univariate associations of each NanoString probe to risk of breast cancer within 10 years were evaluated with Wilcoxon rank sum tests. Odds ratios were estimated with logistic regression, both unadjusted and adjusted for age.
+The previous analysis utilized a split-sample approach with independent training and validation sets [6]. To improve power for prediction modeling, the full sample was utilized via fivefold cross-validation, where the full sample is randomly split into five equally sized pieces (‘folds’); four-fifths of the sample was used for training and the remaining one fifth was left out for an independent test set, with the process being repeated five times across the five folds. Samples were randomly selected for each of the five folds stratified on case–control status, to require equal distributions of cases and controls across fold. Training and test set sample sizes, and age distributions were summarized across each fold to ensure equal distributions. In each training sample, a diagonal linear discriminant analysis (DLDA) model was built to predict case–control status based on multivariate gene expression, and applied to the samples in the testing fold. Performance in the testing fold was evaluated using ROC-AUC, and average AUC estimates across the five testing folds are reported. Models were constructed using gene expression alone, clinical variables alone (Gail/BCRAT and BBD-BC model predictions), and gene expression and clinical variables together. We developed models using all 65 genes from the entire NanoString panel and using the 35 gene from the previously identified SATTC10 dataset [6] to allow for a comparison between the DASL-derived modeling and the current NanoString-derived predictions. Because we found that not all of the assessed gene expression data from the NanoString assessment correlated with the prior DASL data, we aimed to use a more refined set of genes for prediction using univariate filtering from the set of 61 genes (where genes with Wilcoxon rank sum p values less than or equal to 0.05 in the training sample were retained and evaluated in the testing fold). Additionally, sensitivity analyses were conducted to assess confounding by presence of atypical hyperplasia (AH), by removing samples with AH.
+Statistical analysis was carried out using R statistical software version 3.3.1 (https://www.r-project.org).</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed using STATA software (version 14, StataCorp LP). The independent t-test was used to compare the means of continuous, parametric variables. If the continuous data were nonparametric, medians were compared using a Wilcoxon rank-sum test. The chi-square test was used to compare categorical variables, and if the expected frequency was less than 6, then the Fisher exact test was used. The grading systems (SM, Spetzler-Ponce [SP], Lawton-Young [LY], and proposed) were also assessed using univariate and multivariate logistic regression along with the area under the receiver operating characteristic curve (AUROC). A p value ≤ 0.05 was considered significant in all statistical analyses.</t>
+  </si>
+  <si>
+    <t>Multiple imputation was used for missing values, with ten datasets imputed.17 Missing life-status was not imputed and this analysis excluded any patient who had such a missing endpoint. To avoid underestimation of covariate-outcome associations, 30-day mortality indication was used in the imputation models for missing covariates.18 Further details of the imputation procedure are given in the supplementary material.
+The risk of 30-day mortality implied by each CPM was retrospectively calculated for each patient based on the published regression coefficients.6., 7., 8., 12., 13., 14., 15. This analysis used clinical reasoning to make assumptions regarding translation between variable definitions in the published CPMs and those in the UK TAVI dataset. Any CPM risk-prediction variable that was not recorded in the UK TAVI registry was assumed risk factor absent for all patients. The full translation between each CPM and the TAVI registry variables is given in the supplementary material (Supplementary Tables I–VII) along with the statistical code used to calculate the scores.
+The performance of each CPM was assessed in terms of calibration and discrimination. Calibration is the agreement between the expected and observed event rates across the full risk range; discrimination is the ability of the CPM to distinguish between those who will experience an event and those who will not. Discrimination of the risk models was analyzed using the area under the receiver operating characteristic (ROC) curve, with values between 0.5 and 1 where higher values indicate better discrimination. To examine the calibration of each CPM, a logistic regression model was fitted with the event indicator as the outcome and the linear predictor from the CPM as the only covariate.19 Perfect calibration would occur when the corresponding intercept and slope are zero and one respectively, with the intercept estimated assuming a slope of unity. Furthermore, the Brier Score was used as a measure of overall performance, with values between 0 (perfect prediction) and 1 (worst prediction).20 CPM performance was analyzed in the whole cohort and within several subgroups. The following subgroups were considered: age (≤ or &gt;75), sex, diabetes status, access route (transfemoral vs non-transfemoral), valve type (SAPIEN vs CoreValve), previous coronary artery bypass graft status, left ventricular (LV) function (LV ejection fraction [LVEF] &lt;50% or LVEF ≥50%), and procedure urgency (elective vs non-elective).
+Patient-level risk agreement between CPMs was analyzed in the surgical models and the TAVI models separately to facilitate fair comparisons. It was decided, a priori, to derive cut-off values for each CPM that defined three risk levels (low-, medium- and high-risk), with approximately equal patient numbers in each. The proportions of patients for whom risk classification agreed between multiple CPMs was then calculated. In addition, Fleiss's κ was calculated in the surgical and TAVI models.21 A sensitivity analysis was conducted in which the risk stratifications were re-defined to give a population ratio of 1:3:1 for low, medium, and high risk, respectively.
+R version 3.3.122 was used for all statistical analyses. Multiple imputation of the dataset was completed using the mice package,23 graphical plots were made using the ggplot2 package24 and the package pROC was used for constructing ROC curves.25
+The Health e-Research Centre, funded by the Medical Research Council [MR/K006665/1] and the North Staffordshire Heart Committee supported this work. The authors are solely responsible for the design and conduct of this study, all study analyses, the drafting and editing of the manuscript, and its final contents.</t>
+  </si>
+  <si>
+    <t>Before analyses, two physicians identified and double-checked outlier values. Categorical data were characterized using relative (%) and absolute (n) frequencies, and numerical values were described as median and 25% and 75% quantiles. We evaluated the statistical significance between groups using two-sided two-sample tests: Fisher's exact test for categorical data and the Wilcoxon rank-sum test for numerical data. A P value of &lt;.05 was considered statistically significant. We quantified the predictive accuracy of the analyzed score systems using the area under the receiver operating characteristic (ROC) curve and its 95% confidence interval (CI), computed with 2000 stratified bootstrap replicates. We also calibrated the different scoring systems to our data. We used the Hosmer-Lemeshow test to evaluate the goodness-of-fit of mortality rates in our study to the predicted probabilities presented by the original authors of the analyzed scoring systems. As described in DeLong et al,20 scoring system performance was analyzed by comparing ROC curves. Survival analysis was computed following the Kaplan-Meier methodology,21 and the difference in survival curves was evaluated using the Mantel-Haenszel log-rank test.22 All statistical analyses were performed using R statistical software version 3.6.1 by R Core Team. The log-rank test was computed using the rms package, the Hosmer-Lemeshow test with the Resource Selection package, and the ROC-based computations with the pROC package.23</t>
+  </si>
+  <si>
+    <t>Odd use of AUC</t>
+  </si>
+  <si>
+    <t>Analyses were done using the SAS software (SAS 9.3, SAS Inc., North Carolina). Of the 1147 potential participants in the 2013 cohort, fourteen did not respond. Fifty two participants who were undecided on all 14 survey items in the advance directives attitudes survey were not used in analyses. Participant demographics of both the 1989 and the 2013 cohort are shown in Table 1. The final 2013 cohort included n = 1081 doctors (94.2% response rate) and their responses on the 14 survey items were compared to those of the 1989 cohort [18] (see Figure 1). For each of the 14 survey items, responses in support of AD are shown in green and those in opposition of AD in red and those who were neutral are shown in gray. The area under the receiver operating characteristic curve (AUC) and the Success Rate Difference (SRD) [20]–[21] was calculated for each of the 14 items for both the 1989 and 2013 cohorts and are shown reordered based on the magnitude of the SRD (which measures the rate difference of a specific outcome) ranging from (−1) to (+1) with zero indicating no difference. Results for the 14 items were calculated significant at α = .05/14 with the Bonferroni adjustment and shown reordered by SRD, differentiating the 1989 and 2013 cohorts. For each of the 14 items, the 2013 participant responses were recoded as follows: strongly disagree (−1), disagree (−0.5), undecided (0), agree (+0.5) and strongly agree (+1.0). Next, for each participant, the scores on all the 14 items were averaged to obtain the individual's composite Average Advance Directive Support Score (AADSS). The Mann-Whitney-Wilcoxon test [22]–[23] was used to do subgroup analysis of the AADSS of each participant by gender and the Kruskal-Wallis [24] test was used to do sub-group analyses by age group, ethnicity/race and medical sub-specialty. To note, the AADDS scoring system could not be used for the 1989 cohort as the Likert scores in that study were collapsed from a 5 point to a three point scale as shown in their publication [18].
+Finally, the Receiver Operating Characteristics (ROC) [25] procedure for recursive partitioning was used to analyze the patterns between various individual predictor variables (in this case, participants' age, gender, ethnicity/race, sub-specialty and AADSS). The ROC procedure analyses all possible cutpoints and combinations, and identifies the variable and its cutpoint with the optimal balance between sensitivity and specificity for identifying those particular subjects with the specific outcome of interest. The total group is then divided into two subgroups—those above and below the selected cutpoint on the selected variable—and the process is reiterated until no further discrimination was achieved. Two separate ROC analyses were computed. The first ROC analyses was based on the participant resuscitation preferences in event of terminal illness (“prolong” versus “do not prolong”) and the second analyses was on participants who were interested in organ donation versus those who were not.</t>
+  </si>
+  <si>
+    <t>The model risk scores, the SNP-based score based on the published estimates, and the combined risk scores were log transformed for all analyses. We used Pearson correlation to test for associations between the model risk scores, the SNP-based score and the combined risk scores.
+We used logistic regression to fit the individual and combined risk and SNP-based scores – adjusted for age using the controls – to estimate risk associations, in terms of the OR per standard deviation of the age-adjusted log 5-year predicted risk, while adjusting for age group due to the sampling strategy (32). Model calibration was assessed using the Hosmer–Lemeshow goodness-of-fit test, which compares the expected and observed numbers of cases and controls within groups that were defined by deciles of risk. Discrimination between cases and controls was measured using the AUCs of the risk scores.
+As in Mealiffe et al. (20), we categorized 5-year absolute risks as low risk (&lt;1.5%), intermediate risk (≥1.5% and &lt;2.0%) and high risk (≥2.0%) and constructed reclassification tables for each of the risk prediction models as a cross-tabulation of the classification of the risk score from the original model with the risk score from the combined model. The net reclassification improvement statistic was calculated as P(up|case) – P(down|case) + P(down|control) – P(up|control), where up refers to moving to a higher risk category and down refers to moving to a lower risk category.
+Stata Release 13 (33) was used for all statistical analyses; all statistical tests were two sided, and P values less than 0.05 were considered nominally statistically significant.</t>
+  </si>
+  <si>
+    <t>Data are presented as mean ± 1 standard deviation for numeric continuous variables and as per total number and percentages for categoric variables. The numeric variables were tested for normality with the Shapiro–Wilk test. Comparison between numeric variables has been conducted with the Student t test for normally distributed variables or the Mann–Whitney U test for not normally distributed variables. Inference on categoric variable has been done using the chi-square or Fisher exact test. To identify the predictors of composite outcome, a multivariable logistic regression model was developed: The initial model included those variables that had a P value less than .25 with univariable analysis (age, previous cardiac surgery, intra-aortic balloon pump [IABP] use, emergency, logistic euroSCORE, concomitant coronary artery bypass grafting, reduced LVEF, and surgical technique): The final model was obtained by stepwise backward approach selecting for Akaike information criteria. Survival analysis was conducted using Kaplan–Meier methods and log-rank test. A Cox proportional hazard model was designed to identify independent factors affecting long-term survival. To estimate the predicting ability of logistic euroSCORE on 30-day mortality, we used receiver operating characteristics curve analysis. The area under the curve was estimated for observed euroSCORE and the predicted values by fitting regression model. Missing values were screened before analysis: Every variable with more than 5% of missing value was eliminated from the final dataset. The remaining variables (Table E2) were imputed using simple imputation methods. The statistical analysis was conducted with R statistical software (R version 3.1.2 [2014-10-31] —“Pumpkin Helmet”; R Foundation for Statistical Computing, Vienna, Austria).</t>
+  </si>
+  <si>
+    <t>Detailed information on the statistical analysis is found in the supplementary material. P-values were calculated with two-sided Student’s t-test for continuous variables and with two-sided Fischer’s exact test for dichotomized variables. Confidence interval for incidence rates were calculated with the OpenEpi version 2.3.1 according to Rothman/Greenland as described [32], [33]. Cox proportional hazards regression was used to examine the association between RDW and incidence of VTE. Hazard ratios (HR) with 95% confidence interval (CI) were calculated [32]. The area under the ROC (receiver operating characteristic) curve (AUC) was used as a measure of the overall performance of the ROC curve because it reflects the probability that the diagnostic test will classify correctly [34]. Positive [sensitivity/(1-specificity)] and negative [(1-sensitivity)/specificity] likelihood ratios were also calculated to express the odds that a given value of a screening test outcome would be expected in a subject with or without VTE, respectively. Analyses were performed using IBM SPSS 21 (IBM, Armonk, New York, USA).</t>
+  </si>
+  <si>
+    <t>Descriptive statistics (means, SDs, counts and frequencies in percent) were used to present patients’ baseline characteristics. Differences between patients diagnosed with OSA and no OSA were tested using unpaired t tests. Contingency analysis and calculation of ROC curves were performed to assess the detection capacity of various oximetry indexes to identify OSA. A web-based ROC calculator with an ordinal rating scale format was used for analyses (10). The ordinal rating scale format enabled the calculation of a confidence value (1 to 6) for ranges of AHI scores derived from PSG results such that a rating of 1 = definitely no OSA (AHI range of 0 to 5) and 6 = definitely OSA (AHI &gt;30). The sensitivity, specificity, accuracy and area under the curve (AUC) are reported with relevant 95% CIs. Statistical significance was defined at the two-sided 0.05 level.</t>
+  </si>
+  <si>
+    <t>Data were analyzed using SPSS version 21.0 (SPSS Inc, Chicago, IL, USA). We categorized patients into two groups according to the number of treatment sessions. Session cut-offs were defined as 5 to 8 sessions for favourable outcome (group I) and as 8 to 12 sessions for unfavourable outcome (group II). Baseline characteristics of demographics and symptoms were described using mean values (with standard deviation, SD) and frequencies (with proportions). Treatment effects were analyzed by comparing the change in the outcomes of the treatment groups [mean, 95% confidence interval (CI)] by using the independent samples t-test (crude p-values for group differences), and analysis of covariance (ANCOVA) with adjustment for the baseline score. The statistical analysis was conducted at a 95% confidence level, and a P &lt; 0.05 was considered statistically significant. Potential predicting factors were chosen based on the result of the independent t-test for continuous variables and the Chi-Square (X2) for categorical variables. All variables in the univariate analysis with a p-value &lt;0.10 were entered into a logistic regression model. To identify factors predicting outcome, two separate binary logistic regression models were constructed to differentiate between 5 and 8 and. 9–12 sessions SPL outcome. A multivariate analysis was carried out in which all potential predictors were included. Estimates of association are presented as odds ratios (ORs), along with 95% confidence intervals. Logistic regression models were built by removing one variable at a time (Backward LR Selection), with the criteria of removing the variables with the highest p-value, until all variables had a p-value less than 0.05). Logistic regression was based on the likelihood-ratio. For explained variance, the standard routine of pseudo R2, Nagelkerke's R2, was applied. The Hosmere-Lemes test was performed to assess how well the model fits the data.</t>
+  </si>
+  <si>
+    <t>"The Hosmere-Lemes test was performed to assess how well the model fits the data"!</t>
+  </si>
+  <si>
+    <t>We split the data into 2 sets: training and validation sets. We used the training data set to make predictions for the cases in the validation data set. The first year of data was included in the training data set to make sure that relevant seasonal effects were available. The following 6 months of data were included in the validation data set. The training data set and the validation data set consisted of, respectively, 5228 cases (1110 influenza and 4118 noninfluenza) and 7868 cases (1258 influenza and 6610 noninfluenza). There were fewer cases per month in the training set because it included summer months, when there are very few influenza cases.
+We report the accuracy of predictions of the cases in the validation set by showing a receiver operating characteristic (ROC) curve. The y-axis of the curve shows the sensitivity of the predictions (sometimes referred to as the true positive rate). Sensitivity is the portion of correctly predicted influenza cases:
+Sensitivity=NumberofcorrectinfluenzacasesNumberofinfluenzacases
+In a ROC curve graph, the x-axis shows 1 minus specificity. Specificity is the portion of correctly predicted noninfluenza cases:
+Specificity=NumberofcorrectnoninfluenzacasesNumberofnoninfluenzacases
+In a ROC curve graph, the diagonal straight line connects the (0,0) and (1,1) points. It shows the performance of a random prediction. The area below the ROC curve is referred to as the area under the curve (AUC). An area of 1 corresponds to perfect predictions, and an area of 0.5 corresponds to random prediction. The statistical difference between 2 AUCs is tested using the McNemar statistic.25 We also report the percentage of cases correctly classified.
+Methods of Text Processing
+Every patient’s reason for an appointment consists of words, a generic term that we use here to refer to English words, misspelled words, or abbreviated words. One could use each word and any combination of words to predict laboratory-verified influenza. Combinations of words may include consecutive or nonconsecutive words. In our analysis, the order of the words does not matter; thus, “cough fever 102”, “fever 102 cough”, or “102 fever cough” are considered equivalent statements. Let the words W1, . . .,Wm show “m” words within a reason for an appointment. The likelihood ratio associated with each single word is calculated from the training data set as
+LRi=p(Wi|I)p(Wi|N),
+where Wi is the ith word in the reason for appointment, I indicates laboratory-verified influenza cases, and N indicates laboratory-verified noninfluenza cases.
+Under the assumption of independence of the words, the posterior odds, PO, of influenza given the patient’s reason for an appointment is calculated as
+PO=p(I)p(N)*∏i∈ALRi,
+where set A is the set of all words in the patient’s reason for an appointment.
+We refer to the above model as the Independent Bayesian System (IBSt); others have referred to it as the naive Bayes model. Note that this model includes only the likelihood ratios associated with single words.
+One way to account for the dependencies among the words is through a model called the Dependent Bayesian System (DBSt). Clearly, the words within reasons for appointments are related and dependent concepts. The words in the combination “sore throat” are dependent on each other, as knowing either word changes the probability of the presence of the other. The most likely word to follow “sore” is “throat”, and the most likely word to precede “throat” is “sore.” Therefore, the assumption of independence in IBSt is not accurate. The following formula shows DBSt predictions without the assumption of independence:
+p(I|W1,W2,…Wm)p(N|W1,W2,…Wm)=p(W1|I)p(W1|N)p(W2|W1,I)p(W2|W1,N)…p(Wm|Wm−1,…W1,I)p(Wm|Wm−1,…W1,N)p(I)p(N),
+where W1,W2 through Wm indicate “m” words within each case’s reason for an appointment. The index 1 through m is no longer used to show the order of the words in the reason for an appointment but the order in which these words are analyzed for that particular case.
+IBSt processes a word the same way no matter what other words are present in the reason for an appointment. DBSt processes words in the context of other words already used in the analysis. In this way, DBSt accounts for the relationship among the words. For example, DBSt calculates the likelihood ratio for the additional word “throat” in the context of what precedes it. If the word “sore” precedes “throat”, then DBSt calculates the likelihood ratio as
+p(Sore throat|I)p(Sore throat|N)=p(Sore|I)p(Sore|N)*p(Throat|Sore,I)p(Throat|Sore,N).
+If a different word precedes “throat”, then DBSt calculates a different likelihood ratio. In a similar manner, the combination “sore throat” has a different likelihood ratio in the 2 phrases “mom reports sore throat” and “no sore throat”.
+In 1994, Alemi and Eisenstein compared the performance of IBSt and DBSt under several simulated conditions and found a mixed result, with IBSt being more accurate when there were fewer predictors and larger training data sets.26
+Because the order of the words used in predicting whether a patient has influenza matters, the key in using DBSt is to have a criterion for selecting the sequence of words. We selected the order based on the principle that the associated likelihood ratio should be most different from 1, a principle commonly used in many statistical procedures. Once a word was chosen, then subsequent likelihood ratios were conditioned on this word, and the next word was chosen so that its likelihood ratio was most different from 1. Note that this process could lead to the selection of a word that occurs in a sentence before or after the current word. Thus, the process ignores the order in which words appear in a sentence but pays attention to the order in which words enter into the analysis. The following algorithm was used to translate the procedures described above into a working computer program that utilizes the training set data to predict the odds of influenza for each case in the validation set:
+1.	
+Calculate the prior odds from the training data set.
+2.	
+Select the next reason for an appointment to analyze. If none remains, stop.
+3.	
+Set the case’s posterior odds of influenza equal to the prior odds in the training data set.
+4.	
+Parse the free text of the case’s reason for an appointment into words. If there was no reason for an appointment listed, the reason was set to the word “Blank”. A word was recognized if a combination of letters, numbers, or special characters was separated by spaces, start and end of field, comma, semicolon, slash, or period. The exceptions to this rule were single letters separated by slash (e.g., f/u, which typically stands for follow-up) and period in between 2 numbers, which may indicate temperature (e.g., 102.5).
+5.	
+Go to step 7.
+6.	
+Reduce the cases in the training data set to only those that include the set of words already used in the analysis.
+7.	
+If the number of cases remaining in the training data set is less than a cutoff, which we set to 50 cases, go to step 2. We examined the performance of the cutoff of 3, 10, 30, 50, and 70 in the training data set. The areas under the ROC curves for the corresponding cutoffs were 53.8%, 55.1%, 55.8%, 56.9%, and 56.1%. Therefore, we selected a cutoff of 50 cases.
+8.	
+Calculate the likelihood ratio associated with all words within the reason for an appointment that are not part of the set used in the analysis. If calculation of the likelihood ratio will lead to division by zero, set the likelihood ratio to be 1 plus the number of cases remaining in the training data set. If the calculation yields a likelihood ratio of zero, set the likelihood ratio equal to 1 divided by the number of cases remaining in the training data set plus 1.
+9.	
+Select the word with the likelihood ratio most different from 1. Add this word to the set of words used in the analysis. Calculate the case’s posterior odds as the product of the previously calculated posterior odds times the likelihood ratio associated with the selected word.
+10.	
+Go to step 6.
+Note that this algorithm selects at every step the path with the likelihood ratio most different from 1. If one can imagine a tree of all possible combinations of the words in the sentence, the algorithm is selecting one of the many paths possible using the principle of maximum likelihood ratio. Note also that each sentence has a different tree based on the words in the sentence. For example, consider the following reason for an appointment: “fever sore throat.” We can have the following 6 orders for examining the 3 words within this reason for an appointment:
+1.	
+throat sore   fever
+2.	
+sore  throat  fever
+3.	
+throat fever   sore
+4.	
+fever  throat  sore
+5.	
+sore  fever   throat
+6.	
+fever sore   throat
+Suppose the word “sore” has the likelihood ratio most different from 1. Furthermore, suppose that among reasons for appointments that have the word “sore”, the word “throat” has the likelihood ratio most different from 1. Finally, suppose that among reasons for appointments with the words “sore” and “throat”, the frequency of “fever” is less than 50 cases. The algorithm calculates the likelihood ratios associated with all words in the reason for an appointment and chooses the word “sore” because its likelihood ratio is most different from 1. It then limits the reasons for appointments to the cases with the word “sore” in it. Among these cases, it recalculates the likelihood ratios for each remaining word and chooses the word “throat”. Next, it limits the cases in the training data set to all reasons with the words “sore” and “throat” within it. It has less than 50 such cases, and therefore, it stops. Based on the training set data, the path chosen by DBSt for this reason for an appointment is path 2, terminating before the inclusion of “fever”.
+Note that the path chosen for any reason for an appointment depends on what words are present. For example, adding the word “trauma” to the previous reason for an appointment may lead to completely different results. Suppose patients seen for trauma do not have influenza (trauma has the smallest likelihood ratio less than 1) and that sore throat and fever occur infrequently among patients who also complain of “trauma”. In this situation, the algorithm chooses as its first word “trauma.” Because “trauma” does not co-occur often with the remaining words, the algorithm would stop, leading to a single word being used to predict this case’s influenza. Another way of saying this is that the word “trauma” is sufficient to rule out influenza, even if it is accompanied by other words that in other contexts (within reasons for appointments that do not have the word “trauma”) indicate influenza. As this example shows, the algorithm evaluates each word in the context of other words that it has already used in the analysis task.</t>
+  </si>
+  <si>
+    <t>We used the PRSice software (v 2.3.2)22 to construct the CH-PRS. Analyses were conducted with standard parameters, where SNPs were LD-clumped (–clump-kb 250 –clump-r2 0.1 –clump p1) and filtered out if minor allele frequency (MAF) &lt; 1%. Analyses were conducted on autosomal chromosomes. We included the first three PCS and removed the APOE region (1 MB around index SNPs) from CH-PRS calculation and treated APOE as an independent covariate when modeling LOAD prediction performance. Details about PRSice bioinformatics code can be found on GitHub (https://github.com/sariya/CUMC_taub/tree/master/PRS_CH).
+We estimated the area under the curve (AUC)23 to evaluate PRS’s accuracy in the validation dataset to identify predictive ability, with values ranging from 50 to 100%, where 50% is random classification and 100% is perfect classification. We also used regression models to study significance and strength of association between PRS and LOAD or other endophenotypes.
+We tested three main statistical models:
+LOAD ~ CH-PRS (“model A”)
+LOAD ~ CH-PRS + APOE locus (e4 and/or e2 alleles) (“model B”)
+LOAD ~ CH-PRS + APOE locus + sex + age (“full model”)
+We also computed the maximal possible predictive power (AUCmax) according to disease prevalence and heritability of LOAD. AUCmax is the maximum AUC that could be achieved for a disease when the test classifier is a “perfect” predictor of genetic risk and was computed using the approach proposed by Wray and colleagues,24 and implemented in their online calculator. We tested three possible heritability scenarios according to published data25 in tandem with the disease prevalence as reported in.26
+As secondary analyses, we tested PRS performances by cohort strata: (1) APOE-Ɛ4 status (carrier vs non-carrier); (2) sex (men vs women); and in the entire CH cohort (ie, including discovery + validation + related individuals);
+AUCs obtained across models were compared using the roc.test function in pROC (R library) (bootstrap method).
+Due to three-way admixed nature of the CH population (European, African, and Native American ancestry), we sought to assess the role of ethnicity and its effect on PRS performance. To do so, we built two alternative PRSs using European (EUR)27 and African American (AA)28 GWAS as discovery datasets (from here on labeled as “EUR-PRS” and “AA-PRS”). EUR-PRS and AA-PRS were constructed with identical LD clumping and SNP filters. In addition, the first three PCs were used to generate the PRS. APOE region (1 MB around index SNPs) was excluded. We then compared their performances with that achieved by our original CH-PRS again using the roc.test R function.
+PRS Replication
+We used an in-house script to re-construct PRS using the SNP list prioritized by PRScise and test its association with LOAD in two different scenarios:
+1) the ADC dataset (n = 200), a small CH cohort, part of the Alzheimer’s disease centers (ADC-CH). The NIA ADC cohorts include patients and controls ascertained and evaluated by the clinical and neuropathology cores of the 39 past and present NIA-funded Alzheimer’s Disease Centers (ADC). Data collection is coordinated by the National Alzheimer’s Coordinating Center (NACC). NACC coordinates collection of phenotype data from the ADCs, cleans all data, coordinates implementation of definitions of AD cases and controls, and coordinates collection of samples. Biological specimens are collected, stored, and distributed by the National Cell Repository for Alzheimer’s Disease (NCRAD).29 Data comprised 102 controls (51%), 135 women (67.5%); the mean (±standard deviation) age of cases and controls was 72 ± 7 and 73 ± 7, respectively.
+2) a small CH cohort (n = 33) with brain autopsy data.30 Braak staging31,32 and neuropathological diagnosis of AD33 were used as main outcomes. Detailed description of the CH autopsy cohort can be found elsewhere.30 Briefly, the autopsy brains were ascertained from the brain bank of the Alzheimer’s Disease Research Center (ADRC). Neuropathological evaluation is also reported elsewhere.34,35 Neurofibrillary tangles and neuritic plaques were assessed using hematoxylin–eosin and the modified Bielschowsky. Participants that met the criterion of Braak stage ≥4 neurofibrillary pathological, and also the CERAD neuropathological criteria36 (ABC score for intermediate/high) were deemed as cases. We used the clm and glm R functions to test association between PRS and Braak staging and AD pathological diagnosis, respectively. Data comprised 16 controls (48.5%), 21 women (63.6%); the mean (±SD) age of cases and controls was 79 ± 10 and 67 ± 12, respectively.</t>
+  </si>
+  <si>
+    <t>very short paper</t>
+  </si>
+  <si>
+    <t>1. Diagnostic accuracy compared with the universal definition of myocardial infarction utilising laboratory measurements of cardiac troponin performed at the participating sites together with measurements performed in a core laboratory. 2. Ability of biomarker measurements to predict major adverse cardiac events (death, non-fatal AMI, emergency revascularisation or hospitalisation for myocardial ischaemia) at 3 months' follow-up. 3. Comparison of incremental cost per quality-adjusted life-year (QALY) of different biomarker measurement strategies for the diagnosis of myocardial infarction.</t>
+  </si>
+  <si>
+    <t>Continuous variables were tested for normality according to Kolmogorov–Smirnov test. Patients were divided in two groups: NAFLD and non-NAFLD group. Differences for continuous variables were investigated by Student’s t-test and Mann–Whitney U test for independent samples as appropriate. Differences in categorical variables were evaluated with Chi square and Fisher exact tests. Predictive power of BMI z-score, TMI, and WHR for NAFLD were determined with receiver operating characteristic (ROC) curve tests. Moreover, we compared the areas under the curve (AUC) for BMI z-score, TMI, and WHR to identify the best predictor. Best predictor cut-off value was obtained using the Youden index (maximum (sensitivity + specificity − 1))26. Univariate logistic regression analyses were performed to assess the risk of presenting NAFLD and elevated ALT according to cut-off group. Multiple logistic regression analysis was performed with age, BMI z-score, and pubertal stage as covariates.
+SAS® University Edition (SAS Institute Inc., Cary, NC) was used for all analyses. Data are expressed as mean ± standard deviations (SD). P values &lt;0.05 were considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Two experienced radiologists (10 and 12 years of abdominal imaging) analyzed the masses according to the following criteria: size, bilaterality, presence of multiple locules with various signal intensities, multiseptation, presence of solid component, presence of multiple, peritoneal seeding, and lymphadenopathy. Solid portions in cystic tumors refers to the proliferation, solid portion, and thickened septum of the wall or septum of the mass, as defined by Timmerman et al. [14]. All of the solid components showed enhancement after contrast injection. On T2-weighted image (T2WI), the signal intensity in the solid component was low or intermediate compared with myometrium. Two radiologists referenced the region of interest (ROI) (average, 10.2 mm; range, 8.8–12.8 mm in the largest dimension) with reference to a T2WI. The ROI was selected for each of the 3 regions with relatively low signal intensities in the solid phase, and then the mean value was calculated as the representative value for the calculated values of the diffusivity in each ROI. In order not to include the edge of the solid portion, the ROI is mainly included in the center portion. Similar to the method of calculating the current apparent diffusion coefficient (ADC), a ROI average of 10.0 mm (range, 8.0–12.0 mm in the largest dimension) was set for the same region to derive the time course enhancement pattern of the solid component. Perfusion coefficients were determined using commercial perfusion analysis software (Syngo Tissue 4D; Siemens Medical Solutions, Erlangen, Germany). In addition, color maps were fused to T2WIs. To calculate the contrast ratio (Ktrans) and the extracellular and extracellular fraction (Ve) between the vessels and the tissues, a known Tofts model was applied. When using the Tofts model, we used the estimated mean values from various clinical perfusion imaging studies to evaluate the contrast injection function that is always applied together.
+To determine whether the distribution of BOT and stage I carcinomas differs statistically from their distribution on conventional MRI, we used Mann-Whitney and Fisher's exact tests for each criterion for continuous and categorical criteria, respectively. The mean, standard deviation, and 95% confidence interval range of each DW and PW sequence parameter were then calculated. The quadratic k coefficients were calculated to evaluate the agreement between the 2 radiologist observers (k-value, 0–0.19; poor, 0.20–0.39; fair, 0.40–0.59; moderate, 0.60–0.79; substantial, 0.80–1.00; excellent). A linear mixture model with both p-values was used to verify whether the differences between the distributions of each parameter were statistically significant. We also performed a receiver operating characteristic (ROC) curve analysis to evaluate the efficacy of conventional MRI, DW, and PW sequences in discriminating BOTs and stage I carcinoma. The area under the ROC curve (AUC) was used to determine diagnostic performance and the sensitivity and specificity were calculated from this curve analysis. Multivariate logistic regression analysis was performed to determine whether the combination of conventional MRI findings and the associated parameters such as ADC, Ktrans, and Ve improved the differentiation between BOTs and stage I carcinomas. All statistical analyses were performed using SAS 9.2 software (SAS Institute, Cary, NC, USA), and p&lt;0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>The samples size was calculated by using the statistical equation [31].
+nse=Z2∝/2d2Se(1−Se)Prev.
+In a previous study in China [12], the sensitivity of SARC-F was reported to be 29.5% (Se = 0.295). The prevalence of sarcopenia was 30.5% (Prev. = 0.305) [7]. The other values were ⍺ = 0.05, Z⍺/2 = 1.96, and d = 0.10. The sample size calculation was 261.95 ≈ 262 participants. An additional 10% was added to cover the likely drop out of some participants. The new sample size calculation was thus 286 participants.
+The Thai versions of SARC-F, MSRA-7, and MSRA-5 were re-administered 3 months after the first scoring, and the test–retest reliability was evaluated using the Kappa coefficient. Reliability analysis was performed to evaluate internal consistency with a Cronbach alpha coefficient. Baseline characteristics were recorded on the basis of the presence or absence of sarcopenia. Differences in characteristics between participants were compared using the chi-square test or 2-sample t-test. The sensitivity, specificity, positive predictive value (PPV), negative predictive value (NPV), positive likelihood ratio (PLR), negative likelihood ratio (NLR), and area under the receiver operating characteristic curve (AUC) of the 3 questionnaires were calculated using the diagnostic criteria for sarcopenia, with AWGS 2019 as the reference standard. We also analyzed the risk factors for sarcopenia by using univariate and multivariate logistic regression models. The statistical analysis was performed by using PASW Statistics 18.0 (SPSS, Inc., Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>Continuous variables are presented as mean ± standard deviation and categorical variables are presented as a percentage. An unpaired Student’s t-test and a χ2 test were used to compare variables between the following two groups: the maintained functional capacity (FC) group and the low FC group determined by the first quartile of peak V˙O2
+ (14.2 mL/min/kg). A paired t-test was performed to analyze significant changes in the strain and strain rate during exercise. The associations between peak V˙O2
+ and echocardiographic parameters were investigated using a multiple linear stepwise regression model. The multiple linear regression analysis was performed to evaluate the association of peak V˙O2
+ with echocardiographic parameters at rest and during exercise. Peak V˙O2
+ was considered as a dependent variable and echocardiographic measurements as covariates were adjusted for age, gender, and heart rate because age and gender were independent factors for peak V˙O2
+ and heart rate might be associated with the strain and strain rate. The availability for predicting the first quartile of peak V˙O2
+ was quantified by a logistic regression model as well as the C-statistic. Statistical significance was set at p &lt; 0.05. A statistical analysis was performed with commercially available software (SPSS 18.0, SPSS Inc., Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>From the 2565 participants with a history of cardiovascular disease, participants with coronary events or who died in the first six months of the study (n = 50) and participants with missing NT-proBNP values at six months (n = 167) were excluded. Baseline summary characteristics are reported as median with interquartile range (IQR) for continuous variables and as numbers with percentage (%) for categorical variables for all participants (n = 2348) and for participants on placebo and those on pravastatin separately. Follow-up for the outcomes was calculated from six months onward up to a maximum of 2.5 years.
+Calibration of the SMART risk score
+For calculation of the SMART risk score the SMART formula13 was used (Supplemental file 2). We used complete case analysis. Calibration of the SMART risk score for the PROSPER trial population was investigated by comparing the predicted versus observed cardiovascular disease risks. Participants taking placebo were divided into five categories of 2.5-year predicted risk, &lt;10%, 10 to &lt;20%, 20 to &lt;30%, 30 to &lt;40%, and ≥40%. Within each category, predicted risk was compared with actual observed Kaplan–Meier cardiovascular disease free survival at 2.5-year follow-up (Supplemental file 3). In addition, the fitted regression coefficient (beta) was assessed in a Cox proportional hazard model fit, using only the linear prognostic score (A) as variable.23 The continuous predictive SMART prognostic risk score was multiplied with the calculated regression coefficient to recalibrate the SMART risk score for the PROSPER population, as the calibrated regression coefficient significantly differed from 1 (0.466, p &lt; 0.001).
+Risk prediction with three models in the placebo group
+The 2.5-year cardiovascular disease risk (%) was predicted for all participants using a Cox proportional hazards models (complete case analysis) fit based on: 1) age and sex (minimal model); 2) age, sex, smoking, systolic blood pressure, high density lipoprotein and total cholesterol, history of diabetes, history of hypertension, history of myocardial infarction, history of stroke/transient ischaemic attack and history of surgery for peripheral artery disease (all as assessed at baseline; traditional model); and 3) recalibrated SMART risk score (SMART model). Using the continuous predicted risks from the three models, area under the curves (AUCs) and receiver operating characteristic (ROC) curves with p-values (level of significance 5%) and 95% confidence intervals (CIs) for difference were calculated.
+Additional value of NT-proBNP in the placebo group
+NT-proBNP was non-normally distributed and therefore log transformed. Cox proportional hazards models for the occurrence of the primary endpoint were fitted based on three additional models including: 1) minimal model plus NT-proBNP; 2) traditional model plus NT-proBNP; and 3) SMART model plus NT-proBNP. AUCs and ROC curves were calculated and compared with the reference models without NT-proBNP (STATA 12.1). Cross validation using the Jack-knife method, was used for comparison of optimism-corrected estimates.24
+Net reclassification improvement
+We calculated the category-less net reclassification improvement (NRI) for the primary endpoint with logistic regression, comparing the three models with NT-proBNP models with the reference models without NT-proBNP.25,26</t>
+  </si>
+  <si>
+    <t>Patients enrolled before January 1, 2010 comprised the generation cohort, whereas the other patients comprised the validation cohort. The baseline characteristics were compared by Student’s t test for continuous variables and chi-squared test for categorical variables. Univariate Cox regression analysis was performed to evaluate the associations between each variable and mortality. The independent predictors were subsequently identified using multivariate Cox models. Receiver operating characteristic (ROC) analysis was applied to dichotomize the continuous variables to compute the risk prediction model. The prognostic value of the risk prediction model was demonstrated using the Kaplan–Meier survival curve analysis. The model performance of the new risk prediction model was compared to the AHEAD risk score by ROC curves and the net reclassification improvement (NRI). Statistical analyses were performed using the IBM SPSS version 22.0, MedCalc version 18.10, and SAS version 9.4.</t>
+  </si>
+  <si>
+    <t>Data analysis was undertaken using R Foundation Statistical software (R 3.2.1, R Foundation for Statistical Computing, Vienna, Austria).18, 19 Continuous variables were expressed as mean ± SD or median (interquartile range) and analyzed using the t-test or Mann–Whitney test where appropriate. Categorical variables were expressed as percentages and analyzed using χ2 test or Fisher's exact test where appropriate. Univariate analysis was performed to determine factors associated with serum cathepsin D level. Factors that were significant on univariate analysis were included in multivariate analysis. Boxplots were used to illustrate serum cathepsin D, M30, alanine aminotransferase (ALT), aspartate aminotransferase (AST), and gamma glutamyl transpeptidase (GGT) levels for controls and NAFLD patients, NASH, and non-NASH patients and the different grades of steatosis, lobular inflammation, and hepatocyte ballooning. The area under receiver operating characteristic curve (AUROC) was calculated for serum cathepsin D, M30, ALT, AST, and GGT for the diagnosis of NAFLD; NASH; and the different grades of steatosis, lobular inflammation, and hepatocyte ballooning. AUROC was interpreted as follows: 0.90–1.00 = excellent, 0.80–0.90 = good, 0.70–0.80 = fair, and &lt;0.70 = poor. Optimal cut-off values were the values that provided the greatest sum of sensitivity and specificity. AUROC was also calculated for changes in serum cathepsin D, M30, ALT, AST, and GGT following changes in the grade of steatosis, lobular inflammation, and hepatocyte ballooning. For all analyses, a P-value of &lt;0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Relationships between pre-IAT islet product characteristics and CTOs were examined using ROC curve analysis. The AUC was calculated from ROC curves generated for each islet product characteristic and these values were evaluated. We analyzed several multivariate models and additionally included age, BMI, and purity to the model. A backward selection was used and we assessed the goodness of the models with the AUC of the ROC curve. In addition, we compared the models using the Akaike information criterion (AIC) values with a smaller AIC value standing for a better model. Statistical significance corresponded to p-values &lt;0.05. All statistical analyses were performed using SAS statistical software package, version 9.3 (SAS Institute Inc., Cary, NC) or GraphPad Prism Version 5.03 (GraphPad Software Inc., La Jolla, CA).</t>
+  </si>
+  <si>
+    <t>Statistical analyses were
+performed using SPSS 13.0 statistical package. Continuous variables were expressed as
+mean±standard deviation, and categorical variables as percentages. Differences between groups
+were tested using the Student t-test, Mann-Whitney
+U-test, or chi-square test, as appropriate. The variables were tested for normal distribution with the
+Kolmogorov-Smirnov test. For calculation of correlations, we used Spearman correlation coefficients.
+A p value of less than 0.05 was considered statistically significant. Receiver operating characteristic
+(ROC) curves and respective areas under the ROC
+curve were calculated for all parameters. The cut-off
+values were determined using the Youden’s index,
+J=sensitivity+specificity-1. The highest J value
+was accepted as the cut-off value for that parameter.
+Sensitivity and specificity of osteopontin were determined using the cut-off value. The factors affecting
+the constitution of coronary calcification were investigated by the analysis of covariance (ANCOVA)
+test. The effect of age on the coronary artery calcification (CAC) score was eliminated using the
+ANCOVA test.</t>
+  </si>
+  <si>
+    <t>IBM SPSS Statistics 19 (Windows) was used for statistical computation. Background and risk factors among the ACI, PCI, and control groups and the brainstem/cerebellum subgroup were compared. The parameters included age, sex, hypertension, diabetes, dyslipidemia, and smoking. Age distributions were compared among the groups by using a Student t-test. Sex, hypertension, diabetes, dyslipidemia, and smoking were compared among the groups by using a chi squared test. Significant difference was defined as p &lt; 0.05. The NVAFV distributions in each group are presented as range, lower quartile, mean, upper quartile, and standard deviation. Frequency plots based on the flow volume at every 20 mL/min increment were created. Visual methods and normality tests were used for assessing normality. Linear regression analysis was used to determine the significance of the confounding factors. The differences in NVAFV among the groups were calculated using parametric or non-parametric analysis. A receiver operating characteristic (ROC) curve was plotted to differentiate any two groups by using NVAFV, and the area under the curve was calculated. We identified an optimal cut-off value of NVAFV and determined its clinical significance and effect by calculating the odds ratio.</t>
+  </si>
+  <si>
+    <t>duplicate!</t>
+  </si>
+  <si>
+    <t>Statistical analyses were performed using SPSS (version 20; SPSS Inc. Chicago, IL) and SAS (SAS Institute Inc. Cary, NC). Data were expressed as mean and SD, median and interquartile range, or frequencies and proportion (%). Patients were grouped according to whether they experienced at least 1 episode of acute rejection or not for comparison. Groups were then compared using independent-samples t tests for continuous variables and chi-square analysis for categorical variables.
+First we explored the association between broad antigen and eplet HLA mismatches using Pearson correlations. A Pearson’s correlation coefficient of 0.1 to 0.3 was considered weak, 0.4 to 0.6 moderate and 0.7 to 0.9 strong correlations. Correlations were presented with 95% confidence intervals (95% CI) and P values.
+Second, we tested linearity between broad antigen, eplet HLA mismatches and acute rejection using restricted cubic splines. We used univariate and multivariable Cox proportional hazard regression models to explore the association between the exposure and the binary outcomes. Recipients who did not experience any acute rejection episodes, lost to follow-up, or died were censored at the end of the follow-up period. Covariates examined in the Cox regression models included recipient characteristics (age, sex, height, weight, waiting time on dialysis, and peak PRA), donor characteristics (type, age, and sex), transplant characteristics (ischemia time and use of induction therapy). Covariates with a P value less than 0.20 in the unadjusted model were included in the multivariable-adjusted analyses. However, PRA, recipient and donor age, donor type and ischemia time were included in all models irrespective of the association in the univariate models. Results were expressed as hazards ratios (HR) with 95% CI.
+Third, to assess the test performance of broad antigen and eplet HLA mismatches in predicting acute rejection risk, we considered the discrimination of the 2 different models using the area under the curve (AUC) of the receiver operating characteristic (ROC) curves. Discrimination refers to the ability of the model to distinguish individuals with and without the outcomes of interest whereby an AUC of 1 implies perfect discrimination and an AUC of 0.5 represents random discrimination. The sidak option provides adjusted P values comparing the ROC areas between the 2 models, assuming a “gold standard” being broad antigen HLA mismatches.</t>
+  </si>
+  <si>
+    <t>Statistical analyses were conducted in R statistical and computing software (ver. 3.4.3, www.r-project.org). The Kaplan–Meier method was used for univariate analysis. The variables analyzed included prognosis (locoregional recurrence and death) and predictors (imaging type, IH grade, and T-stage). The Harrell Concordance Index (C-index) was used to evaluate the prognostic performance of the staging parameters. Differences between C-index values were tested using the bootstrap method. Cox regression analysis was used to identify independent predictors of locoregional recurrence and death with 95% confidence intervals (CIs).</t>
+  </si>
+  <si>
+    <t>A receiver operating characteristic (ROC) curve was used to study the accuracy of OSDI and tear osmolarity tests to detect possible ocular surface impairment, using as classification variables TBUT, corneal fluorescein test, MGD results, and presence of ocular surface dysfunction. A comparison between OSDI and tear osmolarity ROC curves was used for each classification variable. Also the sensitivity and specificity were reported. Furthermore, a Spearman correlation coefficient was calculated for both OSDI and tear osmolarity with the clinical tests performed.
+A level of significance of α = 0.05 was fixed. The tests were performed in both eyes, and only the test results from the eye with the worst tear osmolarity value were used for statistical analysis.17
+MedCalc 12.2.1.0 (MedCalc Software, Ostend, Belgium) statistical software for Windows was used for statistical analysis.</t>
+  </si>
+  <si>
+    <t>Descriptive statistics were used to determine means and proportions. Chi-squared tests were used for categorical comparisons of the tools. McNemar’s test was used to compare the BHLS to the reference test (REALM-R). The area under the Receiver Operating Characteristic (AUROC) curve was calculated to determine the discrimination—ability to correctly classify those with and without low HL—of each test. For each test, participants were dichotomized as having either low or high HL based on the tools’ published definitions (Baker et al., 1999; Bass et al., 2003; Chew et al., 2008).
+For our primary outcome, we calculated the AUROC for the BHLS using the REALM-R as the reference tool to confirm our previous findings. Secondary analyses included calculating the AUROC for the BHLS using the S-TOFHLA as the reference tool and assessing concurrent validity of the tools. To assess the concurrent validity of the tools, we used the raw scores to calculate Spearman’s rank correlation coefficients to determine the strength of correlation between two ranked variables (standard acceptable rs is 0.7). All computations were made using Stata 13 (StataCorp, College Station, TX).</t>
+  </si>
+  <si>
+    <t>This is a cross-sectional study. All the medical records of patients who had undergone bariatric surgery between 2007 and 2016 at the Obese Treatment Center of Santa Casa de Misericórdia de Porto Alegre, a tertiary leading hospital in Southern Brazil were reviewed. Patients older than 18 years, who underwent bariatric surgery and performed intraoperative liver biopsy, and who had all laboratory data for calculating the TyG Index were included.
+Patients with alcohol abuse (alcohol intake higher than 21 alcohol units/week for men and 14 alcohol units/week for women3), patients with other chronic liver diseases, using potentially steatotic medications or without this information in the medical record were excluded.
+Liver biopsies were analyzed by a single pathologist experienced in hepatology according to the criteria of Kleiner et al.15. Simple steatosis was classified as grade 0 (absent; &lt;5%), grade 1 (mild; 5% to 33%), grade 2 (moderate; &gt;33% to 66%), or grade 3 (advanced; &gt;66%). The presence of NASH was diagnosed according to the NAFLD Activity Score and classified as: grade 0 (absent), grade 1 (mild), grade 2 (moderate) or grade 3 (advanced). The degree of hepatic fibrosis was classified as: F0 (absent), F1 (sinusoidal or portal / periportal fibrosis), F2 (peri-sinusoidal and portal/periportal), F3 (bridging fibrosis) and F4 (cirrhosis).
+The level of triglycerides, total cholesterol (TC), low density lipoproteins (LDL), high density lipoproteins (HDL), fasting glucose, glycated hemoglobin (HbA1c), alanine aminotransferase (ALT), aspartate aminotransferase (AST), alkaline phosphatase (AP), gamma glutamyl transferase (GGT), bilirubin, platelets, albumin and prothrombin time (PT), body mass index (BMI) and the occurrence of high blood pressure and T2DM were evaluated. All the blood tests were performed within 6 months before bariatric surgery.
+Two non-invasive scores were analysed: TyG Index and NAFLD Fibrosis Score.
+TyG Index was calculated using the equation 
+ , expressed on the logarithmic scale16.
+To evaluate the performance of the TyG Index, the patients were divided into groups according to the anatomopathological findings of steatosis, NASH and liver fibrosis. Each group was further subdivided into: non-significant (grade 0-1) and significant steatosis (grade 2-3); Non-significant (grade 0-1) and significant NASH (grade 2-3); non-significant (F0-2) and advanced fibrosis (F3-4). The best cut-off points for the diagnosis of significant steatosis (grade 2-3), significant NASH (grade 2-3) and advanced fibrosis (F3-4) were calculated through the area under receiver operating characteristic curve (AUROC) with its respective 95% confidence interval (95%CI). Afterwards, patients where subdivided according to the presence of DM, and the same analysis where performed for these.
+The NAFLD Fibrosis Score was calculated using the equation 
+ 11.
+To evaluate the performance of the NFS, patients were divided in two groups according to the anatomopathological findings of liver fibrosis: non-significant (F0-2) and advanced fibrosis (F3-4). The cut-off points already validated in literature were applied: -1.455 to exclude advanced fibrosis and &gt;0.676 to diagnose advanced fibrosis. The accuracy was calculated through the AUROC with its respective 95%CI.
+Continuous and normal distribution variables were described as mean and standard deviation, and asymmetric variables as median and interquartile range. Categorical variables were analyzed by Student’s t-test and ANOVA. Analyzes with P&lt;0.05 were considered statistically significant. The study was submitted and approved by the institution’s ethics committee (number 982.654), and written informed consent was not necessary due to the retrospective feature of this study.</t>
+  </si>
+  <si>
+    <t>H. pylori sero-positive was defi ned as anti- H. pylori IgG titer ≥34
+enzyme immunounits (EIU) according to manufacturer’s instructions. PGI and the PGI/II ratio were categorized according to
+commonly used cut-off points (i.e., 30 and 70 ng/ml for PGI; 3 and
+7 for the PGI/II ratio). Biomarkers without well accepted cut-off
+points (PGII and G-17) were categorized according to quartiles
+of their distributions in the study cohort. For the cross-sectional
+analysis, odds ratios (ORs) with 95% confi dence intervals (95%
+confi dence intervals (CIs)) were calculated using logistic regression, and corresponding sensitivity and specifi city were calculated. For the follow-up analysis, the time to event was calculated
+as from the date of enrollment to the date of GC diagnosis, death
+due to any causes other than GC, or the end of the study follow
+up (12/31/2013), whichever came fi rst. We used Cox proportional
+hazards regression to estimate hazard ratios (HRs) and 95% CIs.
+We conducted a sensitivity analysis when we excluded incident
+cases within 1 year or 3 years of follow-up. In the risk prediction modeling analysis, receiver operator characteristic curves with corresponding C statistics (area under the
+curve, AUC) based on logistic models were used to measure the
+discriminatory performance of combination of predictors where
+the pathology diagnosis was considered the “gold standard”. Th e
+logistic regression coefficients of the five biomarkers were transformed into an integer risk point by rounding the quotient of dividing the regression coeffi cient by a single constant, which is the
+logistic regression coeffi cient for a 2-year increase in age in relation to GC risk in this population. We created a serological biopsy
+score which is the sum of the individual risk points corresponding to the fi ve biomarkers. All statistical analyses were performed
+using STATA version 13 (StataCorp, College Station, TX, USA). A
+P value&lt;0.05 (two-sided) was considered statistically significant.</t>
   </si>
 </sst>
 </file>
@@ -1113,15 +3543,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1165,6 +3606,44 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="link"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="correct"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE07C5A-F6F5-4AA9-8FB3-3BD46FACE65B}" name="Table32" displayName="Table32" ref="A1:C101" totalsRowShown="0">
+  <autoFilter ref="A1:C101" xr:uid="{EFE07C5A-F6F5-4AA9-8FB3-3BD46FACE65B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{49DDF8FA-D8DA-4C68-8A33-5F3B537E0043}" name="link"/>
+    <tableColumn id="2" xr3:uid="{63749A6E-E378-4030-9FED-82DA37AFC332}" name="correct"/>
+    <tableColumn id="3" xr3:uid="{79D2A735-4272-4A0C-BFA6-F6D4018D738F}" name="comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74F854F7-5C2E-45B7-9CC0-E9AB44A8464C}" name="Table33" displayName="Table33" ref="A1:D100" totalsRowShown="0">
+  <autoFilter ref="A1:D100" xr:uid="{74F854F7-5C2E-45B7-9CC0-E9AB44A8464C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C032BD84-0166-42BD-9E56-94BBEEC62BC6}" name="link"/>
+    <tableColumn id="2" xr3:uid="{94C73800-A560-49BD-9004-95F2825CCAA9}" name="correct"/>
+    <tableColumn id="3" xr3:uid="{F0354DF4-3C73-48CA-8113-1C86C8C7BD37}" name="comments"/>
+    <tableColumn id="4" xr3:uid="{B570AE9E-3440-4223-B703-ACDAAFD9997F}" name="methods" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{90CF1947-A4AC-46C6-B5C8-342E7ECD4AF3}" name="Table37" displayName="Table37" ref="A1:D101" totalsRowShown="0">
+  <autoFilter ref="A1:D101" xr:uid="{90CF1947-A4AC-46C6-B5C8-342E7ECD4AF3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{489AD5E8-C68E-470F-8053-7AAAE42CBFEE}" name="link"/>
+    <tableColumn id="2" xr3:uid="{1FEF8AD7-EFB2-444B-9562-C8FA8020649D}" name="correct"/>
+    <tableColumn id="3" xr3:uid="{4D7F5FE7-B7C4-43BF-B52B-7FF02BBE3B5D}" name="comments"/>
+    <tableColumn id="4" xr3:uid="{A90C7176-4875-4AD0-9DC4-71775C512F25}" name="methods" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1451,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,14 +4271,14 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2456,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2570,10 +5049,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A31" r:id="rId1" xr:uid="{6184DD1F-A546-4D73-91DC-C5EF49F80DBF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2582,8 +5064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2919,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2974,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3051,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3095,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3128,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3183,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3297,14 +5779,14 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B65" t="b">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3436,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3469,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3667,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3678,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3709,11 +6191,12 @@
     <hyperlink ref="A32" r:id="rId2" xr:uid="{AC617162-FA08-4B53-8FA7-1022AED9F3CE}"/>
     <hyperlink ref="A41" r:id="rId3" xr:uid="{05900074-94AF-4DC7-9C7D-0250A941921B}"/>
     <hyperlink ref="A49" r:id="rId4" xr:uid="{93C22837-83B7-48D5-917A-7671D5E1D057}"/>
+    <hyperlink ref="A65" r:id="rId5" xr:uid="{B6774B01-A0A4-4CED-BD5C-58D5BACF9E5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3722,8 +6205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3773,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3795,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3828,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3883,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3949,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3960,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3971,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3982,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4015,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4037,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4081,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4092,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4103,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4147,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4169,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4301,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4345,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4389,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4455,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4466,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4488,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4598,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -4609,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4620,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4697,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4730,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4741,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -4785,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -4853,4 +7336,3974 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2527FABA-0029-468E-AAD8-CF3C7D7CFBA5}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>378</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>380</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>383</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>385</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>386</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>390</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>391</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>394</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>396</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>397</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>398</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>399</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>400</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>402</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>403</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>404</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>405</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>406</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>407</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>408</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>409</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>410</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>412</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>414</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>415</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>416</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>417</v>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>418</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>419</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>420</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>422</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>423</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>425</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>426</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>427</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>428</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>429</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>430</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>431</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>432</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>433</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>434</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>435</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>436</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>437</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>438</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>439</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>440</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>441</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>442</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>443</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>444</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>445</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>446</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>447</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A66" r:id="rId1" xr:uid="{64640B9E-3562-46CE-B6A4-9C6FDD7F145D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCAB0FF-1CA2-402C-B0AB-67F38C2D7DC7}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>471</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>472</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>473</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>476</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>477</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>479</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>480</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>481</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>482</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>483</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>484</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>485</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>486</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>487</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>488</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>551</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>489</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>490</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>491</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>492</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>493</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>494</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>495</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>496</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>497</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>498</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>499</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>500</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>501</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>502</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>503</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>504</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>505</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>506</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>507</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>508</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>509</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>510</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>511</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>512</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>513</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>514</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>515</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>516</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>553</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>517</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>518</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>519</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>520</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>521</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>522</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>523</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>524</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>525</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>526</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>527</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>528</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>529</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>530</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>531</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>532</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>533</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>534</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>528</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>535</v>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>536</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>538</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>539</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>541</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>542</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>543</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>818</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>544</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>545</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>555</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>546</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>547</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>548</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>825</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C35A91-36A2-4C2B-8919-A725AFE2B56B}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>570</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>572</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>573</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>575</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>576</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>577</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>578</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>687</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>579</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>580</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>581</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>582</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>585</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>586</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>587</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>588</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>589</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>591</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>592</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>593</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>594</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>595</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>596</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>597</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>598</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>599</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>600</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>601</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>602</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>603</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>604</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>771</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>605</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>606</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>607</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>608</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>609</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>776</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>610</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>611</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>612</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>613</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>614</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>610</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>615</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>616</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>776</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>617</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>618</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>619</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>620</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>621</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>622</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>623</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>624</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>625</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>626</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>627</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>628</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>629</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>630</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>795</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>631</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>632</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>633</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>634</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>635</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>636</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>828</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>637</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>638</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>639</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>640</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>641</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>642</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>643</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>644</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>637</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>645</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>646</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>630</v>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>840</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>647</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>648</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>649</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>650</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>651</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>652</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>